--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41922208-E4E2-4672-86F9-1E572B46ECA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE63D7-B018-4E31-B1DF-764D325ADF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Channel" sheetId="1" r:id="rId1"/>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,6 +739,10 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.219.102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,15 +1167,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
@@ -1215,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -1450,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1510,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1536,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G3" s="1">
         <v>8</v>
@@ -1765,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192731C-FACF-4F45-B6F0-D5DCE8990D3A}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEE63D7-B018-4E31-B1DF-764D325ADF9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1E801F-F736-4330-B22C-14355590A6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,7 +738,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.219.102</t>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room2.센서1.가스량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room2.센서1.수도량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room2.센서1.전력량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1167,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1185,28 +1197,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1214,13 +1226,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -1240,13 +1252,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1">
         <v>502</v>
@@ -1266,13 +1278,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>502</v>
@@ -1292,13 +1304,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>502</v>
@@ -1318,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>502</v>
@@ -1344,13 +1356,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <v>502</v>
@@ -1370,13 +1382,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>502</v>
@@ -1396,7 +1408,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -1422,13 +1434,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>502</v>
@@ -1456,7 +1468,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1474,28 +1486,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1503,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1515,10 +1527,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="G2" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -1529,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1541,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <v>8</v>
@@ -1555,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -1567,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <v>10</v>
@@ -1581,7 +1593,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -1607,7 +1619,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -1633,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -1659,7 +1671,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1685,7 +1697,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1711,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1737,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
@@ -1768,10 +1780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192731C-FACF-4F45-B6F0-D5DCE8990D3A}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1793,52 +1805,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -1846,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1870,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -1882,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -1890,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1914,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -1926,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -1934,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1952,13 +1964,13 @@
         <v>2000</v>
       </c>
       <c r="H4" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -1970,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -1978,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1996,13 +2008,13 @@
         <v>2000</v>
       </c>
       <c r="H5" s="1">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K5" s="1">
         <v>1</v>
@@ -2014,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -2022,7 +2034,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2040,13 +2052,13 @@
         <v>2000</v>
       </c>
       <c r="H6" s="1">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
         <v>1</v>
@@ -2058,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -2066,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2084,13 +2096,13 @@
         <v>2000</v>
       </c>
       <c r="H7" s="1">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -2107,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2125,7 +2137,7 @@
         <v>40</v>
       </c>
       <c r="H8" s="1">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -2148,7 +2160,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -2166,7 +2178,7 @@
         <v>100</v>
       </c>
       <c r="H9" s="1">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -2189,7 +2201,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -2207,7 +2219,7 @@
         <v>2000</v>
       </c>
       <c r="H10" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -2225,7 +2237,130 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2000</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>2000</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2386,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -2266,7 +2401,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
@@ -2286,7 +2421,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
@@ -2301,7 +2436,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCCACD9-1E95-4437-B89B-C08A546B97B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F604FDA-9E24-4E47-B4A2-254B18068E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="10170" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="10170" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Channel" sheetId="1" r:id="rId1"/>
@@ -2870,7 +2870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3157,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3425,10 +3425,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H11" s="10">
         <v>1</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H14" s="10">
         <v>1</v>
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H21" s="10">
         <v>1</v>
@@ -3732,11 +3732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDE361-6BEC-4C83-93F2-81DF545FC5E6}">
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5312,10 +5312,10 @@
         <v>4</v>
       </c>
       <c r="K2" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L2" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M2" s="7">
         <v>6</v>
@@ -5378,10 +5378,10 @@
         <v>4</v>
       </c>
       <c r="K3" s="7">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M3" s="7">
         <v>6</v>
@@ -5444,10 +5444,10 @@
         <v>4</v>
       </c>
       <c r="K4" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5510,10 +5510,10 @@
         <v>4</v>
       </c>
       <c r="K5" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -5576,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -5642,10 +5642,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="7">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -5711,7 +5711,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="7">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -5849,7 +5849,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="7">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="7">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -5984,10 +5984,10 @@
         <v>4</v>
       </c>
       <c r="K12" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L12" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -6050,10 +6050,10 @@
         <v>4</v>
       </c>
       <c r="K13" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L13" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -6116,10 +6116,10 @@
         <v>4</v>
       </c>
       <c r="K14" s="7">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="L14" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -6181,11 +6181,11 @@
       <c r="J15" s="5">
         <v>4</v>
       </c>
-      <c r="K15" s="5">
-        <v>246</v>
+      <c r="K15" s="7">
+        <v>0</v>
       </c>
       <c r="L15" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M15" s="5">
         <v>6</v>
@@ -6247,11 +6247,11 @@
       <c r="J16" s="5">
         <v>4</v>
       </c>
-      <c r="K16" s="5">
-        <v>246</v>
+      <c r="K16" s="7">
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
         <v>6</v>
@@ -6313,8 +6313,8 @@
       <c r="J17" s="5">
         <v>4</v>
       </c>
-      <c r="K17" s="5">
-        <v>246</v>
+      <c r="K17" s="7">
+        <v>0</v>
       </c>
       <c r="L17" s="5">
         <v>10</v>
@@ -6379,8 +6379,8 @@
       <c r="J18" s="5">
         <v>4</v>
       </c>
-      <c r="K18" s="5">
-        <v>246</v>
+      <c r="K18" s="7">
+        <v>0</v>
       </c>
       <c r="L18" s="5">
         <v>9</v>
@@ -6445,8 +6445,8 @@
       <c r="J19" s="5">
         <v>4</v>
       </c>
-      <c r="K19" s="5">
-        <v>246</v>
+      <c r="K19" s="7">
+        <v>0</v>
       </c>
       <c r="L19" s="5">
         <v>8</v>
@@ -6511,8 +6511,8 @@
       <c r="J20" s="5">
         <v>4</v>
       </c>
-      <c r="K20" s="5">
-        <v>246</v>
+      <c r="K20" s="7">
+        <v>0</v>
       </c>
       <c r="L20" s="5">
         <v>7</v>
@@ -6577,8 +6577,8 @@
       <c r="J21" s="5">
         <v>4</v>
       </c>
-      <c r="K21" s="5">
-        <v>246</v>
+      <c r="K21" s="7">
+        <v>0</v>
       </c>
       <c r="L21" s="5">
         <v>6</v>
@@ -6643,8 +6643,8 @@
       <c r="J22" s="5">
         <v>4</v>
       </c>
-      <c r="K22" s="5">
-        <v>246</v>
+      <c r="K22" s="7">
+        <v>0</v>
       </c>
       <c r="L22" s="5">
         <v>5</v>
@@ -6709,8 +6709,8 @@
       <c r="J23" s="5">
         <v>4</v>
       </c>
-      <c r="K23" s="5">
-        <v>246</v>
+      <c r="K23" s="7">
+        <v>0</v>
       </c>
       <c r="L23" s="5">
         <v>4</v>
@@ -6775,8 +6775,8 @@
       <c r="J24" s="5">
         <v>4</v>
       </c>
-      <c r="K24" s="5">
-        <v>246</v>
+      <c r="K24" s="7">
+        <v>0</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
@@ -6841,8 +6841,8 @@
       <c r="J25" s="5">
         <v>4</v>
       </c>
-      <c r="K25" s="5">
-        <v>246</v>
+      <c r="K25" s="7">
+        <v>0</v>
       </c>
       <c r="L25" s="5">
         <v>2</v>
@@ -6907,8 +6907,8 @@
       <c r="J26" s="5">
         <v>4</v>
       </c>
-      <c r="K26" s="5">
-        <v>246</v>
+      <c r="K26" s="7">
+        <v>0</v>
       </c>
       <c r="L26" s="5">
         <v>1</v>
@@ -6973,8 +6973,8 @@
       <c r="J27" s="5">
         <v>4</v>
       </c>
-      <c r="K27" s="5">
-        <v>246</v>
+      <c r="K27" s="7">
+        <v>0</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -7039,8 +7039,8 @@
       <c r="J28" s="5">
         <v>4</v>
       </c>
-      <c r="K28" s="5">
-        <v>247</v>
+      <c r="K28" s="7">
+        <v>0</v>
       </c>
       <c r="L28" s="5">
         <v>15</v>
@@ -7105,8 +7105,8 @@
       <c r="J29" s="5">
         <v>4</v>
       </c>
-      <c r="K29" s="5">
-        <v>247</v>
+      <c r="K29" s="7">
+        <v>0</v>
       </c>
       <c r="L29" s="5">
         <v>14</v>
@@ -7171,8 +7171,8 @@
       <c r="J30" s="5">
         <v>4</v>
       </c>
-      <c r="K30" s="5">
-        <v>247</v>
+      <c r="K30" s="7">
+        <v>0</v>
       </c>
       <c r="L30" s="5">
         <v>13</v>
@@ -7237,8 +7237,8 @@
       <c r="J31" s="5">
         <v>4</v>
       </c>
-      <c r="K31" s="5">
-        <v>247</v>
+      <c r="K31" s="7">
+        <v>0</v>
       </c>
       <c r="L31" s="5">
         <v>12</v>
@@ -7303,8 +7303,8 @@
       <c r="J32" s="5">
         <v>4</v>
       </c>
-      <c r="K32" s="5">
-        <v>247</v>
+      <c r="K32" s="7">
+        <v>0</v>
       </c>
       <c r="L32" s="5">
         <v>11</v>
@@ -7369,8 +7369,8 @@
       <c r="J33" s="5">
         <v>4</v>
       </c>
-      <c r="K33" s="5">
-        <v>247</v>
+      <c r="K33" s="7">
+        <v>0</v>
       </c>
       <c r="L33" s="5">
         <v>10</v>
@@ -7435,8 +7435,8 @@
       <c r="J34" s="5">
         <v>4</v>
       </c>
-      <c r="K34" s="5">
-        <v>247</v>
+      <c r="K34" s="7">
+        <v>0</v>
       </c>
       <c r="L34" s="5">
         <v>9</v>
@@ -7501,8 +7501,8 @@
       <c r="J35" s="5">
         <v>4</v>
       </c>
-      <c r="K35" s="5">
-        <v>247</v>
+      <c r="K35" s="7">
+        <v>0</v>
       </c>
       <c r="L35" s="5">
         <v>8</v>
@@ -7567,8 +7567,8 @@
       <c r="J36" s="5">
         <v>4</v>
       </c>
-      <c r="K36" s="5">
-        <v>247</v>
+      <c r="K36" s="7">
+        <v>0</v>
       </c>
       <c r="L36" s="5">
         <v>7</v>
@@ -7633,8 +7633,8 @@
       <c r="J37" s="5">
         <v>4</v>
       </c>
-      <c r="K37" s="5">
-        <v>247</v>
+      <c r="K37" s="7">
+        <v>0</v>
       </c>
       <c r="L37" s="5">
         <v>6</v>
@@ -7699,8 +7699,8 @@
       <c r="J38" s="5">
         <v>4</v>
       </c>
-      <c r="K38" s="5">
-        <v>247</v>
+      <c r="K38" s="7">
+        <v>0</v>
       </c>
       <c r="L38" s="5">
         <v>5</v>
@@ -7765,8 +7765,8 @@
       <c r="J39" s="5">
         <v>4</v>
       </c>
-      <c r="K39" s="5">
-        <v>247</v>
+      <c r="K39" s="7">
+        <v>0</v>
       </c>
       <c r="L39" s="5">
         <v>4</v>
@@ -7831,8 +7831,8 @@
       <c r="J40" s="5">
         <v>4</v>
       </c>
-      <c r="K40" s="5">
-        <v>247</v>
+      <c r="K40" s="7">
+        <v>0</v>
       </c>
       <c r="L40" s="5">
         <v>3</v>
@@ -7897,8 +7897,8 @@
       <c r="J41" s="5">
         <v>4</v>
       </c>
-      <c r="K41" s="5">
-        <v>247</v>
+      <c r="K41" s="7">
+        <v>0</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -7966,8 +7966,8 @@
       <c r="J42" s="5">
         <v>4</v>
       </c>
-      <c r="K42" s="8">
-        <v>256</v>
+      <c r="K42" s="7">
+        <v>0</v>
       </c>
       <c r="L42" s="8">
         <v>0</v>
@@ -8035,8 +8035,8 @@
       <c r="J43" s="5">
         <v>4</v>
       </c>
-      <c r="K43" s="8">
-        <v>257</v>
+      <c r="K43" s="7">
+        <v>0</v>
       </c>
       <c r="L43" s="8">
         <v>0</v>
@@ -8101,8 +8101,8 @@
       <c r="J44" s="5">
         <v>4</v>
       </c>
-      <c r="K44" s="8">
-        <v>267</v>
+      <c r="K44" s="7">
+        <v>0</v>
       </c>
       <c r="L44" s="8">
         <v>0</v>
@@ -8161,8 +8161,8 @@
       <c r="J45" s="5">
         <v>4</v>
       </c>
-      <c r="K45" s="8">
-        <v>286</v>
+      <c r="K45" s="7">
+        <v>0</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
@@ -8230,8 +8230,8 @@
       <c r="J46" s="5">
         <v>4</v>
       </c>
-      <c r="K46" s="8">
-        <v>366</v>
+      <c r="K46" s="7">
+        <v>0</v>
       </c>
       <c r="L46" s="8">
         <v>0</v>
@@ -8296,11 +8296,11 @@
       <c r="J47" s="5">
         <v>4</v>
       </c>
-      <c r="K47" s="5">
-        <v>211</v>
+      <c r="K47" s="7">
+        <v>0</v>
       </c>
       <c r="L47" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M47" s="5">
         <v>6</v>
@@ -8362,11 +8362,11 @@
       <c r="J48" s="5">
         <v>4</v>
       </c>
-      <c r="K48" s="5">
-        <v>211</v>
+      <c r="K48" s="7">
+        <v>0</v>
       </c>
       <c r="L48" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M48" s="5">
         <v>6</v>
@@ -8428,11 +8428,11 @@
       <c r="J49" s="5">
         <v>4</v>
       </c>
-      <c r="K49" s="5">
-        <v>213</v>
+      <c r="K49" s="7">
+        <v>0</v>
       </c>
       <c r="L49" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M49" s="5">
         <v>6</v>
@@ -8494,11 +8494,11 @@
       <c r="J50" s="5">
         <v>4</v>
       </c>
-      <c r="K50" s="5">
-        <v>213</v>
+      <c r="K50" s="7">
+        <v>0</v>
       </c>
       <c r="L50" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M50" s="5">
         <v>6</v>
@@ -8560,11 +8560,11 @@
       <c r="J51" s="5">
         <v>4</v>
       </c>
-      <c r="K51" s="5">
-        <v>213</v>
+      <c r="K51" s="7">
+        <v>0</v>
       </c>
       <c r="L51" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M51" s="5">
         <v>6</v>
@@ -8626,11 +8626,11 @@
       <c r="J52" s="5">
         <v>4</v>
       </c>
-      <c r="K52" s="5">
-        <v>213</v>
+      <c r="K52" s="7">
+        <v>0</v>
       </c>
       <c r="L52" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M52" s="5">
         <v>6</v>
@@ -8695,8 +8695,8 @@
       <c r="J53" s="5">
         <v>4</v>
       </c>
-      <c r="K53" s="5">
-        <v>218</v>
+      <c r="K53" s="7">
+        <v>0</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
@@ -8764,8 +8764,8 @@
       <c r="J54" s="5">
         <v>4</v>
       </c>
-      <c r="K54" s="5">
-        <v>219</v>
+      <c r="K54" s="7">
+        <v>0</v>
       </c>
       <c r="L54" s="5">
         <v>0</v>
@@ -8833,8 +8833,8 @@
       <c r="J55" s="5">
         <v>4</v>
       </c>
-      <c r="K55" s="5">
-        <v>223</v>
+      <c r="K55" s="7">
+        <v>0</v>
       </c>
       <c r="L55" s="5">
         <v>0</v>
@@ -8902,8 +8902,8 @@
       <c r="J56" s="5">
         <v>4</v>
       </c>
-      <c r="K56" s="5">
-        <v>224</v>
+      <c r="K56" s="7">
+        <v>0</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
@@ -8968,11 +8968,11 @@
       <c r="J57" s="5">
         <v>4</v>
       </c>
-      <c r="K57" s="5">
-        <v>246</v>
+      <c r="K57" s="7">
+        <v>0</v>
       </c>
       <c r="L57" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M57" s="5">
         <v>6</v>
@@ -9034,11 +9034,11 @@
       <c r="J58" s="5">
         <v>4</v>
       </c>
-      <c r="K58" s="5">
-        <v>246</v>
+      <c r="K58" s="7">
+        <v>0</v>
       </c>
       <c r="L58" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M58" s="5">
         <v>6</v>
@@ -9100,11 +9100,11 @@
       <c r="J59" s="5">
         <v>4</v>
       </c>
-      <c r="K59" s="5">
-        <v>246</v>
+      <c r="K59" s="7">
+        <v>0</v>
       </c>
       <c r="L59" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M59" s="5">
         <v>6</v>
@@ -9166,11 +9166,11 @@
       <c r="J60" s="5">
         <v>4</v>
       </c>
-      <c r="K60" s="5">
-        <v>246</v>
+      <c r="K60" s="7">
+        <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M60" s="5">
         <v>6</v>
@@ -9232,11 +9232,11 @@
       <c r="J61" s="5">
         <v>4</v>
       </c>
-      <c r="K61" s="5">
-        <v>246</v>
+      <c r="K61" s="7">
+        <v>0</v>
       </c>
       <c r="L61" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M61" s="5">
         <v>6</v>
@@ -9298,8 +9298,8 @@
       <c r="J62" s="5">
         <v>4</v>
       </c>
-      <c r="K62" s="5">
-        <v>246</v>
+      <c r="K62" s="7">
+        <v>0</v>
       </c>
       <c r="L62" s="5">
         <v>10</v>
@@ -9364,8 +9364,8 @@
       <c r="J63" s="5">
         <v>4</v>
       </c>
-      <c r="K63" s="5">
-        <v>246</v>
+      <c r="K63" s="7">
+        <v>0</v>
       </c>
       <c r="L63" s="5">
         <v>9</v>
@@ -9430,8 +9430,8 @@
       <c r="J64" s="5">
         <v>4</v>
       </c>
-      <c r="K64" s="5">
-        <v>246</v>
+      <c r="K64" s="7">
+        <v>0</v>
       </c>
       <c r="L64" s="5">
         <v>8</v>
@@ -9496,8 +9496,8 @@
       <c r="J65" s="5">
         <v>4</v>
       </c>
-      <c r="K65" s="5">
-        <v>246</v>
+      <c r="K65" s="7">
+        <v>0</v>
       </c>
       <c r="L65" s="5">
         <v>7</v>
@@ -9562,8 +9562,8 @@
       <c r="J66" s="5">
         <v>4</v>
       </c>
-      <c r="K66" s="5">
-        <v>246</v>
+      <c r="K66" s="7">
+        <v>0</v>
       </c>
       <c r="L66" s="5">
         <v>6</v>
@@ -9628,8 +9628,8 @@
       <c r="J67" s="5">
         <v>4</v>
       </c>
-      <c r="K67" s="5">
-        <v>246</v>
+      <c r="K67" s="7">
+        <v>0</v>
       </c>
       <c r="L67" s="5">
         <v>5</v>
@@ -9694,8 +9694,8 @@
       <c r="J68" s="5">
         <v>4</v>
       </c>
-      <c r="K68" s="5">
-        <v>246</v>
+      <c r="K68" s="7">
+        <v>0</v>
       </c>
       <c r="L68" s="5">
         <v>4</v>
@@ -9760,8 +9760,8 @@
       <c r="J69" s="5">
         <v>4</v>
       </c>
-      <c r="K69" s="5">
-        <v>246</v>
+      <c r="K69" s="7">
+        <v>0</v>
       </c>
       <c r="L69" s="5">
         <v>3</v>
@@ -9826,8 +9826,8 @@
       <c r="J70" s="5">
         <v>4</v>
       </c>
-      <c r="K70" s="5">
-        <v>246</v>
+      <c r="K70" s="7">
+        <v>0</v>
       </c>
       <c r="L70" s="5">
         <v>2</v>
@@ -9892,8 +9892,8 @@
       <c r="J71" s="5">
         <v>4</v>
       </c>
-      <c r="K71" s="5">
-        <v>246</v>
+      <c r="K71" s="7">
+        <v>0</v>
       </c>
       <c r="L71" s="5">
         <v>1</v>
@@ -9958,8 +9958,8 @@
       <c r="J72" s="5">
         <v>4</v>
       </c>
-      <c r="K72" s="5">
-        <v>246</v>
+      <c r="K72" s="7">
+        <v>0</v>
       </c>
       <c r="L72" s="5">
         <v>0</v>
@@ -10024,11 +10024,11 @@
       <c r="J73" s="5">
         <v>4</v>
       </c>
-      <c r="K73" s="5">
-        <v>247</v>
+      <c r="K73" s="7">
+        <v>0</v>
       </c>
       <c r="L73" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M73" s="5">
         <v>6</v>
@@ -10090,11 +10090,11 @@
       <c r="J74" s="5">
         <v>4</v>
       </c>
-      <c r="K74" s="5">
-        <v>247</v>
+      <c r="K74" s="7">
+        <v>0</v>
       </c>
       <c r="L74" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M74" s="5">
         <v>6</v>
@@ -10156,11 +10156,11 @@
       <c r="J75" s="5">
         <v>4</v>
       </c>
-      <c r="K75" s="5">
-        <v>247</v>
+      <c r="K75" s="7">
+        <v>0</v>
       </c>
       <c r="L75" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M75" s="5">
         <v>6</v>
@@ -10222,11 +10222,11 @@
       <c r="J76" s="5">
         <v>4</v>
       </c>
-      <c r="K76" s="5">
-        <v>247</v>
+      <c r="K76" s="7">
+        <v>0</v>
       </c>
       <c r="L76" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M76" s="5">
         <v>6</v>
@@ -10288,11 +10288,11 @@
       <c r="J77" s="5">
         <v>4</v>
       </c>
-      <c r="K77" s="5">
-        <v>247</v>
+      <c r="K77" s="7">
+        <v>0</v>
       </c>
       <c r="L77" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M77" s="5">
         <v>6</v>
@@ -10354,8 +10354,8 @@
       <c r="J78" s="5">
         <v>4</v>
       </c>
-      <c r="K78" s="5">
-        <v>247</v>
+      <c r="K78" s="7">
+        <v>0</v>
       </c>
       <c r="L78" s="5">
         <v>10</v>
@@ -10420,8 +10420,8 @@
       <c r="J79" s="5">
         <v>4</v>
       </c>
-      <c r="K79" s="5">
-        <v>247</v>
+      <c r="K79" s="7">
+        <v>0</v>
       </c>
       <c r="L79" s="5">
         <v>9</v>
@@ -10486,8 +10486,8 @@
       <c r="J80" s="5">
         <v>4</v>
       </c>
-      <c r="K80" s="5">
-        <v>247</v>
+      <c r="K80" s="7">
+        <v>0</v>
       </c>
       <c r="L80" s="5">
         <v>8</v>
@@ -10552,8 +10552,8 @@
       <c r="J81" s="5">
         <v>4</v>
       </c>
-      <c r="K81" s="5">
-        <v>247</v>
+      <c r="K81" s="7">
+        <v>0</v>
       </c>
       <c r="L81" s="5">
         <v>7</v>
@@ -10618,8 +10618,8 @@
       <c r="J82" s="5">
         <v>4</v>
       </c>
-      <c r="K82" s="5">
-        <v>247</v>
+      <c r="K82" s="7">
+        <v>0</v>
       </c>
       <c r="L82" s="5">
         <v>6</v>
@@ -10684,8 +10684,8 @@
       <c r="J83" s="5">
         <v>4</v>
       </c>
-      <c r="K83" s="5">
-        <v>247</v>
+      <c r="K83" s="7">
+        <v>0</v>
       </c>
       <c r="L83" s="5">
         <v>5</v>
@@ -10750,8 +10750,8 @@
       <c r="J84" s="5">
         <v>4</v>
       </c>
-      <c r="K84" s="5">
-        <v>247</v>
+      <c r="K84" s="7">
+        <v>0</v>
       </c>
       <c r="L84" s="5">
         <v>4</v>
@@ -10816,8 +10816,8 @@
       <c r="J85" s="5">
         <v>4</v>
       </c>
-      <c r="K85" s="5">
-        <v>247</v>
+      <c r="K85" s="7">
+        <v>0</v>
       </c>
       <c r="L85" s="5">
         <v>3</v>
@@ -10882,8 +10882,8 @@
       <c r="J86" s="5">
         <v>4</v>
       </c>
-      <c r="K86" s="5">
-        <v>247</v>
+      <c r="K86" s="7">
+        <v>0</v>
       </c>
       <c r="L86" s="5">
         <v>2</v>
@@ -10948,8 +10948,8 @@
       <c r="J87" s="5">
         <v>4</v>
       </c>
-      <c r="K87" s="5">
-        <v>247</v>
+      <c r="K87" s="7">
+        <v>0</v>
       </c>
       <c r="L87" s="5">
         <v>1</v>
@@ -11014,8 +11014,8 @@
       <c r="J88" s="5">
         <v>4</v>
       </c>
-      <c r="K88" s="5">
-        <v>247</v>
+      <c r="K88" s="7">
+        <v>0</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
@@ -11083,8 +11083,8 @@
       <c r="J89" s="5">
         <v>4</v>
       </c>
-      <c r="K89" s="5">
-        <v>256</v>
+      <c r="K89" s="7">
+        <v>0</v>
       </c>
       <c r="L89" s="5">
         <v>0</v>
@@ -11152,8 +11152,8 @@
       <c r="J90" s="5">
         <v>4</v>
       </c>
-      <c r="K90" s="5">
-        <v>257</v>
+      <c r="K90" s="7">
+        <v>0</v>
       </c>
       <c r="L90" s="5">
         <v>0</v>
@@ -11218,8 +11218,8 @@
       <c r="J91" s="5">
         <v>4</v>
       </c>
-      <c r="K91" s="5">
-        <v>267</v>
+      <c r="K91" s="7">
+        <v>0</v>
       </c>
       <c r="L91" s="5">
         <v>0</v>
@@ -11278,8 +11278,8 @@
       <c r="J92" s="5">
         <v>4</v>
       </c>
-      <c r="K92" s="5">
-        <v>286</v>
+      <c r="K92" s="7">
+        <v>0</v>
       </c>
       <c r="L92" s="5">
         <v>0</v>
@@ -11347,8 +11347,8 @@
       <c r="J93" s="5">
         <v>4</v>
       </c>
-      <c r="K93" s="5">
-        <v>366</v>
+      <c r="K93" s="7">
+        <v>0</v>
       </c>
       <c r="L93" s="5">
         <v>0</v>
@@ -11413,11 +11413,11 @@
       <c r="J94" s="5">
         <v>4</v>
       </c>
-      <c r="K94" s="5">
-        <v>211</v>
+      <c r="K94" s="7">
+        <v>0</v>
       </c>
       <c r="L94" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M94" s="5">
         <v>6</v>
@@ -11479,11 +11479,11 @@
       <c r="J95" s="5">
         <v>4</v>
       </c>
-      <c r="K95" s="5">
-        <v>211</v>
+      <c r="K95" s="7">
+        <v>0</v>
       </c>
       <c r="L95" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M95" s="5">
         <v>6</v>
@@ -11545,11 +11545,11 @@
       <c r="J96" s="5">
         <v>4</v>
       </c>
-      <c r="K96" s="5">
-        <v>213</v>
+      <c r="K96" s="7">
+        <v>0</v>
       </c>
       <c r="L96" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M96" s="5">
         <v>6</v>
@@ -11611,11 +11611,11 @@
       <c r="J97" s="5">
         <v>4</v>
       </c>
-      <c r="K97" s="5">
-        <v>213</v>
+      <c r="K97" s="7">
+        <v>0</v>
       </c>
       <c r="L97" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M97" s="5">
         <v>6</v>
@@ -11677,11 +11677,11 @@
       <c r="J98" s="5">
         <v>4</v>
       </c>
-      <c r="K98" s="5">
-        <v>213</v>
+      <c r="K98" s="7">
+        <v>0</v>
       </c>
       <c r="L98" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M98" s="5">
         <v>6</v>
@@ -11743,11 +11743,11 @@
       <c r="J99" s="5">
         <v>4</v>
       </c>
-      <c r="K99" s="5">
-        <v>213</v>
+      <c r="K99" s="7">
+        <v>0</v>
       </c>
       <c r="L99" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M99" s="5">
         <v>6</v>
@@ -11812,8 +11812,8 @@
       <c r="J100" s="5">
         <v>4</v>
       </c>
-      <c r="K100" s="5">
-        <v>218</v>
+      <c r="K100" s="7">
+        <v>0</v>
       </c>
       <c r="L100" s="5">
         <v>0</v>
@@ -11881,8 +11881,8 @@
       <c r="J101" s="5">
         <v>4</v>
       </c>
-      <c r="K101" s="5">
-        <v>219</v>
+      <c r="K101" s="7">
+        <v>0</v>
       </c>
       <c r="L101" s="5">
         <v>0</v>
@@ -11950,8 +11950,8 @@
       <c r="J102" s="5">
         <v>4</v>
       </c>
-      <c r="K102" s="5">
-        <v>223</v>
+      <c r="K102" s="7">
+        <v>0</v>
       </c>
       <c r="L102" s="5">
         <v>0</v>
@@ -12019,8 +12019,8 @@
       <c r="J103" s="5">
         <v>4</v>
       </c>
-      <c r="K103" s="5">
-        <v>40224</v>
+      <c r="K103" s="7">
+        <v>0</v>
       </c>
       <c r="L103" s="5">
         <v>0</v>
@@ -12085,11 +12085,11 @@
       <c r="J104" s="5">
         <v>4</v>
       </c>
-      <c r="K104" s="5">
-        <v>40246</v>
+      <c r="K104" s="7">
+        <v>0</v>
       </c>
       <c r="L104" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M104" s="5">
         <v>6</v>
@@ -12151,11 +12151,11 @@
       <c r="J105" s="5">
         <v>4</v>
       </c>
-      <c r="K105" s="5">
-        <v>40246</v>
+      <c r="K105" s="7">
+        <v>0</v>
       </c>
       <c r="L105" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M105" s="5">
         <v>6</v>
@@ -12217,11 +12217,11 @@
       <c r="J106" s="5">
         <v>4</v>
       </c>
-      <c r="K106" s="5">
-        <v>40246</v>
+      <c r="K106" s="7">
+        <v>0</v>
       </c>
       <c r="L106" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M106" s="5">
         <v>6</v>
@@ -12283,11 +12283,11 @@
       <c r="J107" s="5">
         <v>4</v>
       </c>
-      <c r="K107" s="5">
-        <v>40246</v>
+      <c r="K107" s="7">
+        <v>0</v>
       </c>
       <c r="L107" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M107" s="5">
         <v>6</v>
@@ -12349,11 +12349,11 @@
       <c r="J108" s="5">
         <v>4</v>
       </c>
-      <c r="K108" s="5">
-        <v>40246</v>
+      <c r="K108" s="7">
+        <v>0</v>
       </c>
       <c r="L108" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M108" s="5">
         <v>6</v>
@@ -12415,8 +12415,8 @@
       <c r="J109" s="5">
         <v>4</v>
       </c>
-      <c r="K109" s="5">
-        <v>40246</v>
+      <c r="K109" s="7">
+        <v>0</v>
       </c>
       <c r="L109" s="5">
         <v>10</v>
@@ -12481,8 +12481,8 @@
       <c r="J110" s="5">
         <v>4</v>
       </c>
-      <c r="K110" s="5">
-        <v>40246</v>
+      <c r="K110" s="7">
+        <v>0</v>
       </c>
       <c r="L110" s="5">
         <v>9</v>
@@ -12547,8 +12547,8 @@
       <c r="J111" s="5">
         <v>4</v>
       </c>
-      <c r="K111" s="5">
-        <v>40246</v>
+      <c r="K111" s="7">
+        <v>0</v>
       </c>
       <c r="L111" s="5">
         <v>8</v>
@@ -12613,8 +12613,8 @@
       <c r="J112" s="5">
         <v>4</v>
       </c>
-      <c r="K112" s="5">
-        <v>40246</v>
+      <c r="K112" s="7">
+        <v>0</v>
       </c>
       <c r="L112" s="5">
         <v>7</v>
@@ -12679,8 +12679,8 @@
       <c r="J113" s="5">
         <v>4</v>
       </c>
-      <c r="K113" s="5">
-        <v>40246</v>
+      <c r="K113" s="7">
+        <v>0</v>
       </c>
       <c r="L113" s="5">
         <v>6</v>
@@ -12745,8 +12745,8 @@
       <c r="J114" s="5">
         <v>4</v>
       </c>
-      <c r="K114" s="5">
-        <v>40246</v>
+      <c r="K114" s="7">
+        <v>0</v>
       </c>
       <c r="L114" s="5">
         <v>5</v>
@@ -12811,8 +12811,8 @@
       <c r="J115" s="5">
         <v>4</v>
       </c>
-      <c r="K115" s="5">
-        <v>40246</v>
+      <c r="K115" s="7">
+        <v>0</v>
       </c>
       <c r="L115" s="5">
         <v>4</v>
@@ -12877,8 +12877,8 @@
       <c r="J116" s="5">
         <v>4</v>
       </c>
-      <c r="K116" s="5">
-        <v>40246</v>
+      <c r="K116" s="7">
+        <v>0</v>
       </c>
       <c r="L116" s="5">
         <v>3</v>
@@ -12943,8 +12943,8 @@
       <c r="J117" s="5">
         <v>4</v>
       </c>
-      <c r="K117" s="5">
-        <v>40246</v>
+      <c r="K117" s="7">
+        <v>0</v>
       </c>
       <c r="L117" s="5">
         <v>2</v>
@@ -13009,8 +13009,8 @@
       <c r="J118" s="5">
         <v>4</v>
       </c>
-      <c r="K118" s="5">
-        <v>40246</v>
+      <c r="K118" s="7">
+        <v>0</v>
       </c>
       <c r="L118" s="5">
         <v>1</v>
@@ -13075,8 +13075,8 @@
       <c r="J119" s="5">
         <v>4</v>
       </c>
-      <c r="K119" s="5">
-        <v>40246</v>
+      <c r="K119" s="7">
+        <v>0</v>
       </c>
       <c r="L119" s="5">
         <v>0</v>
@@ -13141,11 +13141,11 @@
       <c r="J120" s="5">
         <v>4</v>
       </c>
-      <c r="K120" s="5">
-        <v>40247</v>
+      <c r="K120" s="7">
+        <v>0</v>
       </c>
       <c r="L120" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M120" s="5">
         <v>6</v>
@@ -13207,11 +13207,11 @@
       <c r="J121" s="5">
         <v>4</v>
       </c>
-      <c r="K121" s="5">
-        <v>40247</v>
+      <c r="K121" s="7">
+        <v>0</v>
       </c>
       <c r="L121" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M121" s="5">
         <v>6</v>
@@ -13273,11 +13273,11 @@
       <c r="J122" s="5">
         <v>4</v>
       </c>
-      <c r="K122" s="5">
-        <v>40247</v>
+      <c r="K122" s="7">
+        <v>0</v>
       </c>
       <c r="L122" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M122" s="5">
         <v>6</v>
@@ -13339,11 +13339,11 @@
       <c r="J123" s="5">
         <v>4</v>
       </c>
-      <c r="K123" s="5">
-        <v>40247</v>
+      <c r="K123" s="7">
+        <v>0</v>
       </c>
       <c r="L123" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M123" s="5">
         <v>6</v>
@@ -13405,11 +13405,11 @@
       <c r="J124" s="5">
         <v>4</v>
       </c>
-      <c r="K124" s="5">
-        <v>40247</v>
+      <c r="K124" s="7">
+        <v>0</v>
       </c>
       <c r="L124" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M124" s="5">
         <v>6</v>
@@ -13471,8 +13471,8 @@
       <c r="J125" s="5">
         <v>4</v>
       </c>
-      <c r="K125" s="5">
-        <v>40247</v>
+      <c r="K125" s="7">
+        <v>0</v>
       </c>
       <c r="L125" s="5">
         <v>10</v>
@@ -13537,8 +13537,8 @@
       <c r="J126" s="5">
         <v>4</v>
       </c>
-      <c r="K126" s="5">
-        <v>40247</v>
+      <c r="K126" s="7">
+        <v>0</v>
       </c>
       <c r="L126" s="5">
         <v>9</v>
@@ -13603,8 +13603,8 @@
       <c r="J127" s="5">
         <v>4</v>
       </c>
-      <c r="K127" s="5">
-        <v>40247</v>
+      <c r="K127" s="7">
+        <v>0</v>
       </c>
       <c r="L127" s="5">
         <v>8</v>
@@ -13669,8 +13669,8 @@
       <c r="J128" s="5">
         <v>4</v>
       </c>
-      <c r="K128" s="5">
-        <v>40247</v>
+      <c r="K128" s="7">
+        <v>0</v>
       </c>
       <c r="L128" s="5">
         <v>7</v>
@@ -13735,8 +13735,8 @@
       <c r="J129" s="5">
         <v>4</v>
       </c>
-      <c r="K129" s="5">
-        <v>40247</v>
+      <c r="K129" s="7">
+        <v>0</v>
       </c>
       <c r="L129" s="5">
         <v>6</v>
@@ -13801,8 +13801,8 @@
       <c r="J130" s="5">
         <v>4</v>
       </c>
-      <c r="K130" s="5">
-        <v>40247</v>
+      <c r="K130" s="7">
+        <v>0</v>
       </c>
       <c r="L130" s="5">
         <v>5</v>
@@ -13867,8 +13867,8 @@
       <c r="J131" s="5">
         <v>4</v>
       </c>
-      <c r="K131" s="5">
-        <v>40247</v>
+      <c r="K131" s="7">
+        <v>0</v>
       </c>
       <c r="L131" s="5">
         <v>4</v>
@@ -13933,8 +13933,8 @@
       <c r="J132" s="5">
         <v>4</v>
       </c>
-      <c r="K132" s="5">
-        <v>40247</v>
+      <c r="K132" s="7">
+        <v>0</v>
       </c>
       <c r="L132" s="5">
         <v>3</v>
@@ -13999,8 +13999,8 @@
       <c r="J133" s="5">
         <v>4</v>
       </c>
-      <c r="K133" s="5">
-        <v>40247</v>
+      <c r="K133" s="7">
+        <v>0</v>
       </c>
       <c r="L133" s="5">
         <v>2</v>
@@ -14065,8 +14065,8 @@
       <c r="J134" s="5">
         <v>4</v>
       </c>
-      <c r="K134" s="5">
-        <v>40247</v>
+      <c r="K134" s="7">
+        <v>0</v>
       </c>
       <c r="L134" s="5">
         <v>1</v>
@@ -14131,8 +14131,8 @@
       <c r="J135" s="5">
         <v>4</v>
       </c>
-      <c r="K135" s="5">
-        <v>40247</v>
+      <c r="K135" s="7">
+        <v>0</v>
       </c>
       <c r="L135" s="5">
         <v>0</v>
@@ -14200,8 +14200,8 @@
       <c r="J136" s="5">
         <v>4</v>
       </c>
-      <c r="K136" s="5">
-        <v>40256</v>
+      <c r="K136" s="7">
+        <v>0</v>
       </c>
       <c r="L136" s="5">
         <v>0</v>
@@ -14269,8 +14269,8 @@
       <c r="J137" s="5">
         <v>4</v>
       </c>
-      <c r="K137" s="5">
-        <v>40257</v>
+      <c r="K137" s="7">
+        <v>0</v>
       </c>
       <c r="L137" s="5">
         <v>0</v>
@@ -14335,8 +14335,8 @@
       <c r="J138" s="5">
         <v>4</v>
       </c>
-      <c r="K138" s="5">
-        <v>40267</v>
+      <c r="K138" s="7">
+        <v>0</v>
       </c>
       <c r="L138" s="5">
         <v>0</v>
@@ -14395,8 +14395,8 @@
       <c r="J139" s="5">
         <v>4</v>
       </c>
-      <c r="K139" s="5">
-        <v>40286</v>
+      <c r="K139" s="7">
+        <v>0</v>
       </c>
       <c r="L139" s="5">
         <v>0</v>
@@ -14464,8 +14464,8 @@
       <c r="J140" s="5">
         <v>4</v>
       </c>
-      <c r="K140" s="5">
-        <v>40366</v>
+      <c r="K140" s="7">
+        <v>0</v>
       </c>
       <c r="L140" s="5">
         <v>0</v>
@@ -14530,11 +14530,11 @@
       <c r="J141" s="5">
         <v>4</v>
       </c>
-      <c r="K141" s="5">
-        <v>40211</v>
+      <c r="K141" s="7">
+        <v>0</v>
       </c>
       <c r="L141" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M141" s="5">
         <v>6</v>
@@ -14596,11 +14596,11 @@
       <c r="J142" s="5">
         <v>4</v>
       </c>
-      <c r="K142" s="5">
-        <v>40211</v>
+      <c r="K142" s="7">
+        <v>0</v>
       </c>
       <c r="L142" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M142" s="5">
         <v>6</v>
@@ -14662,11 +14662,11 @@
       <c r="J143" s="5">
         <v>4</v>
       </c>
-      <c r="K143" s="5">
-        <v>40213</v>
+      <c r="K143" s="7">
+        <v>0</v>
       </c>
       <c r="L143" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M143" s="5">
         <v>6</v>
@@ -14728,11 +14728,11 @@
       <c r="J144" s="5">
         <v>4</v>
       </c>
-      <c r="K144" s="5">
-        <v>40213</v>
+      <c r="K144" s="7">
+        <v>0</v>
       </c>
       <c r="L144" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M144" s="5">
         <v>6</v>
@@ -14794,11 +14794,11 @@
       <c r="J145" s="5">
         <v>4</v>
       </c>
-      <c r="K145" s="5">
-        <v>40213</v>
+      <c r="K145" s="7">
+        <v>0</v>
       </c>
       <c r="L145" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M145" s="5">
         <v>6</v>
@@ -14860,11 +14860,11 @@
       <c r="J146" s="5">
         <v>4</v>
       </c>
-      <c r="K146" s="5">
-        <v>40213</v>
+      <c r="K146" s="7">
+        <v>0</v>
       </c>
       <c r="L146" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M146" s="5">
         <v>6</v>
@@ -14929,8 +14929,8 @@
       <c r="J147" s="5">
         <v>4</v>
       </c>
-      <c r="K147" s="5">
-        <v>40218</v>
+      <c r="K147" s="7">
+        <v>0</v>
       </c>
       <c r="L147" s="5">
         <v>0</v>
@@ -14998,8 +14998,8 @@
       <c r="J148" s="5">
         <v>4</v>
       </c>
-      <c r="K148" s="5">
-        <v>40219</v>
+      <c r="K148" s="7">
+        <v>0</v>
       </c>
       <c r="L148" s="5">
         <v>0</v>
@@ -15067,8 +15067,8 @@
       <c r="J149" s="5">
         <v>4</v>
       </c>
-      <c r="K149" s="5">
-        <v>40223</v>
+      <c r="K149" s="7">
+        <v>0</v>
       </c>
       <c r="L149" s="5">
         <v>0</v>
@@ -15136,8 +15136,8 @@
       <c r="J150" s="5">
         <v>4</v>
       </c>
-      <c r="K150" s="5">
-        <v>40224</v>
+      <c r="K150" s="7">
+        <v>0</v>
       </c>
       <c r="L150" s="5">
         <v>0</v>
@@ -15202,11 +15202,11 @@
       <c r="J151" s="5">
         <v>4</v>
       </c>
-      <c r="K151" s="5">
-        <v>40246</v>
+      <c r="K151" s="7">
+        <v>0</v>
       </c>
       <c r="L151" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M151" s="5">
         <v>6</v>
@@ -15268,11 +15268,11 @@
       <c r="J152" s="5">
         <v>4</v>
       </c>
-      <c r="K152" s="5">
-        <v>40246</v>
+      <c r="K152" s="7">
+        <v>0</v>
       </c>
       <c r="L152" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M152" s="5">
         <v>6</v>
@@ -15334,11 +15334,11 @@
       <c r="J153" s="5">
         <v>4</v>
       </c>
-      <c r="K153" s="5">
-        <v>40246</v>
+      <c r="K153" s="7">
+        <v>0</v>
       </c>
       <c r="L153" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M153" s="5">
         <v>6</v>
@@ -15400,11 +15400,11 @@
       <c r="J154" s="5">
         <v>4</v>
       </c>
-      <c r="K154" s="5">
-        <v>40246</v>
+      <c r="K154" s="7">
+        <v>0</v>
       </c>
       <c r="L154" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M154" s="5">
         <v>6</v>
@@ -15466,11 +15466,11 @@
       <c r="J155" s="5">
         <v>4</v>
       </c>
-      <c r="K155" s="5">
-        <v>40246</v>
+      <c r="K155" s="7">
+        <v>0</v>
       </c>
       <c r="L155" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M155" s="5">
         <v>6</v>
@@ -15532,8 +15532,8 @@
       <c r="J156" s="5">
         <v>4</v>
       </c>
-      <c r="K156" s="5">
-        <v>40246</v>
+      <c r="K156" s="7">
+        <v>0</v>
       </c>
       <c r="L156" s="5">
         <v>10</v>
@@ -15598,8 +15598,8 @@
       <c r="J157" s="5">
         <v>4</v>
       </c>
-      <c r="K157" s="5">
-        <v>40246</v>
+      <c r="K157" s="7">
+        <v>0</v>
       </c>
       <c r="L157" s="5">
         <v>9</v>
@@ -15664,8 +15664,8 @@
       <c r="J158" s="5">
         <v>4</v>
       </c>
-      <c r="K158" s="5">
-        <v>40246</v>
+      <c r="K158" s="7">
+        <v>0</v>
       </c>
       <c r="L158" s="5">
         <v>8</v>
@@ -15730,8 +15730,8 @@
       <c r="J159" s="5">
         <v>4</v>
       </c>
-      <c r="K159" s="5">
-        <v>40246</v>
+      <c r="K159" s="7">
+        <v>0</v>
       </c>
       <c r="L159" s="5">
         <v>7</v>
@@ -15796,8 +15796,8 @@
       <c r="J160" s="5">
         <v>4</v>
       </c>
-      <c r="K160" s="5">
-        <v>40246</v>
+      <c r="K160" s="7">
+        <v>0</v>
       </c>
       <c r="L160" s="5">
         <v>6</v>
@@ -15862,8 +15862,8 @@
       <c r="J161" s="5">
         <v>4</v>
       </c>
-      <c r="K161" s="5">
-        <v>40246</v>
+      <c r="K161" s="7">
+        <v>0</v>
       </c>
       <c r="L161" s="5">
         <v>5</v>
@@ -15928,8 +15928,8 @@
       <c r="J162" s="5">
         <v>4</v>
       </c>
-      <c r="K162" s="5">
-        <v>40246</v>
+      <c r="K162" s="7">
+        <v>0</v>
       </c>
       <c r="L162" s="5">
         <v>4</v>
@@ -15994,8 +15994,8 @@
       <c r="J163" s="5">
         <v>4</v>
       </c>
-      <c r="K163" s="5">
-        <v>40246</v>
+      <c r="K163" s="7">
+        <v>0</v>
       </c>
       <c r="L163" s="5">
         <v>3</v>
@@ -16060,8 +16060,8 @@
       <c r="J164" s="5">
         <v>4</v>
       </c>
-      <c r="K164" s="5">
-        <v>40246</v>
+      <c r="K164" s="7">
+        <v>0</v>
       </c>
       <c r="L164" s="5">
         <v>2</v>
@@ -16126,8 +16126,8 @@
       <c r="J165" s="5">
         <v>4</v>
       </c>
-      <c r="K165" s="5">
-        <v>40246</v>
+      <c r="K165" s="7">
+        <v>0</v>
       </c>
       <c r="L165" s="5">
         <v>1</v>
@@ -16192,8 +16192,8 @@
       <c r="J166" s="5">
         <v>4</v>
       </c>
-      <c r="K166" s="5">
-        <v>40246</v>
+      <c r="K166" s="7">
+        <v>0</v>
       </c>
       <c r="L166" s="5">
         <v>0</v>
@@ -16258,11 +16258,11 @@
       <c r="J167" s="5">
         <v>4</v>
       </c>
-      <c r="K167" s="5">
-        <v>40247</v>
+      <c r="K167" s="7">
+        <v>0</v>
       </c>
       <c r="L167" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M167" s="5">
         <v>6</v>
@@ -16324,11 +16324,11 @@
       <c r="J168" s="5">
         <v>4</v>
       </c>
-      <c r="K168" s="5">
-        <v>40247</v>
+      <c r="K168" s="7">
+        <v>0</v>
       </c>
       <c r="L168" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M168" s="5">
         <v>6</v>
@@ -16390,11 +16390,11 @@
       <c r="J169" s="5">
         <v>4</v>
       </c>
-      <c r="K169" s="5">
-        <v>40247</v>
+      <c r="K169" s="7">
+        <v>0</v>
       </c>
       <c r="L169" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M169" s="5">
         <v>6</v>
@@ -16456,11 +16456,11 @@
       <c r="J170" s="5">
         <v>4</v>
       </c>
-      <c r="K170" s="5">
-        <v>40247</v>
+      <c r="K170" s="7">
+        <v>0</v>
       </c>
       <c r="L170" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M170" s="5">
         <v>6</v>
@@ -16522,11 +16522,11 @@
       <c r="J171" s="5">
         <v>4</v>
       </c>
-      <c r="K171" s="5">
-        <v>40247</v>
+      <c r="K171" s="7">
+        <v>0</v>
       </c>
       <c r="L171" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M171" s="5">
         <v>6</v>
@@ -16588,8 +16588,8 @@
       <c r="J172" s="5">
         <v>4</v>
       </c>
-      <c r="K172" s="5">
-        <v>40247</v>
+      <c r="K172" s="7">
+        <v>0</v>
       </c>
       <c r="L172" s="5">
         <v>10</v>
@@ -16654,8 +16654,8 @@
       <c r="J173" s="5">
         <v>4</v>
       </c>
-      <c r="K173" s="5">
-        <v>40247</v>
+      <c r="K173" s="7">
+        <v>0</v>
       </c>
       <c r="L173" s="5">
         <v>9</v>
@@ -16720,8 +16720,8 @@
       <c r="J174" s="5">
         <v>4</v>
       </c>
-      <c r="K174" s="5">
-        <v>40247</v>
+      <c r="K174" s="7">
+        <v>0</v>
       </c>
       <c r="L174" s="5">
         <v>8</v>
@@ -16786,8 +16786,8 @@
       <c r="J175" s="5">
         <v>4</v>
       </c>
-      <c r="K175" s="5">
-        <v>40247</v>
+      <c r="K175" s="7">
+        <v>0</v>
       </c>
       <c r="L175" s="5">
         <v>7</v>
@@ -16852,8 +16852,8 @@
       <c r="J176" s="5">
         <v>4</v>
       </c>
-      <c r="K176" s="5">
-        <v>40247</v>
+      <c r="K176" s="7">
+        <v>0</v>
       </c>
       <c r="L176" s="5">
         <v>6</v>
@@ -16918,8 +16918,8 @@
       <c r="J177" s="5">
         <v>4</v>
       </c>
-      <c r="K177" s="5">
-        <v>40247</v>
+      <c r="K177" s="7">
+        <v>0</v>
       </c>
       <c r="L177" s="5">
         <v>5</v>
@@ -16984,8 +16984,8 @@
       <c r="J178" s="5">
         <v>4</v>
       </c>
-      <c r="K178" s="5">
-        <v>40247</v>
+      <c r="K178" s="7">
+        <v>0</v>
       </c>
       <c r="L178" s="5">
         <v>4</v>
@@ -17050,8 +17050,8 @@
       <c r="J179" s="5">
         <v>4</v>
       </c>
-      <c r="K179" s="5">
-        <v>40247</v>
+      <c r="K179" s="7">
+        <v>0</v>
       </c>
       <c r="L179" s="5">
         <v>3</v>
@@ -17116,8 +17116,8 @@
       <c r="J180" s="5">
         <v>4</v>
       </c>
-      <c r="K180" s="5">
-        <v>40247</v>
+      <c r="K180" s="7">
+        <v>0</v>
       </c>
       <c r="L180" s="5">
         <v>2</v>
@@ -17182,8 +17182,8 @@
       <c r="J181" s="5">
         <v>4</v>
       </c>
-      <c r="K181" s="5">
-        <v>40247</v>
+      <c r="K181" s="7">
+        <v>0</v>
       </c>
       <c r="L181" s="5">
         <v>1</v>
@@ -17248,8 +17248,8 @@
       <c r="J182" s="5">
         <v>4</v>
       </c>
-      <c r="K182" s="5">
-        <v>40247</v>
+      <c r="K182" s="7">
+        <v>0</v>
       </c>
       <c r="L182" s="5">
         <v>0</v>
@@ -17317,8 +17317,8 @@
       <c r="J183" s="5">
         <v>4</v>
       </c>
-      <c r="K183" s="5">
-        <v>40256</v>
+      <c r="K183" s="7">
+        <v>0</v>
       </c>
       <c r="L183" s="5">
         <v>0</v>
@@ -17386,8 +17386,8 @@
       <c r="J184" s="5">
         <v>4</v>
       </c>
-      <c r="K184" s="5">
-        <v>40257</v>
+      <c r="K184" s="7">
+        <v>0</v>
       </c>
       <c r="L184" s="5">
         <v>0</v>
@@ -17452,8 +17452,8 @@
       <c r="J185" s="5">
         <v>4</v>
       </c>
-      <c r="K185" s="5">
-        <v>40267</v>
+      <c r="K185" s="7">
+        <v>0</v>
       </c>
       <c r="L185" s="5">
         <v>0</v>
@@ -17512,8 +17512,8 @@
       <c r="J186" s="5">
         <v>4</v>
       </c>
-      <c r="K186" s="5">
-        <v>40286</v>
+      <c r="K186" s="7">
+        <v>0</v>
       </c>
       <c r="L186" s="5">
         <v>0</v>
@@ -17581,8 +17581,8 @@
       <c r="J187" s="5">
         <v>4</v>
       </c>
-      <c r="K187" s="5">
-        <v>40366</v>
+      <c r="K187" s="7">
+        <v>0</v>
       </c>
       <c r="L187" s="5">
         <v>0</v>
@@ -17647,11 +17647,11 @@
       <c r="J188" s="5">
         <v>4</v>
       </c>
-      <c r="K188" s="5">
-        <v>40249</v>
+      <c r="K188" s="7">
+        <v>0</v>
       </c>
       <c r="L188" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M188" s="5">
         <v>6</v>
@@ -17713,11 +17713,11 @@
       <c r="J189" s="5">
         <v>4</v>
       </c>
-      <c r="K189" s="5">
-        <v>40249</v>
+      <c r="K189" s="7">
+        <v>0</v>
       </c>
       <c r="L189" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M189" s="5">
         <v>6</v>
@@ -17779,11 +17779,11 @@
       <c r="J190" s="5">
         <v>4</v>
       </c>
-      <c r="K190" s="5">
-        <v>40249</v>
+      <c r="K190" s="7">
+        <v>0</v>
       </c>
       <c r="L190" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M190" s="5">
         <v>6</v>
@@ -17845,11 +17845,11 @@
       <c r="J191" s="5">
         <v>4</v>
       </c>
-      <c r="K191" s="5">
-        <v>40249</v>
+      <c r="K191" s="7">
+        <v>0</v>
       </c>
       <c r="L191" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M191" s="5">
         <v>6</v>
@@ -17911,11 +17911,11 @@
       <c r="J192" s="5">
         <v>4</v>
       </c>
-      <c r="K192" s="5">
-        <v>40249</v>
+      <c r="K192" s="7">
+        <v>0</v>
       </c>
       <c r="L192" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M192" s="5">
         <v>6</v>
@@ -17977,8 +17977,8 @@
       <c r="J193" s="5">
         <v>4</v>
       </c>
-      <c r="K193" s="5">
-        <v>40249</v>
+      <c r="K193" s="7">
+        <v>0</v>
       </c>
       <c r="L193" s="5">
         <v>10</v>
@@ -18043,8 +18043,8 @@
       <c r="J194" s="5">
         <v>4</v>
       </c>
-      <c r="K194" s="5">
-        <v>40249</v>
+      <c r="K194" s="7">
+        <v>0</v>
       </c>
       <c r="L194" s="5">
         <v>9</v>
@@ -18109,8 +18109,8 @@
       <c r="J195" s="5">
         <v>4</v>
       </c>
-      <c r="K195" s="5">
-        <v>40249</v>
+      <c r="K195" s="7">
+        <v>0</v>
       </c>
       <c r="L195" s="5">
         <v>8</v>
@@ -18175,8 +18175,8 @@
       <c r="J196" s="5">
         <v>4</v>
       </c>
-      <c r="K196" s="5">
-        <v>40249</v>
+      <c r="K196" s="7">
+        <v>0</v>
       </c>
       <c r="L196" s="5">
         <v>7</v>
@@ -18241,8 +18241,8 @@
       <c r="J197" s="5">
         <v>4</v>
       </c>
-      <c r="K197" s="5">
-        <v>40249</v>
+      <c r="K197" s="7">
+        <v>0</v>
       </c>
       <c r="L197" s="5">
         <v>6</v>
@@ -18307,11 +18307,11 @@
       <c r="J198" s="5">
         <v>4</v>
       </c>
-      <c r="K198" s="5">
-        <v>40248</v>
+      <c r="K198" s="7">
+        <v>0</v>
       </c>
       <c r="L198" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M198" s="5">
         <v>6</v>
@@ -18373,11 +18373,11 @@
       <c r="J199" s="5">
         <v>4</v>
       </c>
-      <c r="K199" s="9">
-        <v>40248</v>
-      </c>
-      <c r="L199" s="9">
-        <v>15</v>
+      <c r="K199" s="7">
+        <v>0</v>
+      </c>
+      <c r="L199" s="5">
+        <v>4</v>
       </c>
       <c r="M199" s="9">
         <v>0</v>
@@ -18439,11 +18439,11 @@
       <c r="J200" s="5">
         <v>4</v>
       </c>
-      <c r="K200" s="5">
-        <v>40249</v>
+      <c r="K200" s="7">
+        <v>0</v>
       </c>
       <c r="L200" s="5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M200" s="5">
         <v>6</v>
@@ -18505,11 +18505,11 @@
       <c r="J201" s="5">
         <v>4</v>
       </c>
-      <c r="K201" s="5">
-        <v>40249</v>
+      <c r="K201" s="7">
+        <v>0</v>
       </c>
       <c r="L201" s="5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M201" s="5">
         <v>6</v>
@@ -18571,11 +18571,11 @@
       <c r="J202" s="5">
         <v>4</v>
       </c>
-      <c r="K202" s="5">
-        <v>40249</v>
+      <c r="K202" s="7">
+        <v>0</v>
       </c>
       <c r="L202" s="5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="M202" s="5">
         <v>6</v>
@@ -18637,11 +18637,11 @@
       <c r="J203" s="5">
         <v>4</v>
       </c>
-      <c r="K203" s="5">
-        <v>40249</v>
+      <c r="K203" s="7">
+        <v>0</v>
       </c>
       <c r="L203" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M203" s="5">
         <v>6</v>
@@ -18703,11 +18703,11 @@
       <c r="J204" s="5">
         <v>4</v>
       </c>
-      <c r="K204" s="5">
-        <v>40249</v>
+      <c r="K204" s="7">
+        <v>0</v>
       </c>
       <c r="L204" s="5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M204" s="5">
         <v>6</v>
@@ -18769,11 +18769,11 @@
       <c r="J205" s="5">
         <v>4</v>
       </c>
-      <c r="K205" s="5">
-        <v>40249</v>
+      <c r="K205" s="7">
+        <v>0</v>
       </c>
       <c r="L205" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M205" s="5">
         <v>6</v>
@@ -18835,11 +18835,11 @@
       <c r="J206" s="5">
         <v>4</v>
       </c>
-      <c r="K206" s="5">
-        <v>40249</v>
+      <c r="K206" s="7">
+        <v>0</v>
       </c>
       <c r="L206" s="5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M206" s="5">
         <v>6</v>
@@ -18901,11 +18901,11 @@
       <c r="J207" s="5">
         <v>4</v>
       </c>
-      <c r="K207" s="5">
-        <v>40249</v>
+      <c r="K207" s="7">
+        <v>0</v>
       </c>
       <c r="L207" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M207" s="5">
         <v>6</v>
@@ -18967,11 +18967,11 @@
       <c r="J208" s="5">
         <v>4</v>
       </c>
-      <c r="K208" s="5">
-        <v>40249</v>
+      <c r="K208" s="7">
+        <v>0</v>
       </c>
       <c r="L208" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M208" s="5">
         <v>6</v>
@@ -19033,11 +19033,11 @@
       <c r="J209" s="5">
         <v>4</v>
       </c>
-      <c r="K209" s="5">
-        <v>40249</v>
+      <c r="K209" s="7">
+        <v>0</v>
       </c>
       <c r="L209" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M209" s="5">
         <v>6</v>
@@ -19099,11 +19099,11 @@
       <c r="J210" s="5">
         <v>4</v>
       </c>
-      <c r="K210" s="5">
-        <v>40248</v>
+      <c r="K210" s="7">
+        <v>0</v>
       </c>
       <c r="L210" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M210" s="5">
         <v>6</v>
@@ -19165,11 +19165,11 @@
       <c r="J211" s="5">
         <v>4</v>
       </c>
-      <c r="K211" s="9">
-        <v>40248</v>
-      </c>
-      <c r="L211" s="9">
-        <v>15</v>
+      <c r="K211" s="7">
+        <v>0</v>
+      </c>
+      <c r="L211" s="5">
+        <v>4</v>
       </c>
       <c r="M211" s="9">
         <v>0</v>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F604FDA-9E24-4E47-B4A2-254B18068E87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDE5D1-837F-4DB9-ABAA-A29E1356F2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="10170" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Channel" sheetId="1" r:id="rId1"/>
-    <sheet name="Frame" sheetId="2" r:id="rId2"/>
+    <sheet name="IP" sheetId="1" r:id="rId1"/>
+    <sheet name="Channel" sheetId="2" r:id="rId2"/>
     <sheet name="DATA" sheetId="7" r:id="rId3"/>
     <sheet name="help" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$282</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$255</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1370,10 +1370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.0.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2360,6 +2356,10 @@
   <si>
     <t>예비6</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2868,10 +2868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2887,28 +2888,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2916,13 +2917,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -2942,7 +2943,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -2968,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -2994,13 +2995,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>502</v>
@@ -3012,7 +3013,7 @@
         <v>200</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -3020,13 +3021,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
         <v>502</v>
@@ -3046,13 +3047,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>502</v>
@@ -3072,13 +3073,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>502</v>
@@ -3098,7 +3099,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -3124,13 +3125,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>502</v>
@@ -3155,10 +3156,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3176,28 +3178,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3205,10 +3207,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
         <v>3</v>
@@ -3220,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -3231,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -3243,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -3257,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
@@ -3269,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -3283,7 +3285,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -3295,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -3309,7 +3311,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
@@ -3321,13 +3323,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -3335,7 +3337,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -3347,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -3361,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -3373,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -3387,7 +3389,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -3399,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H9" s="10">
         <v>1</v>
@@ -3413,7 +3415,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -3428,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -3439,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
@@ -3454,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="10">
         <v>1</v>
@@ -3465,7 +3467,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="1">
         <v>4</v>
@@ -3480,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -3491,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" s="1">
         <v>4</v>
@@ -3506,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -3517,7 +3519,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -3532,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="10">
         <v>1</v>
@@ -3543,7 +3545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -3558,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -3569,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -3584,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -3595,7 +3597,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="1">
         <v>4</v>
@@ -3610,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -3621,7 +3623,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C18" s="1">
         <v>4</v>
@@ -3636,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -3647,7 +3649,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -3662,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -3673,7 +3675,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -3688,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -3699,7 +3701,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -3714,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="10">
         <v>1</v>
@@ -3730,13 +3732,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDE361-6BEC-4C83-93F2-81DF545FC5E6}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="H209" sqref="H209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5217,87 +5220,87 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G2" s="7">
         <v>1</v>
@@ -5309,7 +5312,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K2" s="7">
         <v>0</v>
@@ -5318,7 +5321,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N2" s="7">
         <v>1</v>
@@ -5351,19 +5354,19 @@
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G3" s="7">
         <v>1</v>
@@ -5375,16 +5378,16 @@
         <v>9</v>
       </c>
       <c r="J3" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="7">
         <v>4</v>
       </c>
       <c r="M3" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N3" s="7">
         <v>1</v>
@@ -5417,19 +5420,19 @@
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G4" s="7">
         <v>1</v>
@@ -5441,16 +5444,16 @@
         <v>9</v>
       </c>
       <c r="J4" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="7">
         <v>5</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
         <v>1</v>
@@ -5483,19 +5486,19 @@
     </row>
     <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -5507,16 +5510,16 @@
         <v>9</v>
       </c>
       <c r="J5" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N5" s="7">
         <v>1</v>
@@ -5549,19 +5552,19 @@
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
@@ -5573,16 +5576,16 @@
         <v>9</v>
       </c>
       <c r="J6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N6" s="7">
         <v>1</v>
@@ -5615,19 +5618,19 @@
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="G7" s="7">
         <v>1</v>
@@ -5639,16 +5642,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M7" s="7">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
         <v>1</v>
@@ -5681,16 +5684,16 @@
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="7">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="E8" s="7">
         <v>-999999999</v>
@@ -5708,16 +5711,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N8" s="7">
         <v>1</v>
@@ -5750,16 +5753,16 @@
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="7">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7">
         <v>-999999999</v>
@@ -5777,16 +5780,16 @@
         <v>9</v>
       </c>
       <c r="J9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N9" s="7">
         <v>1</v>
@@ -5819,16 +5822,16 @@
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7">
         <v>8</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7">
         <v>-999999999</v>
@@ -5846,16 +5849,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
         <v>1</v>
@@ -5888,16 +5891,16 @@
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="7">
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7">
         <v>-50</v>
@@ -5915,16 +5918,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N11" s="7">
         <v>1</v>
@@ -5957,20 +5960,20 @@
     </row>
     <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
@@ -5981,10 +5984,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="7">
         <v>5</v>
@@ -6023,20 +6026,20 @@
     </row>
     <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="7">
         <v>11</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G13" s="7">
         <v>1</v>
       </c>
@@ -6047,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" s="7">
         <v>0</v>
@@ -6089,20 +6092,20 @@
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="7">
         <v>12</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G14" s="7">
         <v>1</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="7">
         <v>0</v>
@@ -6155,21 +6158,21 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5">
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
       <c r="H15" s="5">
@@ -6178,11 +6181,11 @@
       <c r="I15" s="5">
         <v>1</v>
       </c>
-      <c r="J15" s="5">
-        <v>4</v>
+      <c r="J15" s="7">
+        <v>3</v>
       </c>
       <c r="K15" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="5">
         <v>2</v>
@@ -6221,21 +6224,21 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="5">
         <v>14</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>1</v>
       </c>
       <c r="H16" s="5">
@@ -6244,11 +6247,11 @@
       <c r="I16" s="5">
         <v>1</v>
       </c>
-      <c r="J16" s="5">
-        <v>4</v>
+      <c r="J16" s="7">
+        <v>3</v>
       </c>
       <c r="K16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
@@ -6287,21 +6290,21 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="5">
         <v>15</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>1</v>
       </c>
       <c r="H17" s="5">
@@ -6310,14 +6313,14 @@
       <c r="I17" s="5">
         <v>1</v>
       </c>
-      <c r="J17" s="5">
-        <v>4</v>
+      <c r="J17" s="7">
+        <v>3</v>
       </c>
       <c r="K17" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L17" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M17" s="5">
         <v>6</v>
@@ -6353,21 +6356,21 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="5">
         <v>16</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>1</v>
       </c>
       <c r="H18" s="5">
@@ -6376,11 +6379,11 @@
       <c r="I18" s="5">
         <v>1</v>
       </c>
-      <c r="J18" s="5">
-        <v>4</v>
+      <c r="J18" s="7">
+        <v>3</v>
       </c>
       <c r="K18" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L18" s="5">
         <v>9</v>
@@ -6419,21 +6422,21 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5">
         <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>1</v>
       </c>
       <c r="H19" s="5">
@@ -6442,11 +6445,11 @@
       <c r="I19" s="5">
         <v>1</v>
       </c>
-      <c r="J19" s="5">
-        <v>4</v>
+      <c r="J19" s="7">
+        <v>3</v>
       </c>
       <c r="K19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19" s="5">
         <v>8</v>
@@ -6485,21 +6488,21 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5">
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>1</v>
       </c>
       <c r="H20" s="5">
@@ -6508,11 +6511,11 @@
       <c r="I20" s="5">
         <v>1</v>
       </c>
-      <c r="J20" s="5">
-        <v>4</v>
+      <c r="J20" s="7">
+        <v>3</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L20" s="5">
         <v>7</v>
@@ -6551,21 +6554,21 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5">
         <v>19</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>1</v>
       </c>
       <c r="H21" s="5">
@@ -6574,11 +6577,11 @@
       <c r="I21" s="5">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
-        <v>4</v>
+      <c r="J21" s="7">
+        <v>3</v>
       </c>
       <c r="K21" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L21" s="5">
         <v>6</v>
@@ -6617,21 +6620,21 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5">
         <v>20</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>1</v>
       </c>
       <c r="H22" s="5">
@@ -6640,11 +6643,11 @@
       <c r="I22" s="5">
         <v>1</v>
       </c>
-      <c r="J22" s="5">
-        <v>4</v>
+      <c r="J22" s="7">
+        <v>3</v>
       </c>
       <c r="K22" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L22" s="5">
         <v>5</v>
@@ -6683,21 +6686,21 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5">
         <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>1</v>
       </c>
       <c r="H23" s="5">
@@ -6706,11 +6709,11 @@
       <c r="I23" s="5">
         <v>1</v>
       </c>
-      <c r="J23" s="5">
-        <v>4</v>
+      <c r="J23" s="7">
+        <v>3</v>
       </c>
       <c r="K23" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L23" s="5">
         <v>4</v>
@@ -6749,21 +6752,21 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5">
         <v>22</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="G24" s="7">
         <v>1</v>
       </c>
       <c r="H24" s="5">
@@ -6772,11 +6775,11 @@
       <c r="I24" s="5">
         <v>1</v>
       </c>
-      <c r="J24" s="5">
-        <v>4</v>
+      <c r="J24" s="7">
+        <v>3</v>
       </c>
       <c r="K24" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L24" s="5">
         <v>3</v>
@@ -6815,21 +6818,21 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="5">
         <v>23</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="G25" s="7">
         <v>1</v>
       </c>
       <c r="H25" s="5">
@@ -6838,8 +6841,8 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
-      <c r="J25" s="5">
-        <v>4</v>
+      <c r="J25" s="7">
+        <v>3</v>
       </c>
       <c r="K25" s="7">
         <v>0</v>
@@ -6881,21 +6884,21 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="5">
         <v>100</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="G26" s="7">
         <v>1</v>
       </c>
       <c r="H26" s="5">
@@ -6904,11 +6907,11 @@
       <c r="I26" s="5">
         <v>1</v>
       </c>
-      <c r="J26" s="5">
-        <v>4</v>
+      <c r="J26" s="7">
+        <v>3</v>
       </c>
       <c r="K26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="5">
         <v>1</v>
@@ -6947,21 +6950,21 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5">
         <v>101</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
         <v>1</v>
       </c>
       <c r="H27" s="5">
@@ -6970,11 +6973,11 @@
       <c r="I27" s="5">
         <v>1</v>
       </c>
-      <c r="J27" s="5">
-        <v>4</v>
+      <c r="J27" s="7">
+        <v>3</v>
       </c>
       <c r="K27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" s="5">
         <v>0</v>
@@ -7013,21 +7016,21 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5">
         <v>102</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="G28" s="7">
         <v>1</v>
       </c>
       <c r="H28" s="5">
@@ -7036,14 +7039,14 @@
       <c r="I28" s="5">
         <v>1</v>
       </c>
-      <c r="J28" s="5">
-        <v>4</v>
+      <c r="J28" s="7">
+        <v>3</v>
       </c>
       <c r="K28" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L28" s="5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M28" s="5">
         <v>6</v>
@@ -7079,21 +7082,21 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5">
         <v>103</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="G29" s="7">
         <v>1</v>
       </c>
       <c r="H29" s="5">
@@ -7102,14 +7105,14 @@
       <c r="I29" s="5">
         <v>1</v>
       </c>
-      <c r="J29" s="5">
-        <v>4</v>
+      <c r="J29" s="7">
+        <v>3</v>
       </c>
       <c r="K29" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L29" s="5">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M29" s="5">
         <v>6</v>
@@ -7145,21 +7148,21 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5">
         <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="5">
@@ -7168,14 +7171,14 @@
       <c r="I30" s="5">
         <v>1</v>
       </c>
-      <c r="J30" s="5">
-        <v>4</v>
+      <c r="J30" s="7">
+        <v>3</v>
       </c>
       <c r="K30" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L30" s="5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M30" s="5">
         <v>6</v>
@@ -7211,21 +7214,21 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="5">
         <v>105</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="G31" s="7">
         <v>1</v>
       </c>
       <c r="H31" s="5">
@@ -7234,14 +7237,14 @@
       <c r="I31" s="5">
         <v>1</v>
       </c>
-      <c r="J31" s="5">
-        <v>4</v>
+      <c r="J31" s="7">
+        <v>3</v>
       </c>
       <c r="K31" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L31" s="5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M31" s="5">
         <v>6</v>
@@ -7277,21 +7280,21 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="5">
         <v>106</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <v>1</v>
       </c>
       <c r="H32" s="5">
@@ -7300,14 +7303,14 @@
       <c r="I32" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
-        <v>4</v>
+      <c r="J32" s="7">
+        <v>3</v>
       </c>
       <c r="K32" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L32" s="5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M32" s="5">
         <v>6</v>
@@ -7343,21 +7346,21 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="5">
         <v>107</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="G33" s="7">
         <v>1</v>
       </c>
       <c r="H33" s="5">
@@ -7366,14 +7369,14 @@
       <c r="I33" s="5">
         <v>1</v>
       </c>
-      <c r="J33" s="5">
-        <v>4</v>
+      <c r="J33" s="7">
+        <v>3</v>
       </c>
       <c r="K33" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L33" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M33" s="5">
         <v>6</v>
@@ -7409,21 +7412,21 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="5">
         <v>108</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="G34" s="7">
         <v>1</v>
       </c>
       <c r="H34" s="5">
@@ -7432,11 +7435,11 @@
       <c r="I34" s="5">
         <v>1</v>
       </c>
-      <c r="J34" s="5">
-        <v>4</v>
+      <c r="J34" s="7">
+        <v>3</v>
       </c>
       <c r="K34" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L34" s="5">
         <v>9</v>
@@ -7475,21 +7478,21 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5">
         <v>109</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="G35" s="7">
         <v>1</v>
       </c>
       <c r="H35" s="5">
@@ -7498,11 +7501,11 @@
       <c r="I35" s="5">
         <v>1</v>
       </c>
-      <c r="J35" s="5">
-        <v>4</v>
+      <c r="J35" s="7">
+        <v>3</v>
       </c>
       <c r="K35" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L35" s="5">
         <v>8</v>
@@ -7541,21 +7544,21 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="5">
         <v>110</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="G36" s="7">
         <v>1</v>
       </c>
       <c r="H36" s="5">
@@ -7564,8 +7567,8 @@
       <c r="I36" s="5">
         <v>1</v>
       </c>
-      <c r="J36" s="5">
-        <v>4</v>
+      <c r="J36" s="7">
+        <v>3</v>
       </c>
       <c r="K36" s="7">
         <v>0</v>
@@ -7607,21 +7610,21 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="5">
         <v>111</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="5">
@@ -7630,11 +7633,11 @@
       <c r="I37" s="5">
         <v>1</v>
       </c>
-      <c r="J37" s="5">
-        <v>4</v>
+      <c r="J37" s="7">
+        <v>3</v>
       </c>
       <c r="K37" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="5">
         <v>6</v>
@@ -7673,21 +7676,21 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="5">
         <v>112</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="G38" s="7">
         <v>1</v>
       </c>
       <c r="H38" s="5">
@@ -7696,11 +7699,11 @@
       <c r="I38" s="5">
         <v>1</v>
       </c>
-      <c r="J38" s="5">
-        <v>4</v>
+      <c r="J38" s="7">
+        <v>3</v>
       </c>
       <c r="K38" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" s="5">
         <v>5</v>
@@ -7739,21 +7742,21 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="5">
         <v>113</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="G39" s="7">
         <v>1</v>
       </c>
       <c r="H39" s="5">
@@ -7762,11 +7765,11 @@
       <c r="I39" s="5">
         <v>1</v>
       </c>
-      <c r="J39" s="5">
-        <v>4</v>
+      <c r="J39" s="7">
+        <v>3</v>
       </c>
       <c r="K39" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="5">
         <v>4</v>
@@ -7805,21 +7808,21 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="5">
         <v>114</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="G40" s="7">
         <v>1</v>
       </c>
       <c r="H40" s="5">
@@ -7828,11 +7831,11 @@
       <c r="I40" s="5">
         <v>1</v>
       </c>
-      <c r="J40" s="5">
-        <v>4</v>
+      <c r="J40" s="7">
+        <v>3</v>
       </c>
       <c r="K40" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="5">
         <v>3</v>
@@ -7871,21 +7874,21 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="5">
         <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="G41" s="7">
         <v>1</v>
       </c>
       <c r="H41" s="5">
@@ -7894,11 +7897,11 @@
       <c r="I41" s="5">
         <v>1</v>
       </c>
-      <c r="J41" s="5">
-        <v>4</v>
+      <c r="J41" s="7">
+        <v>3</v>
       </c>
       <c r="K41" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L41" s="5">
         <v>2</v>
@@ -7937,16 +7940,16 @@
     </row>
     <row r="42" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C42" s="8">
         <v>118</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E42" s="8">
         <v>-50</v>
@@ -7954,7 +7957,7 @@
       <c r="F42" s="8">
         <v>150</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="7">
         <v>1</v>
       </c>
       <c r="H42" s="8">
@@ -7963,11 +7966,11 @@
       <c r="I42" s="8">
         <v>13</v>
       </c>
-      <c r="J42" s="5">
-        <v>4</v>
+      <c r="J42" s="7">
+        <v>3</v>
       </c>
       <c r="K42" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L42" s="8">
         <v>0</v>
@@ -8006,16 +8009,16 @@
     </row>
     <row r="43" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="8">
         <v>119</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="8">
         <v>-50</v>
@@ -8023,7 +8026,7 @@
       <c r="F43" s="8">
         <v>150</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="7">
         <v>1</v>
       </c>
       <c r="H43" s="8">
@@ -8032,11 +8035,11 @@
       <c r="I43" s="8">
         <v>13</v>
       </c>
-      <c r="J43" s="5">
-        <v>4</v>
+      <c r="J43" s="7">
+        <v>3</v>
       </c>
       <c r="K43" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" s="8">
         <v>0</v>
@@ -8075,21 +8078,21 @@
     </row>
     <row r="44" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="C44" s="8">
         <v>120</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="8">
+      <c r="G44" s="7">
         <v>1</v>
       </c>
       <c r="H44" s="8">
@@ -8098,11 +8101,11 @@
       <c r="I44" s="8">
         <v>13</v>
       </c>
-      <c r="J44" s="5">
-        <v>4</v>
+      <c r="J44" s="7">
+        <v>3</v>
       </c>
       <c r="K44" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L44" s="8">
         <v>0</v>
@@ -8141,15 +8144,15 @@
     </row>
     <row r="45" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="C45" s="8">
         <v>121</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="7">
         <v>1</v>
       </c>
       <c r="H45" s="8">
@@ -8158,11 +8161,11 @@
       <c r="I45" s="8">
         <v>13</v>
       </c>
-      <c r="J45" s="5">
-        <v>4</v>
+      <c r="J45" s="7">
+        <v>3</v>
       </c>
       <c r="K45" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L45" s="8">
         <v>0</v>
@@ -8201,16 +8204,16 @@
     </row>
     <row r="46" spans="1:22" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="8">
         <v>122</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="8">
         <v>0</v>
@@ -8218,7 +8221,7 @@
       <c r="F46" s="8">
         <v>999999999</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="7">
         <v>1</v>
       </c>
       <c r="H46" s="8">
@@ -8227,11 +8230,11 @@
       <c r="I46" s="8">
         <v>17</v>
       </c>
-      <c r="J46" s="5">
-        <v>4</v>
+      <c r="J46" s="7">
+        <v>3</v>
       </c>
       <c r="K46" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L46" s="8">
         <v>0</v>
@@ -8270,21 +8273,21 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C47" s="5">
         <v>200</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="G47" s="7">
         <v>1</v>
       </c>
       <c r="H47" s="5">
@@ -8293,8 +8296,8 @@
       <c r="I47" s="5">
         <v>10</v>
       </c>
-      <c r="J47" s="5">
-        <v>4</v>
+      <c r="J47" s="7">
+        <v>3</v>
       </c>
       <c r="K47" s="7">
         <v>0</v>
@@ -8336,21 +8339,21 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5">
         <v>201</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="G48" s="7">
         <v>1</v>
       </c>
       <c r="H48" s="5">
@@ -8359,8 +8362,8 @@
       <c r="I48" s="5">
         <v>10</v>
       </c>
-      <c r="J48" s="5">
-        <v>4</v>
+      <c r="J48" s="7">
+        <v>3</v>
       </c>
       <c r="K48" s="7">
         <v>0</v>
@@ -8402,21 +8405,21 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="5">
         <v>202</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="5">
+      <c r="G49" s="7">
         <v>1</v>
       </c>
       <c r="H49" s="5">
@@ -8425,11 +8428,11 @@
       <c r="I49" s="5">
         <v>10</v>
       </c>
-      <c r="J49" s="5">
-        <v>4</v>
+      <c r="J49" s="7">
+        <v>3</v>
       </c>
       <c r="K49" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="5">
         <v>5</v>
@@ -8468,21 +8471,21 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" s="5">
         <v>203</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="G50" s="7">
         <v>1</v>
       </c>
       <c r="H50" s="5">
@@ -8491,11 +8494,11 @@
       <c r="I50" s="5">
         <v>10</v>
       </c>
-      <c r="J50" s="5">
-        <v>4</v>
+      <c r="J50" s="7">
+        <v>3</v>
       </c>
       <c r="K50" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" s="5">
         <v>4</v>
@@ -8534,21 +8537,21 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="5">
         <v>204</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="G51" s="7">
         <v>1</v>
       </c>
       <c r="H51" s="5">
@@ -8557,11 +8560,11 @@
       <c r="I51" s="5">
         <v>10</v>
       </c>
-      <c r="J51" s="5">
-        <v>4</v>
+      <c r="J51" s="7">
+        <v>3</v>
       </c>
       <c r="K51" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" s="5">
         <v>3</v>
@@ -8600,21 +8603,21 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" s="5">
         <v>205</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="G52" s="7">
         <v>1</v>
       </c>
       <c r="H52" s="5">
@@ -8623,11 +8626,11 @@
       <c r="I52" s="5">
         <v>10</v>
       </c>
-      <c r="J52" s="5">
-        <v>4</v>
+      <c r="J52" s="7">
+        <v>3</v>
       </c>
       <c r="K52" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L52" s="5">
         <v>2</v>
@@ -8666,16 +8669,16 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C53" s="5">
         <v>206</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="5">
         <v>-999999999</v>
@@ -8683,7 +8686,7 @@
       <c r="F53" s="5">
         <v>999999999</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="7">
         <v>1</v>
       </c>
       <c r="H53" s="5">
@@ -8692,11 +8695,11 @@
       <c r="I53" s="5">
         <v>10</v>
       </c>
-      <c r="J53" s="5">
-        <v>4</v>
+      <c r="J53" s="7">
+        <v>3</v>
       </c>
       <c r="K53" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L53" s="5">
         <v>0</v>
@@ -8735,16 +8738,16 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="5">
         <v>207</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E54" s="5">
         <v>-999999999</v>
@@ -8752,7 +8755,7 @@
       <c r="F54" s="5">
         <v>999999999</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="7">
         <v>1</v>
       </c>
       <c r="H54" s="5">
@@ -8761,11 +8764,11 @@
       <c r="I54" s="5">
         <v>10</v>
       </c>
-      <c r="J54" s="5">
-        <v>4</v>
+      <c r="J54" s="7">
+        <v>3</v>
       </c>
       <c r="K54" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L54" s="5">
         <v>0</v>
@@ -8804,16 +8807,16 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C55" s="5">
         <v>208</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E55" s="5">
         <v>-999999999</v>
@@ -8821,7 +8824,7 @@
       <c r="F55" s="5">
         <v>999999999</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="7">
         <v>1</v>
       </c>
       <c r="H55" s="5">
@@ -8830,11 +8833,11 @@
       <c r="I55" s="5">
         <v>10</v>
       </c>
-      <c r="J55" s="5">
-        <v>4</v>
+      <c r="J55" s="7">
+        <v>3</v>
       </c>
       <c r="K55" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L55" s="5">
         <v>0</v>
@@ -8873,16 +8876,16 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="5">
         <v>209</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="5">
         <v>-50</v>
@@ -8890,7 +8893,7 @@
       <c r="F56" s="5">
         <v>150</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="7">
         <v>1</v>
       </c>
       <c r="H56" s="5">
@@ -8899,11 +8902,11 @@
       <c r="I56" s="5">
         <v>10</v>
       </c>
-      <c r="J56" s="5">
-        <v>4</v>
+      <c r="J56" s="7">
+        <v>3</v>
       </c>
       <c r="K56" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L56" s="5">
         <v>0</v>
@@ -8942,21 +8945,21 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="5">
         <v>210</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="G57" s="7">
         <v>1</v>
       </c>
       <c r="H57" s="5">
@@ -8965,11 +8968,11 @@
       <c r="I57" s="5">
         <v>2</v>
       </c>
-      <c r="J57" s="5">
-        <v>4</v>
+      <c r="J57" s="7">
+        <v>3</v>
       </c>
       <c r="K57" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L57" s="5">
         <v>5</v>
@@ -9008,21 +9011,21 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C58" s="5">
         <v>211</v>
       </c>
       <c r="E58" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="G58" s="7">
         <v>1</v>
       </c>
       <c r="H58" s="5">
@@ -9031,11 +9034,11 @@
       <c r="I58" s="5">
         <v>2</v>
       </c>
-      <c r="J58" s="5">
-        <v>4</v>
+      <c r="J58" s="7">
+        <v>3</v>
       </c>
       <c r="K58" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L58" s="5">
         <v>4</v>
@@ -9074,21 +9077,21 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C59" s="5">
         <v>212</v>
       </c>
       <c r="E59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="G59" s="7">
         <v>1</v>
       </c>
       <c r="H59" s="5">
@@ -9097,8 +9100,8 @@
       <c r="I59" s="5">
         <v>2</v>
       </c>
-      <c r="J59" s="5">
-        <v>4</v>
+      <c r="J59" s="7">
+        <v>3</v>
       </c>
       <c r="K59" s="7">
         <v>0</v>
@@ -9140,21 +9143,21 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C60" s="5">
         <v>213</v>
       </c>
       <c r="E60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="G60" s="7">
         <v>1</v>
       </c>
       <c r="H60" s="5">
@@ -9163,8 +9166,8 @@
       <c r="I60" s="5">
         <v>2</v>
       </c>
-      <c r="J60" s="5">
-        <v>4</v>
+      <c r="J60" s="7">
+        <v>3</v>
       </c>
       <c r="K60" s="7">
         <v>0</v>
@@ -9206,21 +9209,21 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" s="5">
         <v>214</v>
       </c>
       <c r="E61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="G61" s="7">
         <v>1</v>
       </c>
       <c r="H61" s="5">
@@ -9229,8 +9232,8 @@
       <c r="I61" s="5">
         <v>2</v>
       </c>
-      <c r="J61" s="5">
-        <v>4</v>
+      <c r="J61" s="7">
+        <v>3</v>
       </c>
       <c r="K61" s="7">
         <v>0</v>
@@ -9272,21 +9275,21 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="5">
         <v>215</v>
       </c>
       <c r="E62" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="G62" s="7">
         <v>1</v>
       </c>
       <c r="H62" s="5">
@@ -9295,14 +9298,14 @@
       <c r="I62" s="5">
         <v>2</v>
       </c>
-      <c r="J62" s="5">
-        <v>4</v>
+      <c r="J62" s="7">
+        <v>3</v>
       </c>
       <c r="K62" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M62" s="5">
         <v>6</v>
@@ -9338,21 +9341,21 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="5">
         <v>216</v>
       </c>
       <c r="E63" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="G63" s="7">
         <v>1</v>
       </c>
       <c r="H63" s="5">
@@ -9361,11 +9364,11 @@
       <c r="I63" s="5">
         <v>2</v>
       </c>
-      <c r="J63" s="5">
-        <v>4</v>
+      <c r="J63" s="7">
+        <v>3</v>
       </c>
       <c r="K63" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L63" s="5">
         <v>9</v>
@@ -9404,21 +9407,21 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C64" s="5">
         <v>217</v>
       </c>
       <c r="E64" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="G64" s="7">
         <v>1</v>
       </c>
       <c r="H64" s="5">
@@ -9427,11 +9430,11 @@
       <c r="I64" s="5">
         <v>2</v>
       </c>
-      <c r="J64" s="5">
-        <v>4</v>
+      <c r="J64" s="7">
+        <v>3</v>
       </c>
       <c r="K64" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L64" s="5">
         <v>8</v>
@@ -9470,21 +9473,21 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="5">
         <v>218</v>
       </c>
       <c r="E65" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="G65" s="7">
         <v>1</v>
       </c>
       <c r="H65" s="5">
@@ -9493,11 +9496,11 @@
       <c r="I65" s="5">
         <v>2</v>
       </c>
-      <c r="J65" s="5">
-        <v>4</v>
+      <c r="J65" s="7">
+        <v>3</v>
       </c>
       <c r="K65" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L65" s="5">
         <v>7</v>
@@ -9536,21 +9539,21 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5">
         <v>219</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="G66" s="7">
         <v>1</v>
       </c>
       <c r="H66" s="5">
@@ -9559,11 +9562,11 @@
       <c r="I66" s="5">
         <v>2</v>
       </c>
-      <c r="J66" s="5">
-        <v>4</v>
+      <c r="J66" s="7">
+        <v>3</v>
       </c>
       <c r="K66" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L66" s="5">
         <v>6</v>
@@ -9602,21 +9605,21 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" s="5">
         <v>220</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="G67" s="7">
         <v>1</v>
       </c>
       <c r="H67" s="5">
@@ -9625,11 +9628,11 @@
       <c r="I67" s="5">
         <v>2</v>
       </c>
-      <c r="J67" s="5">
-        <v>4</v>
+      <c r="J67" s="7">
+        <v>3</v>
       </c>
       <c r="K67" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L67" s="5">
         <v>5</v>
@@ -9668,21 +9671,21 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="5">
         <v>221</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="G68" s="7">
         <v>1</v>
       </c>
       <c r="H68" s="5">
@@ -9691,11 +9694,11 @@
       <c r="I68" s="5">
         <v>2</v>
       </c>
-      <c r="J68" s="5">
-        <v>4</v>
+      <c r="J68" s="7">
+        <v>3</v>
       </c>
       <c r="K68" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L68" s="5">
         <v>4</v>
@@ -9734,21 +9737,21 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="5">
         <v>222</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="5">
+      <c r="G69" s="7">
         <v>1</v>
       </c>
       <c r="H69" s="5">
@@ -9757,11 +9760,11 @@
       <c r="I69" s="5">
         <v>2</v>
       </c>
-      <c r="J69" s="5">
-        <v>4</v>
+      <c r="J69" s="7">
+        <v>3</v>
       </c>
       <c r="K69" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L69" s="5">
         <v>3</v>
@@ -9800,21 +9803,21 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70" s="5">
         <v>223</v>
       </c>
       <c r="E70" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="G70" s="7">
         <v>1</v>
       </c>
       <c r="H70" s="5">
@@ -9823,11 +9826,11 @@
       <c r="I70" s="5">
         <v>2</v>
       </c>
-      <c r="J70" s="5">
-        <v>4</v>
+      <c r="J70" s="7">
+        <v>3</v>
       </c>
       <c r="K70" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L70" s="5">
         <v>2</v>
@@ -9866,21 +9869,21 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" s="5">
         <v>300</v>
       </c>
       <c r="E71" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="G71" s="7">
         <v>1</v>
       </c>
       <c r="H71" s="5">
@@ -9889,11 +9892,11 @@
       <c r="I71" s="5">
         <v>2</v>
       </c>
-      <c r="J71" s="5">
-        <v>4</v>
+      <c r="J71" s="7">
+        <v>3</v>
       </c>
       <c r="K71" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L71" s="5">
         <v>1</v>
@@ -9932,21 +9935,21 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C72" s="5">
         <v>301</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="G72" s="7">
         <v>1</v>
       </c>
       <c r="H72" s="5">
@@ -9955,8 +9958,8 @@
       <c r="I72" s="5">
         <v>2</v>
       </c>
-      <c r="J72" s="5">
-        <v>4</v>
+      <c r="J72" s="7">
+        <v>3</v>
       </c>
       <c r="K72" s="7">
         <v>0</v>
@@ -9998,21 +10001,21 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C73" s="5">
         <v>302</v>
       </c>
       <c r="E73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="G73" s="7">
         <v>1</v>
       </c>
       <c r="H73" s="5">
@@ -10021,8 +10024,8 @@
       <c r="I73" s="5">
         <v>2</v>
       </c>
-      <c r="J73" s="5">
-        <v>4</v>
+      <c r="J73" s="7">
+        <v>3</v>
       </c>
       <c r="K73" s="7">
         <v>0</v>
@@ -10064,21 +10067,21 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74" s="5">
         <v>303</v>
       </c>
       <c r="E74" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="G74" s="7">
         <v>1</v>
       </c>
       <c r="H74" s="5">
@@ -10087,8 +10090,8 @@
       <c r="I74" s="5">
         <v>2</v>
       </c>
-      <c r="J74" s="5">
-        <v>4</v>
+      <c r="J74" s="7">
+        <v>3</v>
       </c>
       <c r="K74" s="7">
         <v>0</v>
@@ -10130,21 +10133,21 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C75" s="5">
         <v>304</v>
       </c>
       <c r="E75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="5">
+      <c r="G75" s="7">
         <v>1</v>
       </c>
       <c r="H75" s="5">
@@ -10153,8 +10156,8 @@
       <c r="I75" s="5">
         <v>2</v>
       </c>
-      <c r="J75" s="5">
-        <v>4</v>
+      <c r="J75" s="7">
+        <v>3</v>
       </c>
       <c r="K75" s="7">
         <v>0</v>
@@ -10196,21 +10199,21 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="5">
         <v>305</v>
       </c>
       <c r="E76" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="G76" s="7">
         <v>1</v>
       </c>
       <c r="H76" s="5">
@@ -10219,11 +10222,11 @@
       <c r="I76" s="5">
         <v>2</v>
       </c>
-      <c r="J76" s="5">
-        <v>4</v>
+      <c r="J76" s="7">
+        <v>3</v>
       </c>
       <c r="K76" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" s="5">
         <v>2</v>
@@ -10262,21 +10265,21 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" s="5">
         <v>306</v>
       </c>
       <c r="E77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="5">
+      <c r="G77" s="7">
         <v>1</v>
       </c>
       <c r="H77" s="5">
@@ -10285,11 +10288,11 @@
       <c r="I77" s="5">
         <v>2</v>
       </c>
-      <c r="J77" s="5">
-        <v>4</v>
+      <c r="J77" s="7">
+        <v>3</v>
       </c>
       <c r="K77" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77" s="5">
         <v>1</v>
@@ -10328,21 +10331,21 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5">
         <v>307</v>
       </c>
       <c r="E78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="G78" s="7">
         <v>1</v>
       </c>
       <c r="H78" s="5">
@@ -10351,14 +10354,14 @@
       <c r="I78" s="5">
         <v>2</v>
       </c>
-      <c r="J78" s="5">
-        <v>4</v>
+      <c r="J78" s="7">
+        <v>3</v>
       </c>
       <c r="K78" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M78" s="5">
         <v>6</v>
@@ -10394,21 +10397,21 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="5">
         <v>308</v>
       </c>
       <c r="E79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="5">
+      <c r="G79" s="7">
         <v>1</v>
       </c>
       <c r="H79" s="5">
@@ -10417,11 +10420,11 @@
       <c r="I79" s="5">
         <v>2</v>
       </c>
-      <c r="J79" s="5">
-        <v>4</v>
+      <c r="J79" s="7">
+        <v>3</v>
       </c>
       <c r="K79" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" s="5">
         <v>9</v>
@@ -10460,21 +10463,21 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="5">
         <v>309</v>
       </c>
       <c r="E80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="5">
+      <c r="G80" s="7">
         <v>1</v>
       </c>
       <c r="H80" s="5">
@@ -10483,11 +10486,11 @@
       <c r="I80" s="5">
         <v>2</v>
       </c>
-      <c r="J80" s="5">
-        <v>4</v>
+      <c r="J80" s="7">
+        <v>3</v>
       </c>
       <c r="K80" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L80" s="5">
         <v>8</v>
@@ -10526,21 +10529,21 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C81" s="5">
         <v>310</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="5">
+      <c r="G81" s="7">
         <v>1</v>
       </c>
       <c r="H81" s="5">
@@ -10549,11 +10552,11 @@
       <c r="I81" s="5">
         <v>2</v>
       </c>
-      <c r="J81" s="5">
-        <v>4</v>
+      <c r="J81" s="7">
+        <v>3</v>
       </c>
       <c r="K81" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L81" s="5">
         <v>7</v>
@@ -10592,21 +10595,21 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82" s="5">
         <v>311</v>
       </c>
       <c r="E82" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="5">
+      <c r="G82" s="7">
         <v>1</v>
       </c>
       <c r="H82" s="5">
@@ -10615,11 +10618,11 @@
       <c r="I82" s="5">
         <v>2</v>
       </c>
-      <c r="J82" s="5">
-        <v>4</v>
+      <c r="J82" s="7">
+        <v>3</v>
       </c>
       <c r="K82" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L82" s="5">
         <v>6</v>
@@ -10658,21 +10661,21 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C83" s="5">
         <v>312</v>
       </c>
       <c r="E83" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="5">
+      <c r="G83" s="7">
         <v>1</v>
       </c>
       <c r="H83" s="5">
@@ -10681,11 +10684,11 @@
       <c r="I83" s="5">
         <v>2</v>
       </c>
-      <c r="J83" s="5">
-        <v>4</v>
+      <c r="J83" s="7">
+        <v>3</v>
       </c>
       <c r="K83" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L83" s="5">
         <v>5</v>
@@ -10724,21 +10727,21 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C84" s="5">
         <v>313</v>
       </c>
       <c r="E84" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="5">
+      <c r="G84" s="7">
         <v>1</v>
       </c>
       <c r="H84" s="5">
@@ -10747,11 +10750,11 @@
       <c r="I84" s="5">
         <v>2</v>
       </c>
-      <c r="J84" s="5">
-        <v>4</v>
+      <c r="J84" s="7">
+        <v>3</v>
       </c>
       <c r="K84" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L84" s="5">
         <v>4</v>
@@ -10790,21 +10793,21 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C85" s="5">
         <v>314</v>
       </c>
       <c r="E85" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="5">
+      <c r="G85" s="7">
         <v>1</v>
       </c>
       <c r="H85" s="5">
@@ -10813,11 +10816,11 @@
       <c r="I85" s="5">
         <v>2</v>
       </c>
-      <c r="J85" s="5">
-        <v>4</v>
+      <c r="J85" s="7">
+        <v>3</v>
       </c>
       <c r="K85" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L85" s="5">
         <v>3</v>
@@ -10856,21 +10859,21 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C86" s="5">
         <v>315</v>
       </c>
       <c r="E86" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="G86" s="7">
         <v>1</v>
       </c>
       <c r="H86" s="5">
@@ -10879,8 +10882,8 @@
       <c r="I86" s="5">
         <v>2</v>
       </c>
-      <c r="J86" s="5">
-        <v>4</v>
+      <c r="J86" s="7">
+        <v>3</v>
       </c>
       <c r="K86" s="7">
         <v>0</v>
@@ -10922,21 +10925,21 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87" s="5">
         <v>316</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="5">
+      <c r="G87" s="7">
         <v>1</v>
       </c>
       <c r="H87" s="5">
@@ -10945,11 +10948,11 @@
       <c r="I87" s="5">
         <v>2</v>
       </c>
-      <c r="J87" s="5">
-        <v>4</v>
+      <c r="J87" s="7">
+        <v>3</v>
       </c>
       <c r="K87" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="5">
         <v>1</v>
@@ -10988,21 +10991,21 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88" s="5">
         <v>317</v>
       </c>
       <c r="E88" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F88" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="5">
+      <c r="G88" s="7">
         <v>1</v>
       </c>
       <c r="H88" s="5">
@@ -11011,11 +11014,11 @@
       <c r="I88" s="5">
         <v>2</v>
       </c>
-      <c r="J88" s="5">
-        <v>4</v>
+      <c r="J88" s="7">
+        <v>3</v>
       </c>
       <c r="K88" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L88" s="5">
         <v>0</v>
@@ -11054,16 +11057,16 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="5">
         <v>318</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E89" s="5">
         <v>-50</v>
@@ -11071,7 +11074,7 @@
       <c r="F89" s="5">
         <v>150</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89" s="7">
         <v>1</v>
       </c>
       <c r="H89" s="5">
@@ -11080,11 +11083,11 @@
       <c r="I89" s="5">
         <v>14</v>
       </c>
-      <c r="J89" s="5">
-        <v>4</v>
+      <c r="J89" s="7">
+        <v>3</v>
       </c>
       <c r="K89" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89" s="5">
         <v>0</v>
@@ -11123,16 +11126,16 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="5">
         <v>319</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" s="5">
         <v>-50</v>
@@ -11140,7 +11143,7 @@
       <c r="F90" s="5">
         <v>150</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90" s="7">
         <v>1</v>
       </c>
       <c r="H90" s="5">
@@ -11149,11 +11152,11 @@
       <c r="I90" s="5">
         <v>14</v>
       </c>
-      <c r="J90" s="5">
-        <v>4</v>
+      <c r="J90" s="7">
+        <v>3</v>
       </c>
       <c r="K90" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L90" s="5">
         <v>0</v>
@@ -11192,21 +11195,21 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="5">
         <v>320</v>
       </c>
       <c r="E91" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" s="5">
+      <c r="G91" s="7">
         <v>1</v>
       </c>
       <c r="H91" s="5">
@@ -11215,11 +11218,11 @@
       <c r="I91" s="5">
         <v>14</v>
       </c>
-      <c r="J91" s="5">
-        <v>4</v>
+      <c r="J91" s="7">
+        <v>3</v>
       </c>
       <c r="K91" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L91" s="5">
         <v>0</v>
@@ -11258,15 +11261,15 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C92" s="5">
         <v>321</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92" s="7">
         <v>1</v>
       </c>
       <c r="H92" s="5">
@@ -11275,11 +11278,11 @@
       <c r="I92" s="5">
         <v>14</v>
       </c>
-      <c r="J92" s="5">
-        <v>4</v>
+      <c r="J92" s="7">
+        <v>3</v>
       </c>
       <c r="K92" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L92" s="5">
         <v>0</v>
@@ -11318,16 +11321,16 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93" s="5">
         <v>322</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -11335,7 +11338,7 @@
       <c r="F93" s="5">
         <v>999999999</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93" s="7">
         <v>1</v>
       </c>
       <c r="H93" s="5">
@@ -11344,11 +11347,11 @@
       <c r="I93" s="5">
         <v>18</v>
       </c>
-      <c r="J93" s="5">
-        <v>4</v>
+      <c r="J93" s="7">
+        <v>3</v>
       </c>
       <c r="K93" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L93" s="5">
         <v>0</v>
@@ -11387,21 +11390,21 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C94" s="5">
         <v>400</v>
       </c>
       <c r="E94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F94" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="G94" s="7">
         <v>1</v>
       </c>
       <c r="H94" s="5">
@@ -11410,11 +11413,11 @@
       <c r="I94" s="5">
         <v>11</v>
       </c>
-      <c r="J94" s="5">
-        <v>4</v>
+      <c r="J94" s="7">
+        <v>3</v>
       </c>
       <c r="K94" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L94" s="5">
         <v>5</v>
@@ -11453,21 +11456,21 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C95" s="5">
         <v>401</v>
       </c>
       <c r="E95" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G95" s="5">
+      <c r="G95" s="7">
         <v>1</v>
       </c>
       <c r="H95" s="5">
@@ -11476,11 +11479,11 @@
       <c r="I95" s="5">
         <v>11</v>
       </c>
-      <c r="J95" s="5">
-        <v>4</v>
+      <c r="J95" s="7">
+        <v>3</v>
       </c>
       <c r="K95" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L95" s="5">
         <v>4</v>
@@ -11519,21 +11522,21 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96" s="5">
         <v>402</v>
       </c>
       <c r="E96" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="G96" s="7">
         <v>1</v>
       </c>
       <c r="H96" s="5">
@@ -11542,11 +11545,11 @@
       <c r="I96" s="5">
         <v>11</v>
       </c>
-      <c r="J96" s="5">
-        <v>4</v>
+      <c r="J96" s="7">
+        <v>3</v>
       </c>
       <c r="K96" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L96" s="5">
         <v>3</v>
@@ -11585,21 +11588,21 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C97" s="5">
         <v>403</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" s="5">
+      <c r="G97" s="7">
         <v>1</v>
       </c>
       <c r="H97" s="5">
@@ -11608,8 +11611,8 @@
       <c r="I97" s="5">
         <v>11</v>
       </c>
-      <c r="J97" s="5">
-        <v>4</v>
+      <c r="J97" s="7">
+        <v>3</v>
       </c>
       <c r="K97" s="7">
         <v>0</v>
@@ -11651,21 +11654,21 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C98" s="5">
         <v>404</v>
       </c>
       <c r="E98" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="G98" s="7">
         <v>1</v>
       </c>
       <c r="H98" s="5">
@@ -11674,8 +11677,8 @@
       <c r="I98" s="5">
         <v>11</v>
       </c>
-      <c r="J98" s="5">
-        <v>4</v>
+      <c r="J98" s="7">
+        <v>3</v>
       </c>
       <c r="K98" s="7">
         <v>0</v>
@@ -11717,21 +11720,21 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C99" s="5">
         <v>405</v>
       </c>
       <c r="E99" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G99" s="5">
+      <c r="G99" s="7">
         <v>1</v>
       </c>
       <c r="H99" s="5">
@@ -11740,14 +11743,14 @@
       <c r="I99" s="5">
         <v>11</v>
       </c>
-      <c r="J99" s="5">
-        <v>4</v>
+      <c r="J99" s="7">
+        <v>3</v>
       </c>
       <c r="K99" s="7">
         <v>0</v>
       </c>
       <c r="L99" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M99" s="5">
         <v>6</v>
@@ -11783,16 +11786,16 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C100" s="5">
         <v>406</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E100" s="5">
         <v>-999999999</v>
@@ -11800,7 +11803,7 @@
       <c r="F100" s="5">
         <v>999999999</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="7">
         <v>1</v>
       </c>
       <c r="H100" s="5">
@@ -11809,11 +11812,11 @@
       <c r="I100" s="5">
         <v>11</v>
       </c>
-      <c r="J100" s="5">
-        <v>4</v>
+      <c r="J100" s="7">
+        <v>3</v>
       </c>
       <c r="K100" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="5">
         <v>0</v>
@@ -11852,16 +11855,16 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C101" s="5">
         <v>407</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E101" s="5">
         <v>-999999999</v>
@@ -11869,7 +11872,7 @@
       <c r="F101" s="5">
         <v>999999999</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="7">
         <v>1</v>
       </c>
       <c r="H101" s="5">
@@ -11878,11 +11881,11 @@
       <c r="I101" s="5">
         <v>11</v>
       </c>
-      <c r="J101" s="5">
-        <v>4</v>
+      <c r="J101" s="7">
+        <v>3</v>
       </c>
       <c r="K101" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L101" s="5">
         <v>0</v>
@@ -11921,16 +11924,16 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102" s="5">
         <v>408</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E102" s="5">
         <v>-999999999</v>
@@ -11938,7 +11941,7 @@
       <c r="F102" s="5">
         <v>999999999</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="7">
         <v>1</v>
       </c>
       <c r="H102" s="5">
@@ -11947,11 +11950,11 @@
       <c r="I102" s="5">
         <v>11</v>
       </c>
-      <c r="J102" s="5">
-        <v>4</v>
+      <c r="J102" s="7">
+        <v>3</v>
       </c>
       <c r="K102" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L102" s="5">
         <v>0</v>
@@ -11990,16 +11993,16 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C103" s="5">
         <v>409</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E103" s="5">
         <v>-50</v>
@@ -12007,7 +12010,7 @@
       <c r="F103" s="5">
         <v>150</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="7">
         <v>1</v>
       </c>
       <c r="H103" s="5">
@@ -12016,11 +12019,11 @@
       <c r="I103" s="5">
         <v>11</v>
       </c>
-      <c r="J103" s="5">
-        <v>4</v>
+      <c r="J103" s="7">
+        <v>3</v>
       </c>
       <c r="K103" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L103" s="5">
         <v>0</v>
@@ -12059,21 +12062,21 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104" s="5">
         <v>410</v>
       </c>
       <c r="E104" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F104" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F104" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="G104" s="7">
         <v>1</v>
       </c>
       <c r="H104" s="5">
@@ -12082,11 +12085,11 @@
       <c r="I104" s="5">
         <v>3</v>
       </c>
-      <c r="J104" s="5">
-        <v>4</v>
+      <c r="J104" s="7">
+        <v>3</v>
       </c>
       <c r="K104" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L104" s="5">
         <v>5</v>
@@ -12125,21 +12128,21 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C105" s="5">
         <v>411</v>
       </c>
       <c r="E105" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G105" s="5">
+      <c r="G105" s="7">
         <v>1</v>
       </c>
       <c r="H105" s="5">
@@ -12148,11 +12151,11 @@
       <c r="I105" s="5">
         <v>3</v>
       </c>
-      <c r="J105" s="5">
-        <v>4</v>
+      <c r="J105" s="7">
+        <v>3</v>
       </c>
       <c r="K105" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L105" s="5">
         <v>4</v>
@@ -12191,21 +12194,21 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C106" s="5">
         <v>412</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F106" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F106" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="G106" s="7">
         <v>1</v>
       </c>
       <c r="H106" s="5">
@@ -12214,11 +12217,11 @@
       <c r="I106" s="5">
         <v>3</v>
       </c>
-      <c r="J106" s="5">
-        <v>4</v>
+      <c r="J106" s="7">
+        <v>3</v>
       </c>
       <c r="K106" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L106" s="5">
         <v>3</v>
@@ -12257,21 +12260,21 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C107" s="5">
         <v>413</v>
       </c>
       <c r="E107" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F107" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G107" s="5">
+      <c r="G107" s="7">
         <v>1</v>
       </c>
       <c r="H107" s="5">
@@ -12280,11 +12283,11 @@
       <c r="I107" s="5">
         <v>3</v>
       </c>
-      <c r="J107" s="5">
-        <v>4</v>
+      <c r="J107" s="7">
+        <v>3</v>
       </c>
       <c r="K107" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L107" s="5">
         <v>2</v>
@@ -12323,21 +12326,21 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C108" s="5">
         <v>414</v>
       </c>
       <c r="E108" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F108" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G108" s="5">
+      <c r="G108" s="7">
         <v>1</v>
       </c>
       <c r="H108" s="5">
@@ -12346,11 +12349,11 @@
       <c r="I108" s="5">
         <v>3</v>
       </c>
-      <c r="J108" s="5">
-        <v>4</v>
+      <c r="J108" s="7">
+        <v>3</v>
       </c>
       <c r="K108" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L108" s="5">
         <v>1</v>
@@ -12389,21 +12392,21 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C109" s="5">
         <v>415</v>
       </c>
       <c r="E109" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F109" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F109" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G109" s="5">
+      <c r="G109" s="7">
         <v>1</v>
       </c>
       <c r="H109" s="5">
@@ -12412,14 +12415,14 @@
       <c r="I109" s="5">
         <v>3</v>
       </c>
-      <c r="J109" s="5">
-        <v>4</v>
+      <c r="J109" s="7">
+        <v>3</v>
       </c>
       <c r="K109" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L109" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M109" s="5">
         <v>6</v>
@@ -12455,21 +12458,21 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C110" s="5">
         <v>416</v>
       </c>
       <c r="E110" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F110" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="G110" s="7">
         <v>1</v>
       </c>
       <c r="H110" s="5">
@@ -12478,8 +12481,8 @@
       <c r="I110" s="5">
         <v>3</v>
       </c>
-      <c r="J110" s="5">
-        <v>4</v>
+      <c r="J110" s="7">
+        <v>3</v>
       </c>
       <c r="K110" s="7">
         <v>0</v>
@@ -12521,21 +12524,21 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C111" s="5">
         <v>417</v>
       </c>
       <c r="E111" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F111" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G111" s="5">
+      <c r="G111" s="7">
         <v>1</v>
       </c>
       <c r="H111" s="5">
@@ -12544,8 +12547,8 @@
       <c r="I111" s="5">
         <v>3</v>
       </c>
-      <c r="J111" s="5">
-        <v>4</v>
+      <c r="J111" s="7">
+        <v>3</v>
       </c>
       <c r="K111" s="7">
         <v>0</v>
@@ -12587,21 +12590,21 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="5">
         <v>418</v>
       </c>
       <c r="E112" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="G112" s="7">
         <v>1</v>
       </c>
       <c r="H112" s="5">
@@ -12610,11 +12613,11 @@
       <c r="I112" s="5">
         <v>3</v>
       </c>
-      <c r="J112" s="5">
-        <v>4</v>
+      <c r="J112" s="7">
+        <v>3</v>
       </c>
       <c r="K112" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="5">
         <v>7</v>
@@ -12653,21 +12656,21 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C113" s="5">
         <v>419</v>
       </c>
       <c r="E113" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G113" s="5">
+      <c r="G113" s="7">
         <v>1</v>
       </c>
       <c r="H113" s="5">
@@ -12676,11 +12679,11 @@
       <c r="I113" s="5">
         <v>3</v>
       </c>
-      <c r="J113" s="5">
-        <v>4</v>
+      <c r="J113" s="7">
+        <v>3</v>
       </c>
       <c r="K113" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113" s="5">
         <v>6</v>
@@ -12719,21 +12722,21 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C114" s="5">
         <v>420</v>
       </c>
       <c r="E114" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G114" s="5">
+      <c r="G114" s="7">
         <v>1</v>
       </c>
       <c r="H114" s="5">
@@ -12742,11 +12745,11 @@
       <c r="I114" s="5">
         <v>3</v>
       </c>
-      <c r="J114" s="5">
-        <v>4</v>
+      <c r="J114" s="7">
+        <v>3</v>
       </c>
       <c r="K114" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L114" s="5">
         <v>5</v>
@@ -12785,21 +12788,21 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C115" s="5">
         <v>421</v>
       </c>
       <c r="E115" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F115" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G115" s="5">
+      <c r="G115" s="7">
         <v>1</v>
       </c>
       <c r="H115" s="5">
@@ -12808,11 +12811,11 @@
       <c r="I115" s="5">
         <v>3</v>
       </c>
-      <c r="J115" s="5">
-        <v>4</v>
+      <c r="J115" s="7">
+        <v>3</v>
       </c>
       <c r="K115" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L115" s="5">
         <v>4</v>
@@ -12851,21 +12854,21 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C116" s="5">
         <v>422</v>
       </c>
       <c r="E116" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G116" s="5">
+      <c r="G116" s="7">
         <v>1</v>
       </c>
       <c r="H116" s="5">
@@ -12874,11 +12877,11 @@
       <c r="I116" s="5">
         <v>3</v>
       </c>
-      <c r="J116" s="5">
-        <v>4</v>
+      <c r="J116" s="7">
+        <v>3</v>
       </c>
       <c r="K116" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L116" s="5">
         <v>3</v>
@@ -12917,21 +12920,21 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C117" s="5">
         <v>423</v>
       </c>
       <c r="E117" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G117" s="5">
+      <c r="G117" s="7">
         <v>1</v>
       </c>
       <c r="H117" s="5">
@@ -12940,11 +12943,11 @@
       <c r="I117" s="5">
         <v>3</v>
       </c>
-      <c r="J117" s="5">
-        <v>4</v>
+      <c r="J117" s="7">
+        <v>3</v>
       </c>
       <c r="K117" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L117" s="5">
         <v>2</v>
@@ -12983,21 +12986,21 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C118" s="5">
         <v>500</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G118" s="5">
+      <c r="G118" s="7">
         <v>1</v>
       </c>
       <c r="H118" s="5">
@@ -13006,11 +13009,11 @@
       <c r="I118" s="5">
         <v>3</v>
       </c>
-      <c r="J118" s="5">
-        <v>4</v>
+      <c r="J118" s="7">
+        <v>3</v>
       </c>
       <c r="K118" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L118" s="5">
         <v>1</v>
@@ -13049,21 +13052,21 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C119" s="5">
         <v>501</v>
       </c>
       <c r="E119" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G119" s="5">
+      <c r="G119" s="7">
         <v>1</v>
       </c>
       <c r="H119" s="5">
@@ -13072,11 +13075,11 @@
       <c r="I119" s="5">
         <v>3</v>
       </c>
-      <c r="J119" s="5">
-        <v>4</v>
+      <c r="J119" s="7">
+        <v>3</v>
       </c>
       <c r="K119" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L119" s="5">
         <v>0</v>
@@ -13115,21 +13118,21 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C120" s="5">
         <v>502</v>
       </c>
       <c r="E120" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F120" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G120" s="5">
+      <c r="G120" s="7">
         <v>1</v>
       </c>
       <c r="H120" s="5">
@@ -13138,11 +13141,11 @@
       <c r="I120" s="5">
         <v>3</v>
       </c>
-      <c r="J120" s="5">
-        <v>4</v>
+      <c r="J120" s="7">
+        <v>3</v>
       </c>
       <c r="K120" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L120" s="5">
         <v>5</v>
@@ -13181,21 +13184,21 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C121" s="5">
         <v>503</v>
       </c>
       <c r="E121" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F121" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G121" s="5">
+      <c r="G121" s="7">
         <v>1</v>
       </c>
       <c r="H121" s="5">
@@ -13204,11 +13207,11 @@
       <c r="I121" s="5">
         <v>3</v>
       </c>
-      <c r="J121" s="5">
-        <v>4</v>
+      <c r="J121" s="7">
+        <v>3</v>
       </c>
       <c r="K121" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L121" s="5">
         <v>4</v>
@@ -13247,21 +13250,21 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C122" s="5">
         <v>504</v>
       </c>
       <c r="E122" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G122" s="5">
+      <c r="G122" s="7">
         <v>1</v>
       </c>
       <c r="H122" s="5">
@@ -13270,8 +13273,8 @@
       <c r="I122" s="5">
         <v>3</v>
       </c>
-      <c r="J122" s="5">
-        <v>4</v>
+      <c r="J122" s="7">
+        <v>3</v>
       </c>
       <c r="K122" s="7">
         <v>0</v>
@@ -13313,21 +13316,21 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C123" s="5">
         <v>505</v>
       </c>
       <c r="E123" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G123" s="5">
+      <c r="G123" s="7">
         <v>1</v>
       </c>
       <c r="H123" s="5">
@@ -13336,8 +13339,8 @@
       <c r="I123" s="5">
         <v>3</v>
       </c>
-      <c r="J123" s="5">
-        <v>4</v>
+      <c r="J123" s="7">
+        <v>3</v>
       </c>
       <c r="K123" s="7">
         <v>0</v>
@@ -13379,21 +13382,21 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C124" s="5">
         <v>506</v>
       </c>
       <c r="E124" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F124" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G124" s="5">
+      <c r="G124" s="7">
         <v>1</v>
       </c>
       <c r="H124" s="5">
@@ -13402,8 +13405,8 @@
       <c r="I124" s="5">
         <v>3</v>
       </c>
-      <c r="J124" s="5">
-        <v>4</v>
+      <c r="J124" s="7">
+        <v>3</v>
       </c>
       <c r="K124" s="7">
         <v>0</v>
@@ -13445,21 +13448,21 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C125" s="5">
         <v>507</v>
       </c>
       <c r="E125" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F125" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G125" s="5">
+      <c r="G125" s="7">
         <v>1</v>
       </c>
       <c r="H125" s="5">
@@ -13468,14 +13471,14 @@
       <c r="I125" s="5">
         <v>3</v>
       </c>
-      <c r="J125" s="5">
-        <v>4</v>
+      <c r="J125" s="7">
+        <v>3</v>
       </c>
       <c r="K125" s="7">
         <v>0</v>
       </c>
       <c r="L125" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M125" s="5">
         <v>6</v>
@@ -13511,21 +13514,21 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C126" s="5">
         <v>508</v>
       </c>
       <c r="E126" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F126" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F126" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G126" s="5">
+      <c r="G126" s="7">
         <v>1</v>
       </c>
       <c r="H126" s="5">
@@ -13534,11 +13537,11 @@
       <c r="I126" s="5">
         <v>3</v>
       </c>
-      <c r="J126" s="5">
-        <v>4</v>
+      <c r="J126" s="7">
+        <v>3</v>
       </c>
       <c r="K126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" s="5">
         <v>9</v>
@@ -13577,21 +13580,21 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C127" s="5">
         <v>509</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G127" s="5">
+      <c r="G127" s="7">
         <v>1</v>
       </c>
       <c r="H127" s="5">
@@ -13600,11 +13603,11 @@
       <c r="I127" s="5">
         <v>3</v>
       </c>
-      <c r="J127" s="5">
-        <v>4</v>
+      <c r="J127" s="7">
+        <v>3</v>
       </c>
       <c r="K127" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127" s="5">
         <v>8</v>
@@ -13643,21 +13646,21 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128" s="5">
         <v>510</v>
       </c>
       <c r="E128" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G128" s="5">
+      <c r="G128" s="7">
         <v>1</v>
       </c>
       <c r="H128" s="5">
@@ -13666,11 +13669,11 @@
       <c r="I128" s="5">
         <v>3</v>
       </c>
-      <c r="J128" s="5">
-        <v>4</v>
+      <c r="J128" s="7">
+        <v>3</v>
       </c>
       <c r="K128" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L128" s="5">
         <v>7</v>
@@ -13709,21 +13712,21 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129" s="5">
         <v>511</v>
       </c>
       <c r="E129" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F129" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F129" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G129" s="5">
+      <c r="G129" s="7">
         <v>1</v>
       </c>
       <c r="H129" s="5">
@@ -13732,11 +13735,11 @@
       <c r="I129" s="5">
         <v>3</v>
       </c>
-      <c r="J129" s="5">
-        <v>4</v>
+      <c r="J129" s="7">
+        <v>3</v>
       </c>
       <c r="K129" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L129" s="5">
         <v>6</v>
@@ -13775,21 +13778,21 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C130" s="5">
         <v>512</v>
       </c>
       <c r="E130" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F130" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G130" s="5">
+      <c r="G130" s="7">
         <v>1</v>
       </c>
       <c r="H130" s="5">
@@ -13798,11 +13801,11 @@
       <c r="I130" s="5">
         <v>3</v>
       </c>
-      <c r="J130" s="5">
-        <v>4</v>
+      <c r="J130" s="7">
+        <v>3</v>
       </c>
       <c r="K130" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L130" s="5">
         <v>5</v>
@@ -13841,21 +13844,21 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C131" s="5">
         <v>513</v>
       </c>
       <c r="E131" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F131" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F131" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G131" s="5">
+      <c r="G131" s="7">
         <v>1</v>
       </c>
       <c r="H131" s="5">
@@ -13864,11 +13867,11 @@
       <c r="I131" s="5">
         <v>3</v>
       </c>
-      <c r="J131" s="5">
-        <v>4</v>
+      <c r="J131" s="7">
+        <v>3</v>
       </c>
       <c r="K131" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L131" s="5">
         <v>4</v>
@@ -13907,21 +13910,21 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C132" s="5">
         <v>514</v>
       </c>
       <c r="E132" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F132" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G132" s="5">
+      <c r="G132" s="7">
         <v>1</v>
       </c>
       <c r="H132" s="5">
@@ -13930,11 +13933,11 @@
       <c r="I132" s="5">
         <v>3</v>
       </c>
-      <c r="J132" s="5">
-        <v>4</v>
+      <c r="J132" s="7">
+        <v>3</v>
       </c>
       <c r="K132" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L132" s="5">
         <v>3</v>
@@ -13973,21 +13976,21 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C133" s="5">
         <v>515</v>
       </c>
       <c r="E133" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F133" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G133" s="5">
+      <c r="G133" s="7">
         <v>1</v>
       </c>
       <c r="H133" s="5">
@@ -13996,11 +13999,11 @@
       <c r="I133" s="5">
         <v>3</v>
       </c>
-      <c r="J133" s="5">
-        <v>4</v>
+      <c r="J133" s="7">
+        <v>3</v>
       </c>
       <c r="K133" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L133" s="5">
         <v>2</v>
@@ -14039,21 +14042,21 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C134" s="5">
         <v>516</v>
       </c>
       <c r="E134" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F134" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F134" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G134" s="5">
+      <c r="G134" s="7">
         <v>1</v>
       </c>
       <c r="H134" s="5">
@@ -14062,11 +14065,11 @@
       <c r="I134" s="5">
         <v>3</v>
       </c>
-      <c r="J134" s="5">
-        <v>4</v>
+      <c r="J134" s="7">
+        <v>3</v>
       </c>
       <c r="K134" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L134" s="5">
         <v>1</v>
@@ -14105,21 +14108,21 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C135" s="5">
         <v>517</v>
       </c>
       <c r="E135" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F135" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F135" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G135" s="5">
+      <c r="G135" s="7">
         <v>1</v>
       </c>
       <c r="H135" s="5">
@@ -14128,11 +14131,11 @@
       <c r="I135" s="5">
         <v>3</v>
       </c>
-      <c r="J135" s="5">
-        <v>4</v>
+      <c r="J135" s="7">
+        <v>3</v>
       </c>
       <c r="K135" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L135" s="5">
         <v>0</v>
@@ -14171,16 +14174,16 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C136" s="5">
         <v>518</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E136" s="5">
         <v>-50</v>
@@ -14188,7 +14191,7 @@
       <c r="F136" s="5">
         <v>150</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136" s="7">
         <v>1</v>
       </c>
       <c r="H136" s="5">
@@ -14197,8 +14200,8 @@
       <c r="I136" s="5">
         <v>15</v>
       </c>
-      <c r="J136" s="5">
-        <v>4</v>
+      <c r="J136" s="7">
+        <v>3</v>
       </c>
       <c r="K136" s="7">
         <v>0</v>
@@ -14240,16 +14243,16 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" s="5">
         <v>519</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E137" s="5">
         <v>-50</v>
@@ -14257,7 +14260,7 @@
       <c r="F137" s="5">
         <v>150</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137" s="7">
         <v>1</v>
       </c>
       <c r="H137" s="5">
@@ -14266,8 +14269,8 @@
       <c r="I137" s="5">
         <v>15</v>
       </c>
-      <c r="J137" s="5">
-        <v>4</v>
+      <c r="J137" s="7">
+        <v>3</v>
       </c>
       <c r="K137" s="7">
         <v>0</v>
@@ -14309,21 +14312,21 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C138" s="5">
         <v>520</v>
       </c>
       <c r="E138" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F138" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G138" s="5">
+      <c r="G138" s="7">
         <v>1</v>
       </c>
       <c r="H138" s="5">
@@ -14332,11 +14335,11 @@
       <c r="I138" s="5">
         <v>15</v>
       </c>
-      <c r="J138" s="5">
-        <v>4</v>
+      <c r="J138" s="7">
+        <v>3</v>
       </c>
       <c r="K138" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L138" s="5">
         <v>0</v>
@@ -14375,15 +14378,15 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C139" s="5">
         <v>521</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139" s="7">
         <v>1</v>
       </c>
       <c r="H139" s="5">
@@ -14392,11 +14395,11 @@
       <c r="I139" s="5">
         <v>15</v>
       </c>
-      <c r="J139" s="5">
-        <v>4</v>
+      <c r="J139" s="7">
+        <v>3</v>
       </c>
       <c r="K139" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L139" s="5">
         <v>0</v>
@@ -14435,16 +14438,16 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C140" s="5">
         <v>522</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -14452,7 +14455,7 @@
       <c r="F140" s="5">
         <v>999999999</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140" s="7">
         <v>1</v>
       </c>
       <c r="H140" s="5">
@@ -14461,11 +14464,11 @@
       <c r="I140" s="5">
         <v>19</v>
       </c>
-      <c r="J140" s="5">
-        <v>4</v>
+      <c r="J140" s="7">
+        <v>3</v>
       </c>
       <c r="K140" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L140" s="5">
         <v>0</v>
@@ -14504,21 +14507,21 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C141" s="5">
         <v>600</v>
       </c>
       <c r="E141" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F141" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F141" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G141" s="5">
+      <c r="G141" s="7">
         <v>1</v>
       </c>
       <c r="H141" s="5">
@@ -14527,11 +14530,11 @@
       <c r="I141" s="5">
         <v>12</v>
       </c>
-      <c r="J141" s="5">
-        <v>4</v>
+      <c r="J141" s="7">
+        <v>3</v>
       </c>
       <c r="K141" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L141" s="5">
         <v>5</v>
@@ -14570,21 +14573,21 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C142" s="5">
         <v>601</v>
       </c>
       <c r="E142" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F142" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F142" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G142" s="5">
+      <c r="G142" s="7">
         <v>1</v>
       </c>
       <c r="H142" s="5">
@@ -14593,11 +14596,11 @@
       <c r="I142" s="5">
         <v>12</v>
       </c>
-      <c r="J142" s="5">
-        <v>4</v>
+      <c r="J142" s="7">
+        <v>3</v>
       </c>
       <c r="K142" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L142" s="5">
         <v>4</v>
@@ -14636,21 +14639,21 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C143" s="5">
         <v>602</v>
       </c>
       <c r="E143" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F143" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G143" s="5">
+      <c r="G143" s="7">
         <v>1</v>
       </c>
       <c r="H143" s="5">
@@ -14659,11 +14662,11 @@
       <c r="I143" s="5">
         <v>12</v>
       </c>
-      <c r="J143" s="5">
-        <v>4</v>
+      <c r="J143" s="7">
+        <v>3</v>
       </c>
       <c r="K143" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L143" s="5">
         <v>3</v>
@@ -14702,21 +14705,21 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C144" s="5">
         <v>603</v>
       </c>
       <c r="E144" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F144" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F144" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G144" s="5">
+      <c r="G144" s="7">
         <v>1</v>
       </c>
       <c r="H144" s="5">
@@ -14725,11 +14728,11 @@
       <c r="I144" s="5">
         <v>12</v>
       </c>
-      <c r="J144" s="5">
-        <v>4</v>
+      <c r="J144" s="7">
+        <v>3</v>
       </c>
       <c r="K144" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L144" s="5">
         <v>2</v>
@@ -14768,21 +14771,21 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A145" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C145" s="5">
         <v>604</v>
       </c>
       <c r="E145" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G145" s="5">
+      <c r="G145" s="7">
         <v>1</v>
       </c>
       <c r="H145" s="5">
@@ -14791,11 +14794,11 @@
       <c r="I145" s="5">
         <v>12</v>
       </c>
-      <c r="J145" s="5">
-        <v>4</v>
+      <c r="J145" s="7">
+        <v>3</v>
       </c>
       <c r="K145" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L145" s="5">
         <v>1</v>
@@ -14834,21 +14837,21 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A146" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C146" s="5">
         <v>605</v>
       </c>
       <c r="E146" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F146" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G146" s="5">
+      <c r="G146" s="7">
         <v>1</v>
       </c>
       <c r="H146" s="5">
@@ -14857,14 +14860,14 @@
       <c r="I146" s="5">
         <v>12</v>
       </c>
-      <c r="J146" s="5">
-        <v>4</v>
+      <c r="J146" s="7">
+        <v>3</v>
       </c>
       <c r="K146" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L146" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M146" s="5">
         <v>6</v>
@@ -14900,16 +14903,16 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147" s="5">
         <v>606</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E147" s="5">
         <v>-999999999</v>
@@ -14917,7 +14920,7 @@
       <c r="F147" s="5">
         <v>999999999</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147" s="7">
         <v>1</v>
       </c>
       <c r="H147" s="5">
@@ -14926,11 +14929,11 @@
       <c r="I147" s="5">
         <v>12</v>
       </c>
-      <c r="J147" s="5">
-        <v>4</v>
+      <c r="J147" s="7">
+        <v>3</v>
       </c>
       <c r="K147" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L147" s="5">
         <v>0</v>
@@ -14969,16 +14972,16 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A148" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C148" s="5">
         <v>607</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E148" s="5">
         <v>-999999999</v>
@@ -14986,7 +14989,7 @@
       <c r="F148" s="5">
         <v>999999999</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148" s="7">
         <v>1</v>
       </c>
       <c r="H148" s="5">
@@ -14995,8 +14998,8 @@
       <c r="I148" s="5">
         <v>12</v>
       </c>
-      <c r="J148" s="5">
-        <v>4</v>
+      <c r="J148" s="7">
+        <v>3</v>
       </c>
       <c r="K148" s="7">
         <v>0</v>
@@ -15038,16 +15041,16 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C149" s="5">
         <v>608</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E149" s="5">
         <v>-999999999</v>
@@ -15055,7 +15058,7 @@
       <c r="F149" s="5">
         <v>999999999</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149" s="7">
         <v>1</v>
       </c>
       <c r="H149" s="5">
@@ -15064,11 +15067,11 @@
       <c r="I149" s="5">
         <v>12</v>
       </c>
-      <c r="J149" s="5">
-        <v>4</v>
+      <c r="J149" s="7">
+        <v>3</v>
       </c>
       <c r="K149" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="5">
         <v>0</v>
@@ -15107,16 +15110,16 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A150" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C150" s="5">
         <v>609</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E150" s="5">
         <v>-50</v>
@@ -15124,7 +15127,7 @@
       <c r="F150" s="5">
         <v>150</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150" s="7">
         <v>1</v>
       </c>
       <c r="H150" s="5">
@@ -15133,11 +15136,11 @@
       <c r="I150" s="5">
         <v>12</v>
       </c>
-      <c r="J150" s="5">
-        <v>4</v>
+      <c r="J150" s="7">
+        <v>3</v>
       </c>
       <c r="K150" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L150" s="5">
         <v>0</v>
@@ -15176,21 +15179,21 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C151" s="5">
         <v>610</v>
       </c>
       <c r="E151" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F151" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F151" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G151" s="5">
+      <c r="G151" s="7">
         <v>1</v>
       </c>
       <c r="H151" s="5">
@@ -15199,11 +15202,11 @@
       <c r="I151" s="5">
         <v>4</v>
       </c>
-      <c r="J151" s="5">
-        <v>4</v>
+      <c r="J151" s="7">
+        <v>3</v>
       </c>
       <c r="K151" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L151" s="5">
         <v>5</v>
@@ -15242,21 +15245,21 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A152" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C152" s="5">
         <v>611</v>
       </c>
       <c r="E152" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F152" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F152" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G152" s="5">
+      <c r="G152" s="7">
         <v>1</v>
       </c>
       <c r="H152" s="5">
@@ -15265,11 +15268,11 @@
       <c r="I152" s="5">
         <v>4</v>
       </c>
-      <c r="J152" s="5">
-        <v>4</v>
+      <c r="J152" s="7">
+        <v>3</v>
       </c>
       <c r="K152" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L152" s="5">
         <v>4</v>
@@ -15308,21 +15311,21 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C153" s="5">
         <v>612</v>
       </c>
       <c r="E153" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F153" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G153" s="5">
+      <c r="G153" s="7">
         <v>1</v>
       </c>
       <c r="H153" s="5">
@@ -15331,11 +15334,11 @@
       <c r="I153" s="5">
         <v>4</v>
       </c>
-      <c r="J153" s="5">
-        <v>4</v>
+      <c r="J153" s="7">
+        <v>3</v>
       </c>
       <c r="K153" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L153" s="5">
         <v>3</v>
@@ -15374,21 +15377,21 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C154" s="5">
         <v>613</v>
       </c>
       <c r="E154" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F154" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G154" s="5">
+      <c r="G154" s="7">
         <v>1</v>
       </c>
       <c r="H154" s="5">
@@ -15397,11 +15400,11 @@
       <c r="I154" s="5">
         <v>4</v>
       </c>
-      <c r="J154" s="5">
-        <v>4</v>
+      <c r="J154" s="7">
+        <v>3</v>
       </c>
       <c r="K154" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L154" s="5">
         <v>2</v>
@@ -15440,21 +15443,21 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C155" s="5">
         <v>614</v>
       </c>
       <c r="E155" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F155" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F155" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G155" s="5">
+      <c r="G155" s="7">
         <v>1</v>
       </c>
       <c r="H155" s="5">
@@ -15463,11 +15466,11 @@
       <c r="I155" s="5">
         <v>4</v>
       </c>
-      <c r="J155" s="5">
-        <v>4</v>
+      <c r="J155" s="7">
+        <v>3</v>
       </c>
       <c r="K155" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L155" s="5">
         <v>1</v>
@@ -15506,21 +15509,21 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C156" s="5">
         <v>615</v>
       </c>
       <c r="E156" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F156" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G156" s="5">
+      <c r="G156" s="7">
         <v>1</v>
       </c>
       <c r="H156" s="5">
@@ -15529,14 +15532,14 @@
       <c r="I156" s="5">
         <v>4</v>
       </c>
-      <c r="J156" s="5">
-        <v>4</v>
+      <c r="J156" s="7">
+        <v>3</v>
       </c>
       <c r="K156" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L156" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M156" s="5">
         <v>6</v>
@@ -15572,21 +15575,21 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C157" s="5">
         <v>616</v>
       </c>
       <c r="E157" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F157" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G157" s="5">
+      <c r="G157" s="7">
         <v>1</v>
       </c>
       <c r="H157" s="5">
@@ -15595,11 +15598,11 @@
       <c r="I157" s="5">
         <v>4</v>
       </c>
-      <c r="J157" s="5">
-        <v>4</v>
+      <c r="J157" s="7">
+        <v>3</v>
       </c>
       <c r="K157" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L157" s="5">
         <v>9</v>
@@ -15638,21 +15641,21 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C158" s="5">
         <v>617</v>
       </c>
       <c r="E158" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F158" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F158" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G158" s="5">
+      <c r="G158" s="7">
         <v>1</v>
       </c>
       <c r="H158" s="5">
@@ -15661,11 +15664,11 @@
       <c r="I158" s="5">
         <v>4</v>
       </c>
-      <c r="J158" s="5">
-        <v>4</v>
+      <c r="J158" s="7">
+        <v>3</v>
       </c>
       <c r="K158" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L158" s="5">
         <v>8</v>
@@ -15704,21 +15707,21 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C159" s="5">
         <v>618</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F159" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G159" s="5">
+      <c r="G159" s="7">
         <v>1</v>
       </c>
       <c r="H159" s="5">
@@ -15727,8 +15730,8 @@
       <c r="I159" s="5">
         <v>4</v>
       </c>
-      <c r="J159" s="5">
-        <v>4</v>
+      <c r="J159" s="7">
+        <v>3</v>
       </c>
       <c r="K159" s="7">
         <v>0</v>
@@ -15770,21 +15773,21 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C160" s="5">
         <v>619</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G160" s="5">
+      <c r="G160" s="7">
         <v>1</v>
       </c>
       <c r="H160" s="5">
@@ -15793,8 +15796,8 @@
       <c r="I160" s="5">
         <v>4</v>
       </c>
-      <c r="J160" s="5">
-        <v>4</v>
+      <c r="J160" s="7">
+        <v>3</v>
       </c>
       <c r="K160" s="7">
         <v>0</v>
@@ -15836,21 +15839,21 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C161" s="5">
         <v>620</v>
       </c>
       <c r="E161" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F161" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F161" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G161" s="5">
+      <c r="G161" s="7">
         <v>1</v>
       </c>
       <c r="H161" s="5">
@@ -15859,11 +15862,11 @@
       <c r="I161" s="5">
         <v>4</v>
       </c>
-      <c r="J161" s="5">
-        <v>4</v>
+      <c r="J161" s="7">
+        <v>3</v>
       </c>
       <c r="K161" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L161" s="5">
         <v>5</v>
@@ -15902,21 +15905,21 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C162" s="5">
         <v>621</v>
       </c>
       <c r="E162" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F162" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F162" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G162" s="5">
+      <c r="G162" s="7">
         <v>1</v>
       </c>
       <c r="H162" s="5">
@@ -15925,11 +15928,11 @@
       <c r="I162" s="5">
         <v>4</v>
       </c>
-      <c r="J162" s="5">
-        <v>4</v>
+      <c r="J162" s="7">
+        <v>3</v>
       </c>
       <c r="K162" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L162" s="5">
         <v>4</v>
@@ -15968,21 +15971,21 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C163" s="5">
         <v>622</v>
       </c>
       <c r="E163" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F163" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F163" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G163" s="5">
+      <c r="G163" s="7">
         <v>1</v>
       </c>
       <c r="H163" s="5">
@@ -15991,11 +15994,11 @@
       <c r="I163" s="5">
         <v>4</v>
       </c>
-      <c r="J163" s="5">
-        <v>4</v>
+      <c r="J163" s="7">
+        <v>3</v>
       </c>
       <c r="K163" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L163" s="5">
         <v>3</v>
@@ -16034,21 +16037,21 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C164" s="5">
         <v>623</v>
       </c>
       <c r="E164" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F164" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F164" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G164" s="5">
+      <c r="G164" s="7">
         <v>1</v>
       </c>
       <c r="H164" s="5">
@@ -16057,11 +16060,11 @@
       <c r="I164" s="5">
         <v>4</v>
       </c>
-      <c r="J164" s="5">
-        <v>4</v>
+      <c r="J164" s="7">
+        <v>3</v>
       </c>
       <c r="K164" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L164" s="5">
         <v>2</v>
@@ -16100,21 +16103,21 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C165" s="5">
         <v>700</v>
       </c>
       <c r="E165" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F165" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F165" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G165" s="5">
+      <c r="G165" s="7">
         <v>1</v>
       </c>
       <c r="H165" s="5">
@@ -16123,11 +16126,11 @@
       <c r="I165" s="5">
         <v>4</v>
       </c>
-      <c r="J165" s="5">
-        <v>4</v>
+      <c r="J165" s="7">
+        <v>3</v>
       </c>
       <c r="K165" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L165" s="5">
         <v>1</v>
@@ -16166,21 +16169,21 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C166" s="5">
         <v>701</v>
       </c>
       <c r="E166" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F166" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F166" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G166" s="5">
+      <c r="G166" s="7">
         <v>1</v>
       </c>
       <c r="H166" s="5">
@@ -16189,11 +16192,11 @@
       <c r="I166" s="5">
         <v>4</v>
       </c>
-      <c r="J166" s="5">
-        <v>4</v>
+      <c r="J166" s="7">
+        <v>3</v>
       </c>
       <c r="K166" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L166" s="5">
         <v>0</v>
@@ -16232,21 +16235,21 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C167" s="5">
         <v>702</v>
       </c>
       <c r="E167" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F167" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F167" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G167" s="5">
+      <c r="G167" s="7">
         <v>1</v>
       </c>
       <c r="H167" s="5">
@@ -16255,11 +16258,11 @@
       <c r="I167" s="5">
         <v>4</v>
       </c>
-      <c r="J167" s="5">
-        <v>4</v>
+      <c r="J167" s="7">
+        <v>3</v>
       </c>
       <c r="K167" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L167" s="5">
         <v>5</v>
@@ -16298,21 +16301,21 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A168" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C168" s="5">
         <v>703</v>
       </c>
       <c r="E168" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F168" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F168" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G168" s="5">
+      <c r="G168" s="7">
         <v>1</v>
       </c>
       <c r="H168" s="5">
@@ -16321,11 +16324,11 @@
       <c r="I168" s="5">
         <v>4</v>
       </c>
-      <c r="J168" s="5">
-        <v>4</v>
+      <c r="J168" s="7">
+        <v>3</v>
       </c>
       <c r="K168" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L168" s="5">
         <v>4</v>
@@ -16364,21 +16367,21 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A169" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C169" s="5">
         <v>704</v>
       </c>
       <c r="E169" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F169" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F169" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G169" s="5">
+      <c r="G169" s="7">
         <v>1</v>
       </c>
       <c r="H169" s="5">
@@ -16387,11 +16390,11 @@
       <c r="I169" s="5">
         <v>4</v>
       </c>
-      <c r="J169" s="5">
-        <v>4</v>
+      <c r="J169" s="7">
+        <v>3</v>
       </c>
       <c r="K169" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L169" s="5">
         <v>3</v>
@@ -16430,21 +16433,21 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C170" s="5">
         <v>705</v>
       </c>
       <c r="E170" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F170" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G170" s="5">
+      <c r="G170" s="7">
         <v>1</v>
       </c>
       <c r="H170" s="5">
@@ -16453,11 +16456,11 @@
       <c r="I170" s="5">
         <v>4</v>
       </c>
-      <c r="J170" s="5">
-        <v>4</v>
+      <c r="J170" s="7">
+        <v>3</v>
       </c>
       <c r="K170" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L170" s="5">
         <v>2</v>
@@ -16496,21 +16499,21 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C171" s="5">
         <v>706</v>
       </c>
       <c r="E171" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F171" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G171" s="5">
+      <c r="G171" s="7">
         <v>1</v>
       </c>
       <c r="H171" s="5">
@@ -16519,8 +16522,8 @@
       <c r="I171" s="5">
         <v>4</v>
       </c>
-      <c r="J171" s="5">
-        <v>4</v>
+      <c r="J171" s="7">
+        <v>3</v>
       </c>
       <c r="K171" s="7">
         <v>0</v>
@@ -16562,21 +16565,21 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C172" s="5">
         <v>707</v>
       </c>
       <c r="E172" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F172" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G172" s="5">
+      <c r="G172" s="7">
         <v>1</v>
       </c>
       <c r="H172" s="5">
@@ -16585,14 +16588,14 @@
       <c r="I172" s="5">
         <v>4</v>
       </c>
-      <c r="J172" s="5">
-        <v>4</v>
+      <c r="J172" s="7">
+        <v>3</v>
       </c>
       <c r="K172" s="7">
         <v>0</v>
       </c>
       <c r="L172" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M172" s="5">
         <v>6</v>
@@ -16628,21 +16631,21 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C173" s="5">
         <v>708</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G173" s="5">
+      <c r="G173" s="7">
         <v>1</v>
       </c>
       <c r="H173" s="5">
@@ -16651,11 +16654,11 @@
       <c r="I173" s="5">
         <v>4</v>
       </c>
-      <c r="J173" s="5">
-        <v>4</v>
+      <c r="J173" s="7">
+        <v>3</v>
       </c>
       <c r="K173" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173" s="5">
         <v>9</v>
@@ -16694,21 +16697,21 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C174" s="5">
         <v>709</v>
       </c>
       <c r="E174" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F174" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G174" s="5">
+      <c r="G174" s="7">
         <v>1</v>
       </c>
       <c r="H174" s="5">
@@ -16717,11 +16720,11 @@
       <c r="I174" s="5">
         <v>4</v>
       </c>
-      <c r="J174" s="5">
-        <v>4</v>
+      <c r="J174" s="7">
+        <v>3</v>
       </c>
       <c r="K174" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L174" s="5">
         <v>8</v>
@@ -16760,21 +16763,21 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C175" s="5">
         <v>710</v>
       </c>
       <c r="E175" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F175" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G175" s="5">
+      <c r="G175" s="7">
         <v>1</v>
       </c>
       <c r="H175" s="5">
@@ -16783,11 +16786,11 @@
       <c r="I175" s="5">
         <v>4</v>
       </c>
-      <c r="J175" s="5">
-        <v>4</v>
+      <c r="J175" s="7">
+        <v>3</v>
       </c>
       <c r="K175" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L175" s="5">
         <v>7</v>
@@ -16826,21 +16829,21 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C176" s="5">
         <v>711</v>
       </c>
       <c r="E176" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F176" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F176" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G176" s="5">
+      <c r="G176" s="7">
         <v>1</v>
       </c>
       <c r="H176" s="5">
@@ -16849,11 +16852,11 @@
       <c r="I176" s="5">
         <v>4</v>
       </c>
-      <c r="J176" s="5">
-        <v>4</v>
+      <c r="J176" s="7">
+        <v>3</v>
       </c>
       <c r="K176" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L176" s="5">
         <v>6</v>
@@ -16892,21 +16895,21 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C177" s="5">
         <v>712</v>
       </c>
       <c r="E177" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F177" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F177" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G177" s="5">
+      <c r="G177" s="7">
         <v>1</v>
       </c>
       <c r="H177" s="5">
@@ -16915,11 +16918,11 @@
       <c r="I177" s="5">
         <v>4</v>
       </c>
-      <c r="J177" s="5">
-        <v>4</v>
+      <c r="J177" s="7">
+        <v>3</v>
       </c>
       <c r="K177" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L177" s="5">
         <v>5</v>
@@ -16958,21 +16961,21 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C178" s="5">
         <v>713</v>
       </c>
       <c r="E178" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F178" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F178" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G178" s="5">
+      <c r="G178" s="7">
         <v>1</v>
       </c>
       <c r="H178" s="5">
@@ -16981,11 +16984,11 @@
       <c r="I178" s="5">
         <v>4</v>
       </c>
-      <c r="J178" s="5">
-        <v>4</v>
+      <c r="J178" s="7">
+        <v>3</v>
       </c>
       <c r="K178" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L178" s="5">
         <v>4</v>
@@ -17024,21 +17027,21 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C179" s="5">
         <v>714</v>
       </c>
       <c r="E179" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F179" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G179" s="5">
+      <c r="G179" s="7">
         <v>1</v>
       </c>
       <c r="H179" s="5">
@@ -17047,11 +17050,11 @@
       <c r="I179" s="5">
         <v>4</v>
       </c>
-      <c r="J179" s="5">
-        <v>4</v>
+      <c r="J179" s="7">
+        <v>3</v>
       </c>
       <c r="K179" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L179" s="5">
         <v>3</v>
@@ -17090,21 +17093,21 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C180" s="5">
         <v>715</v>
       </c>
       <c r="E180" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F180" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G180" s="5">
+      <c r="G180" s="7">
         <v>1</v>
       </c>
       <c r="H180" s="5">
@@ -17113,11 +17116,11 @@
       <c r="I180" s="5">
         <v>4</v>
       </c>
-      <c r="J180" s="5">
-        <v>4</v>
+      <c r="J180" s="7">
+        <v>3</v>
       </c>
       <c r="K180" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L180" s="5">
         <v>2</v>
@@ -17156,21 +17159,21 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C181" s="5">
         <v>716</v>
       </c>
       <c r="E181" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F181" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F181" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G181" s="5">
+      <c r="G181" s="7">
         <v>1</v>
       </c>
       <c r="H181" s="5">
@@ -17179,11 +17182,11 @@
       <c r="I181" s="5">
         <v>4</v>
       </c>
-      <c r="J181" s="5">
-        <v>4</v>
+      <c r="J181" s="7">
+        <v>3</v>
       </c>
       <c r="K181" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L181" s="5">
         <v>1</v>
@@ -17222,21 +17225,21 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C182" s="5">
         <v>717</v>
       </c>
       <c r="E182" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F182" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F182" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G182" s="5">
+      <c r="G182" s="7">
         <v>1</v>
       </c>
       <c r="H182" s="5">
@@ -17245,11 +17248,11 @@
       <c r="I182" s="5">
         <v>4</v>
       </c>
-      <c r="J182" s="5">
-        <v>4</v>
+      <c r="J182" s="7">
+        <v>3</v>
       </c>
       <c r="K182" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L182" s="5">
         <v>0</v>
@@ -17288,16 +17291,16 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C183" s="5">
         <v>718</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E183" s="5">
         <v>-50</v>
@@ -17305,7 +17308,7 @@
       <c r="F183" s="5">
         <v>150</v>
       </c>
-      <c r="G183" s="5">
+      <c r="G183" s="7">
         <v>1</v>
       </c>
       <c r="H183" s="5">
@@ -17314,8 +17317,8 @@
       <c r="I183" s="5">
         <v>16</v>
       </c>
-      <c r="J183" s="5">
-        <v>4</v>
+      <c r="J183" s="7">
+        <v>3</v>
       </c>
       <c r="K183" s="7">
         <v>0</v>
@@ -17357,16 +17360,16 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C184" s="5">
         <v>719</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E184" s="5">
         <v>-50</v>
@@ -17374,7 +17377,7 @@
       <c r="F184" s="5">
         <v>150</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G184" s="7">
         <v>1</v>
       </c>
       <c r="H184" s="5">
@@ -17383,8 +17386,8 @@
       <c r="I184" s="5">
         <v>16</v>
       </c>
-      <c r="J184" s="5">
-        <v>4</v>
+      <c r="J184" s="7">
+        <v>3</v>
       </c>
       <c r="K184" s="7">
         <v>0</v>
@@ -17426,21 +17429,21 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C185" s="5">
         <v>720</v>
       </c>
       <c r="E185" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F185" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F185" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G185" s="5">
+      <c r="G185" s="7">
         <v>1</v>
       </c>
       <c r="H185" s="5">
@@ -17449,8 +17452,8 @@
       <c r="I185" s="5">
         <v>16</v>
       </c>
-      <c r="J185" s="5">
-        <v>4</v>
+      <c r="J185" s="7">
+        <v>3</v>
       </c>
       <c r="K185" s="7">
         <v>0</v>
@@ -17492,15 +17495,15 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C186" s="5">
         <v>721</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="7">
         <v>1</v>
       </c>
       <c r="H186" s="5">
@@ -17509,8 +17512,8 @@
       <c r="I186" s="5">
         <v>16</v>
       </c>
-      <c r="J186" s="5">
-        <v>4</v>
+      <c r="J186" s="7">
+        <v>3</v>
       </c>
       <c r="K186" s="7">
         <v>0</v>
@@ -17552,16 +17555,16 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C187" s="5">
         <v>722</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E187" s="5">
         <v>0</v>
@@ -17569,7 +17572,7 @@
       <c r="F187" s="5">
         <v>999999999</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G187" s="7">
         <v>1</v>
       </c>
       <c r="H187" s="5">
@@ -17578,11 +17581,11 @@
       <c r="I187" s="5">
         <v>20</v>
       </c>
-      <c r="J187" s="5">
-        <v>4</v>
+      <c r="J187" s="7">
+        <v>3</v>
       </c>
       <c r="K187" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" s="5">
         <v>0</v>
@@ -17621,21 +17624,21 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C188" s="5">
         <v>800</v>
       </c>
       <c r="E188" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F188" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F188" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G188" s="5">
+      <c r="G188" s="7">
         <v>1</v>
       </c>
       <c r="H188" s="5">
@@ -17644,11 +17647,11 @@
       <c r="I188" s="5">
         <v>5</v>
       </c>
-      <c r="J188" s="5">
-        <v>4</v>
+      <c r="J188" s="7">
+        <v>3</v>
       </c>
       <c r="K188" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L188" s="5">
         <v>5</v>
@@ -17687,21 +17690,21 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C189" s="5">
         <v>801</v>
       </c>
       <c r="E189" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F189" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F189" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G189" s="5">
+      <c r="G189" s="7">
         <v>1</v>
       </c>
       <c r="H189" s="5">
@@ -17710,11 +17713,11 @@
       <c r="I189" s="5">
         <v>5</v>
       </c>
-      <c r="J189" s="5">
-        <v>4</v>
+      <c r="J189" s="7">
+        <v>3</v>
       </c>
       <c r="K189" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L189" s="5">
         <v>4</v>
@@ -17753,21 +17756,21 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C190" s="5">
         <v>802</v>
       </c>
       <c r="E190" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F190" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F190" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G190" s="5">
+      <c r="G190" s="7">
         <v>1</v>
       </c>
       <c r="H190" s="5">
@@ -17776,11 +17779,11 @@
       <c r="I190" s="5">
         <v>5</v>
       </c>
-      <c r="J190" s="5">
-        <v>4</v>
+      <c r="J190" s="7">
+        <v>3</v>
       </c>
       <c r="K190" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L190" s="5">
         <v>3</v>
@@ -17819,21 +17822,21 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C191" s="5">
         <v>803</v>
       </c>
       <c r="E191" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F191" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G191" s="5">
+      <c r="G191" s="7">
         <v>1</v>
       </c>
       <c r="H191" s="5">
@@ -17842,11 +17845,11 @@
       <c r="I191" s="5">
         <v>5</v>
       </c>
-      <c r="J191" s="5">
-        <v>4</v>
+      <c r="J191" s="7">
+        <v>3</v>
       </c>
       <c r="K191" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L191" s="5">
         <v>2</v>
@@ -17885,21 +17888,21 @@
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A192" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C192" s="5">
         <v>804</v>
       </c>
       <c r="E192" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F192" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F192" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G192" s="5">
+      <c r="G192" s="7">
         <v>1</v>
       </c>
       <c r="H192" s="5">
@@ -17908,11 +17911,11 @@
       <c r="I192" s="5">
         <v>5</v>
       </c>
-      <c r="J192" s="5">
-        <v>4</v>
+      <c r="J192" s="7">
+        <v>3</v>
       </c>
       <c r="K192" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L192" s="5">
         <v>1</v>
@@ -17951,21 +17954,21 @@
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C193" s="5">
         <v>805</v>
       </c>
       <c r="E193" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F193" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G193" s="5">
+      <c r="G193" s="7">
         <v>1</v>
       </c>
       <c r="H193" s="5">
@@ -17974,14 +17977,14 @@
       <c r="I193" s="5">
         <v>5</v>
       </c>
-      <c r="J193" s="5">
-        <v>4</v>
+      <c r="J193" s="7">
+        <v>3</v>
       </c>
       <c r="K193" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L193" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M193" s="5">
         <v>6</v>
@@ -18017,21 +18020,21 @@
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C194" s="5">
         <v>806</v>
       </c>
       <c r="E194" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F194" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F194" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G194" s="5">
+      <c r="G194" s="7">
         <v>1</v>
       </c>
       <c r="H194" s="5">
@@ -18040,11 +18043,11 @@
       <c r="I194" s="5">
         <v>5</v>
       </c>
-      <c r="J194" s="5">
-        <v>4</v>
+      <c r="J194" s="7">
+        <v>3</v>
       </c>
       <c r="K194" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L194" s="5">
         <v>9</v>
@@ -18083,21 +18086,21 @@
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C195" s="5">
         <v>807</v>
       </c>
       <c r="E195" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F195" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F195" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G195" s="5">
+      <c r="G195" s="7">
         <v>1</v>
       </c>
       <c r="H195" s="5">
@@ -18106,11 +18109,11 @@
       <c r="I195" s="5">
         <v>5</v>
       </c>
-      <c r="J195" s="5">
-        <v>4</v>
+      <c r="J195" s="7">
+        <v>3</v>
       </c>
       <c r="K195" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L195" s="5">
         <v>8</v>
@@ -18149,21 +18152,21 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A196" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C196" s="5">
         <v>808</v>
       </c>
       <c r="E196" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F196" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F196" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G196" s="5">
+      <c r="G196" s="7">
         <v>1</v>
       </c>
       <c r="H196" s="5">
@@ -18172,11 +18175,11 @@
       <c r="I196" s="5">
         <v>5</v>
       </c>
-      <c r="J196" s="5">
-        <v>4</v>
+      <c r="J196" s="7">
+        <v>3</v>
       </c>
       <c r="K196" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L196" s="5">
         <v>7</v>
@@ -18215,21 +18218,21 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A197" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C197" s="5">
         <v>809</v>
       </c>
       <c r="E197" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F197" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F197" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G197" s="5">
+      <c r="G197" s="7">
         <v>1</v>
       </c>
       <c r="H197" s="5">
@@ -18238,8 +18241,8 @@
       <c r="I197" s="5">
         <v>5</v>
       </c>
-      <c r="J197" s="5">
-        <v>4</v>
+      <c r="J197" s="7">
+        <v>3</v>
       </c>
       <c r="K197" s="7">
         <v>0</v>
@@ -18281,21 +18284,21 @@
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C198" s="5">
         <v>810</v>
       </c>
       <c r="E198" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F198" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F198" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G198" s="5">
+      <c r="G198" s="7">
         <v>1</v>
       </c>
       <c r="H198" s="5">
@@ -18304,8 +18307,8 @@
       <c r="I198" s="5">
         <v>5</v>
       </c>
-      <c r="J198" s="5">
-        <v>4</v>
+      <c r="J198" s="7">
+        <v>3</v>
       </c>
       <c r="K198" s="7">
         <v>0</v>
@@ -18347,21 +18350,21 @@
     </row>
     <row r="199" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C199" s="9">
         <v>811</v>
       </c>
       <c r="E199" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F199" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F199" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G199" s="9">
+      <c r="G199" s="7">
         <v>1</v>
       </c>
       <c r="H199" s="9">
@@ -18370,11 +18373,11 @@
       <c r="I199" s="9">
         <v>7</v>
       </c>
-      <c r="J199" s="5">
-        <v>4</v>
+      <c r="J199" s="7">
+        <v>3</v>
       </c>
       <c r="K199" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199" s="5">
         <v>4</v>
@@ -18413,21 +18416,21 @@
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C200" s="5">
         <v>900</v>
       </c>
       <c r="E200" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F200" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F200" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G200" s="5">
+      <c r="G200" s="7">
         <v>1</v>
       </c>
       <c r="H200" s="5">
@@ -18436,11 +18439,11 @@
       <c r="I200" s="5">
         <v>6</v>
       </c>
-      <c r="J200" s="5">
-        <v>4</v>
+      <c r="J200" s="7">
+        <v>3</v>
       </c>
       <c r="K200" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L200" s="5">
         <v>3</v>
@@ -18479,21 +18482,21 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C201" s="5">
         <v>901</v>
       </c>
       <c r="E201" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F201" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F201" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G201" s="5">
+      <c r="G201" s="7">
         <v>1</v>
       </c>
       <c r="H201" s="5">
@@ -18502,11 +18505,11 @@
       <c r="I201" s="5">
         <v>6</v>
       </c>
-      <c r="J201" s="5">
-        <v>4</v>
+      <c r="J201" s="7">
+        <v>3</v>
       </c>
       <c r="K201" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L201" s="5">
         <v>2</v>
@@ -18545,21 +18548,21 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C202" s="5">
         <v>902</v>
       </c>
       <c r="E202" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F202" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F202" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G202" s="5">
+      <c r="G202" s="7">
         <v>1</v>
       </c>
       <c r="H202" s="5">
@@ -18568,11 +18571,11 @@
       <c r="I202" s="5">
         <v>6</v>
       </c>
-      <c r="J202" s="5">
-        <v>4</v>
+      <c r="J202" s="7">
+        <v>3</v>
       </c>
       <c r="K202" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L202" s="5">
         <v>1</v>
@@ -18611,21 +18614,21 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C203" s="5">
         <v>903</v>
       </c>
       <c r="E203" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F203" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F203" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G203" s="5">
+      <c r="G203" s="7">
         <v>1</v>
       </c>
       <c r="H203" s="5">
@@ -18634,14 +18637,14 @@
       <c r="I203" s="5">
         <v>6</v>
       </c>
-      <c r="J203" s="5">
-        <v>4</v>
+      <c r="J203" s="7">
+        <v>3</v>
       </c>
       <c r="K203" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L203" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M203" s="5">
         <v>6</v>
@@ -18677,21 +18680,21 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C204" s="5">
         <v>904</v>
       </c>
       <c r="E204" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F204" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F204" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G204" s="5">
+      <c r="G204" s="7">
         <v>1</v>
       </c>
       <c r="H204" s="5">
@@ -18700,11 +18703,11 @@
       <c r="I204" s="5">
         <v>6</v>
       </c>
-      <c r="J204" s="5">
-        <v>4</v>
+      <c r="J204" s="7">
+        <v>3</v>
       </c>
       <c r="K204" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L204" s="5">
         <v>5</v>
@@ -18743,21 +18746,21 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C205" s="5">
         <v>905</v>
       </c>
       <c r="E205" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F205" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F205" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G205" s="5">
+      <c r="G205" s="7">
         <v>1</v>
       </c>
       <c r="H205" s="5">
@@ -18766,11 +18769,11 @@
       <c r="I205" s="5">
         <v>6</v>
       </c>
-      <c r="J205" s="5">
-        <v>4</v>
+      <c r="J205" s="7">
+        <v>3</v>
       </c>
       <c r="K205" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L205" s="5">
         <v>4</v>
@@ -18809,21 +18812,21 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C206" s="5">
         <v>906</v>
       </c>
       <c r="E206" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F206" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F206" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G206" s="5">
+      <c r="G206" s="7">
         <v>1</v>
       </c>
       <c r="H206" s="5">
@@ -18832,11 +18835,11 @@
       <c r="I206" s="5">
         <v>6</v>
       </c>
-      <c r="J206" s="5">
-        <v>4</v>
+      <c r="J206" s="7">
+        <v>3</v>
       </c>
       <c r="K206" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L206" s="5">
         <v>3</v>
@@ -18875,21 +18878,21 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C207" s="5">
         <v>907</v>
       </c>
       <c r="E207" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F207" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F207" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G207" s="5">
+      <c r="G207" s="7">
         <v>1</v>
       </c>
       <c r="H207" s="5">
@@ -18898,11 +18901,11 @@
       <c r="I207" s="5">
         <v>6</v>
       </c>
-      <c r="J207" s="5">
-        <v>4</v>
+      <c r="J207" s="7">
+        <v>3</v>
       </c>
       <c r="K207" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L207" s="5">
         <v>2</v>
@@ -18941,21 +18944,21 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A208" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C208" s="5">
         <v>908</v>
       </c>
       <c r="E208" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F208" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F208" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G208" s="5">
+      <c r="G208" s="7">
         <v>1</v>
       </c>
       <c r="H208" s="5">
@@ -18964,11 +18967,11 @@
       <c r="I208" s="5">
         <v>6</v>
       </c>
-      <c r="J208" s="5">
-        <v>4</v>
+      <c r="J208" s="7">
+        <v>3</v>
       </c>
       <c r="K208" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L208" s="5">
         <v>1</v>
@@ -19007,21 +19010,21 @@
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A209" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C209" s="5">
         <v>909</v>
       </c>
       <c r="E209" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F209" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F209" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G209" s="5">
+      <c r="G209" s="7">
         <v>1</v>
       </c>
       <c r="H209" s="5">
@@ -19030,14 +19033,14 @@
       <c r="I209" s="5">
         <v>6</v>
       </c>
-      <c r="J209" s="5">
-        <v>4</v>
+      <c r="J209" s="7">
+        <v>3</v>
       </c>
       <c r="K209" s="7">
         <v>0</v>
       </c>
       <c r="L209" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M209" s="5">
         <v>6</v>
@@ -19073,21 +19076,21 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A210" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C210" s="5">
         <v>910</v>
       </c>
       <c r="E210" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F210" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F210" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G210" s="5">
+      <c r="G210" s="7">
         <v>1</v>
       </c>
       <c r="H210" s="5">
@@ -19096,8 +19099,8 @@
       <c r="I210" s="5">
         <v>6</v>
       </c>
-      <c r="J210" s="5">
-        <v>4</v>
+      <c r="J210" s="7">
+        <v>3</v>
       </c>
       <c r="K210" s="7">
         <v>0</v>
@@ -19139,21 +19142,21 @@
     </row>
     <row r="211" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A211" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C211" s="9">
         <v>911</v>
       </c>
       <c r="E211" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F211" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="F211" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="G211" s="9">
+      <c r="G211" s="7">
         <v>1</v>
       </c>
       <c r="H211" s="9">
@@ -19162,11 +19165,11 @@
       <c r="I211" s="9">
         <v>8</v>
       </c>
-      <c r="J211" s="5">
-        <v>4</v>
+      <c r="J211" s="7">
+        <v>3</v>
       </c>
       <c r="K211" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L211" s="5">
         <v>4</v>
@@ -19204,7 +19207,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V282" xr:uid="{61EE4076-9641-4F55-81EA-A905E1A76C10}"/>
+  <autoFilter ref="A1:V255" xr:uid="{61EE4076-9641-4F55-81EA-A905E1A76C10}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19214,10 +19217,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E7402-A123-4B95-8929-DBE4D5D883DC}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -19227,7 +19231,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -19242,7 +19246,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
@@ -19262,7 +19266,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
@@ -19277,7 +19281,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BDE5D1-837F-4DB9-ABAA-A29E1356F2CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8BA2C3-2DCB-4D47-8049-7A43B4E00BB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="0" yWindow="630" windowWidth="19200" windowHeight="10170" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="help" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$254</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3159,8 +3159,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H2" s="10">
         <v>1</v>
@@ -3248,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H3" s="10">
         <v>1</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H4" s="10">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10">
         <v>1</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H6" s="10">
         <v>1</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10">
         <v>1</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H8" s="10">
         <v>1</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H9" s="10">
         <v>1</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H10" s="10">
         <v>1</v>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11" s="10">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H12" s="10">
         <v>1</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H13" s="10">
         <v>1</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H14" s="10">
         <v>1</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H15" s="10">
         <v>1</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H16" s="10">
         <v>1</v>
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H17" s="10">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H18" s="10">
         <v>1</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H19" s="10">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H20" s="10">
         <v>1</v>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H21" s="10">
         <v>1</v>
@@ -3735,11 +3735,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B200" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B204" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H209" sqref="H209"/>
+      <selection pane="bottomRight" activeCell="A212" sqref="A212:XFD212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -19207,7 +19207,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V255" xr:uid="{61EE4076-9641-4F55-81EA-A905E1A76C10}"/>
+  <autoFilter ref="A1:V254" xr:uid="{61EE4076-9641-4F55-81EA-A905E1A76C10}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0725D7F-F885-4F45-87CA-E23304CFEC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFAC9D4-AB14-4930-BAFE-316604B79D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
   </bookViews>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1358,34 +1358,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>센서1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>센서2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수도량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1394,18 +1370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.0.18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이산화탄소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1414,38 +1378,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>local</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.20.10.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>room1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>room2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>room6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1585,63 +1521,6 @@
   <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서11</t>
-  </si>
-  <si>
-    <t>센서12</t>
-  </si>
-  <si>
-    <t>센서13</t>
-  </si>
-  <si>
-    <t>센서14</t>
-  </si>
-  <si>
-    <t>센서15</t>
-  </si>
-  <si>
-    <t>센서16</t>
-  </si>
-  <si>
-    <t>센서17</t>
-  </si>
-  <si>
-    <t>센서5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>센서6</t>
-  </si>
-  <si>
-    <t>센서7</t>
-  </si>
-  <si>
-    <t>센서8</t>
-  </si>
-  <si>
-    <t>센서9</t>
-  </si>
-  <si>
-    <t>센서10</t>
-  </si>
-  <si>
-    <t>센서18</t>
-  </si>
-  <si>
-    <t>센서19</t>
-  </si>
-  <si>
-    <t>센서20</t>
   </si>
   <si>
     <t>192.168.0.41</t>
@@ -2189,10 +2068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2208,28 +2087,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2237,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -2252,218 +2131,10 @@
         <v>200</v>
       </c>
       <c r="G2" s="1">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>502</v>
-      </c>
-      <c r="F3" s="1">
-        <v>200</v>
-      </c>
-      <c r="G3" s="1">
-        <v>200</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>502</v>
-      </c>
-      <c r="F4" s="1">
-        <v>200</v>
-      </c>
-      <c r="G4" s="1">
-        <v>200</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>502</v>
-      </c>
-      <c r="F5" s="1">
-        <v>200</v>
-      </c>
-      <c r="G5" s="1">
-        <v>200</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>502</v>
-      </c>
-      <c r="F6" s="1">
-        <v>200</v>
-      </c>
-      <c r="G6" s="1">
-        <v>200</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>502</v>
-      </c>
-      <c r="F7" s="1">
-        <v>200</v>
-      </c>
-      <c r="G7" s="1">
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>502</v>
-      </c>
-      <c r="F8" s="1">
-        <v>200</v>
-      </c>
-      <c r="G8" s="1">
-        <v>200</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1">
-        <v>502</v>
-      </c>
-      <c r="F9" s="1">
-        <v>200</v>
-      </c>
-      <c r="G9" s="1">
-        <v>200</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1">
-        <v>502</v>
-      </c>
-      <c r="F10" s="1">
-        <v>200</v>
-      </c>
-      <c r="G10" s="1">
-        <v>200</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2477,10 +2148,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2498,28 +2169,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2527,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -2542,504 +2213,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="8">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>20</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>20</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>20</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>20</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>20</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>20</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>20</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="1">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>20</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>20</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>20</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>20</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="1">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>20</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>20</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>20</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>20</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>20</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +2233,7 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
@@ -4540,84 +3717,84 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="R1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="V1" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -4677,16 +3854,16 @@
     </row>
     <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -4746,16 +3923,16 @@
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E4" s="7">
         <v>0</v>
@@ -4815,16 +3992,16 @@
     </row>
     <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -4884,16 +4061,16 @@
     </row>
     <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
@@ -4953,16 +4130,16 @@
     </row>
     <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7">
         <v>6</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -5022,16 +4199,16 @@
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>7</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -5091,16 +4268,16 @@
     </row>
     <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C9" s="7">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -5160,16 +4337,16 @@
     </row>
     <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -5229,16 +4406,16 @@
     </row>
     <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C11" s="7">
         <v>10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -5298,16 +4475,16 @@
     </row>
     <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7">
         <v>11</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -5367,16 +4544,16 @@
     </row>
     <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -5436,16 +4613,16 @@
     </row>
     <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>13</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -5528,7 +4705,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.45">
@@ -5543,7 +4720,7 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.45">
@@ -5563,7 +4740,7 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.45">
@@ -5578,7 +4755,7 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\share_bems\modbus_poll_pull\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFAC9D4-AB14-4930-BAFE-316604B79D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA500B0-BC40-4530-BB2F-C8CDC77F4C96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{CF5F4E8D-F6B5-427E-8897-7C6C860E78C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="help" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$14</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
     <author>김재환</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C2E4528D-6BBE-46A2-AD23-2BE93BE6795B}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3E45FD19-3196-49E8-A8B4-C5E817865F6C}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
     <author>김재환</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9B8D0DB4-C7A9-4B82-A23F-85A28387C4F6}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
     <author>OWNER</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0F3DCF3E-305A-404F-80F5-854C6CE2C7F7}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{BFCC4EA0-F13F-4212-A104-DA276C7FDA0D}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{7A395FA3-4AD2-497E-8AEB-54F97D1350AA}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{57E32F47-6822-4A1C-A048-5E1EFB2D904D}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{67E1E3DA-35EF-4426-9228-69C8A9FFAB56}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{72127B38-E7BB-4272-9F95-C62C8BBBF515}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{293D0A59-75C5-4D3A-B574-295A36771CCB}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -488,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0B74D497-059A-4A3B-A173-99EBB6831FA1}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -590,7 +590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{56B595C0-7BE4-4051-AFF0-5A52A1C80ED6}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -939,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0137A3DD-E8E0-4024-922A-A2C8675A08D4}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -979,7 +979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{3EC4CA4A-0797-4C4D-86F0-9EEDD4691786}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AE06FA10-D4DA-43E4-83A3-C3057C49D49E}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1031,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{BFF80D0D-67AB-4B1E-A712-6E865AB9A3E6}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{98BCB32D-5F5E-4124-9D0C-2EB826C7FEF3}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1159,7 +1159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{65E31004-AD07-4F17-B1CA-95D016909466}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1180,13 +1180,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (AO)
-06 : Write Single Register(BO)
+          <t xml:space="preserve"> (BO)
+06 : Write Single Register(AO)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{0C654B19-B074-4C3D-A597-3AA84AD905C1}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{F35D49CA-7784-47D2-926B-6EDA5A61B3A3}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{D5FDBDB3-94AB-47CB-8811-56FCF2A14735}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1299,7 +1299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{47CA0D79-6D05-422B-8569-6E02D727223B}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1507,10 +1507,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>AI</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>Bar</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1523,11 +1519,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.0.41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">4MSYS 전력 </t>
+    <t>4MSYS 가스</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 화재</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 습도</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS pm10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS co2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS o2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 동작감지</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 온도</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS pm2.5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4MSYS 전력</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1535,10 +1563,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4MSYS 가스</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>4MSYS 난방</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1547,35 +1571,53 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4MSYS 화재</t>
+    <t>PLC-00 BO-040</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4MSYS 온도</t>
+    <t>PLC-00 BO-041</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4MSYS 습도</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MSYS pm10</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MSYS pm2.5</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MSYS co2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MSYS o2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4MSYS 동작감지</t>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1111 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111 1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.0.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>센서2</t>
+  </si>
+  <si>
+    <t>센서3</t>
+  </si>
+  <si>
+    <t>AO</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1675,12 +1717,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1688,6 +1724,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,22 +1782,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{7DF74247-2127-4D82-BDE5-E5E7629F5AA3}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2066,23 +2108,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816CEA8E-1FF0-440B-8F49-676B2BB90DA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="10" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2122,7 +2164,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -2146,25 +2188,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2343FFE5-7D20-42AF-B252-5A05146CBD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.9140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.58203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
@@ -2189,7 +2231,7 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2213,9 +2255,61 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>18</v>
-      </c>
-      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2228,15 +2322,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EDE361-6BEC-4C83-93F2-81DF545FC5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2256,13 +2350,13 @@
     <col min="13" max="13" width="14.08203125" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.58203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.58203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15.58203125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.83203125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.58203125" style="5" customWidth="1"/>
     <col min="23" max="256" width="9" style="5"/>
     <col min="257" max="257" width="37.83203125" style="5" customWidth="1"/>
     <col min="258" max="258" width="6.58203125" style="5" customWidth="1"/>
@@ -3717,10 +3811,10 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>24</v>
@@ -3761,927 +3855,1114 @@
       <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0</v>
+      </c>
+      <c r="R2" s="5">
+        <v>5</v>
+      </c>
+      <c r="S2" s="5">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" ref="U2:U7" si="0">1/N2</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0</v>
+      </c>
+      <c r="R3" s="5">
+        <v>5</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
         <v>999999999</v>
       </c>
-      <c r="G2" s="7">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7">
-        <v>1</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <v>3</v>
       </c>
-      <c r="K2" s="7">
-        <v>1</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
+      <c r="K4" s="5">
+        <v>2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>5</v>
+      </c>
+      <c r="S4" s="5">
+        <v>2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <f t="shared" ref="U2:U7" si="0">1/N2</f>
-        <v>1</v>
-      </c>
-      <c r="V2" s="7">
+      <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <v>5</v>
+      </c>
+      <c r="S5" s="5">
+        <v>3</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="7">
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>3</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>5</v>
+      </c>
+      <c r="S6" s="5">
+        <v>4</v>
+      </c>
+      <c r="T6" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="U6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>999999999</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <v>5</v>
+      </c>
+      <c r="S7" s="5">
+        <v>5</v>
+      </c>
+      <c r="T7" s="5">
         <v>2</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="U7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>5</v>
+      </c>
+      <c r="S8" s="5">
+        <v>6</v>
+      </c>
+      <c r="T8" s="5">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5">
+        <f>1/N8</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>3</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>5</v>
+      </c>
+      <c r="S9" s="5">
+        <v>7</v>
+      </c>
+      <c r="T9" s="5">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" ref="U9:U14" si="1">1/N9</f>
+        <v>1</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="5">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>6</v>
+      </c>
+      <c r="S10" s="5">
+        <v>8</v>
+      </c>
+      <c r="T10" s="5">
         <v>4</v>
       </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V3" s="7">
+      <c r="U10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7">
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="K11" s="5">
+        <v>9</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>6</v>
+      </c>
+      <c r="S11" s="5">
+        <v>9</v>
+      </c>
+      <c r="T11" s="5">
+        <v>4</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>999999999</v>
       </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="J12" s="5">
         <v>3</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="K12" s="5">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="5">
+        <v>6</v>
+      </c>
+      <c r="S12" s="5">
+        <v>10</v>
+      </c>
+      <c r="T12" s="5">
+        <v>10</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>12</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>6</v>
+      </c>
+      <c r="S13" s="5">
+        <v>11</v>
+      </c>
+      <c r="T13" s="5">
+        <v>5</v>
+      </c>
+      <c r="U13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="5">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>6</v>
+      </c>
+      <c r="S14" s="5">
+        <v>12</v>
+      </c>
+      <c r="T14" s="5">
+        <v>6</v>
+      </c>
+      <c r="U14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="5">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>13</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>6</v>
+      </c>
+      <c r="S15" s="5">
+        <v>13</v>
+      </c>
+      <c r="T15" s="5">
+        <v>6</v>
+      </c>
+      <c r="U15" s="5">
+        <f>1/N15</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="5">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>14</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>6</v>
+      </c>
+      <c r="S16" s="5">
+        <v>14</v>
+      </c>
+      <c r="T16" s="5">
+        <v>8</v>
+      </c>
+      <c r="U16" s="5">
+        <f>1/N16</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C24" s="5">
         <v>4</v>
       </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>3</v>
-      </c>
-      <c r="K5" s="7">
-        <v>4</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="7">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>3</v>
-      </c>
-      <c r="K6" s="7">
-        <v>5</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3</v>
-      </c>
-      <c r="K7" s="7">
-        <v>6</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3</v>
-      </c>
-      <c r="K8" s="7">
-        <v>7</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <f t="shared" ref="U8" si="1">1/N8</f>
-        <v>1</v>
-      </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>3</v>
-      </c>
-      <c r="K9" s="7">
-        <v>8</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7">
-        <v>0</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <f t="shared" ref="U9:U14" si="2">1/N9</f>
-        <v>1</v>
-      </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3</v>
-      </c>
-      <c r="K10" s="7">
-        <v>9</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>3</v>
-      </c>
-      <c r="K11" s="7">
-        <v>10</v>
-      </c>
-      <c r="L11" s="7">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>3</v>
-      </c>
-      <c r="K12" s="7">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>3</v>
-      </c>
-      <c r="K13" s="7">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7">
-        <v>0</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="7">
-        <v>13</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7">
-        <v>13</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0</v>
-      </c>
-      <c r="S14" s="7">
-        <v>0</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="7">
-        <v>0</v>
+      <c r="E24" s="5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V57" xr:uid="{61EE4076-9641-4F55-81EA-A905E1A76C10}"/>
+  <autoFilter ref="A1:V14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4690,7 +4971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E7402-A123-4B95-8929-DBE4D5D883DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B12"/>
   <sheetViews>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\shared_bems\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445D43D2-4D0C-4EFF-AFBE-73CE610DAC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA83A3-ED88-4175-B83C-442302010118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1190" yWindow="3350" windowWidth="19200" windowHeight="11260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>김재환</author>
+    <author>sungyeon</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -69,6 +70,20 @@
             <family val="2"/>
           </rPr>
           <t>unique</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{591932B4-39EA-4D38-8C2E-7D46918A9D50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ip_address / com number</t>
         </r>
       </text>
     </comment>
@@ -2112,8 +2127,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2193,7 +2208,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2326,7 +2341,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\BEMS\shared_bems\Bems_modbus_poll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BA83A3-ED88-4175-B83C-442302010118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA71E3-73E7-4BE9-98B3-44826C73056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="920" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9EF22E4E-B179-4EC9-B3EB-27DFC7B6D9DC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>com_type
+1) tcp/ip
+2) rtu</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="1" shapeId="0" xr:uid="{591932B4-39EA-4D38-8C2E-7D46918A9D50}">
       <text>
         <r>
@@ -83,7 +99,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ip_address / com number</t>
+          <t>ip_address / com number
+1) 192.168.0.1
+2) COM4</t>
         </r>
       </text>
     </comment>
@@ -1345,7 +1363,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1421,10 +1439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ip_address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1633,6 +1647,10 @@
   </si>
   <si>
     <t>192.168.0.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2127,8 +2145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2144,25 +2162,25 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>18</v>
@@ -2179,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1">
         <v>502</v>
@@ -2205,10 +2223,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2226,13 +2244,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>15</v>
@@ -2261,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -2281,13 +2299,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -2307,13 +2325,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -2325,6 +2343,62 @@
         <v>5</v>
       </c>
       <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3826,84 +3900,84 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -3963,16 +4037,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -4032,16 +4106,16 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -4101,16 +4175,16 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -4170,16 +4244,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -4239,16 +4313,16 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -4308,16 +4382,16 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -4377,16 +4451,16 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -4446,16 +4520,16 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -4515,16 +4589,16 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -4584,16 +4658,16 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -4653,16 +4727,16 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="5">
         <v>12</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -4722,16 +4796,16 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5">
         <v>13</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -4791,16 +4865,16 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="5">
         <v>14</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -4860,16 +4934,16 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="5">
         <v>15</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -4929,7 +5003,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
@@ -4940,10 +5014,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
@@ -4954,10 +5028,10 @@
         <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">

--- a/latestExcel.xlsx
+++ b/latestExcel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghks2\Bems\Bems_modbus_poll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\modbus_poll\Bems_modbus_poll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA71E3-73E7-4BE9-98B3-44826C73056E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="920" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4065" yWindow="915" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="IP" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATA!$A$1:$V$14</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,13 +38,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>김재환</author>
     <author>sungyeon</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9EF22E4E-B179-4EC9-B3EB-27DFC7B6D9DC}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="1" shapeId="0" xr:uid="{591932B4-39EA-4D38-8C2E-7D46918A9D50}">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,12 +109,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>김재환</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,12 +187,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>OWNER</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -623,7 +622,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -972,7 +971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1012,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1038,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1064,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1192,7 +1191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1219,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1266,7 +1265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1332,7 +1331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>온도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1651,13 +1650,33 @@
   </si>
   <si>
     <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1830,7 +1849,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2141,26 +2160,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="12.75" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="1"/>
+    <col min="10" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2186,7 +2205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2209,6 +2228,29 @@
         <v>2000</v>
       </c>
       <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1">
+        <v>200</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2221,28 +2263,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="1"/>
+    <col min="8" max="8" width="6.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2268,7 +2310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2291,10 +2333,10 @@
         <v>20</v>
       </c>
       <c r="H2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2320,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2346,60 +2388,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>65</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V24"/>
   <sheetViews>
@@ -2422,1483 +2460,1483 @@
       <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="37.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="5" customWidth="1"/>
     <col min="3" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="5" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.08203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="5" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="5" customWidth="1"/>
-    <col min="22" max="22" width="15.58203125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="5" customWidth="1"/>
+    <col min="22" max="22" width="15.625" style="5" customWidth="1"/>
     <col min="23" max="256" width="9" style="5"/>
-    <col min="257" max="257" width="37.83203125" style="5" customWidth="1"/>
-    <col min="258" max="258" width="6.58203125" style="5" customWidth="1"/>
+    <col min="257" max="257" width="37.875" style="5" customWidth="1"/>
+    <col min="258" max="258" width="6.625" style="5" customWidth="1"/>
     <col min="259" max="259" width="9" style="5"/>
-    <col min="260" max="260" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="263" max="263" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="266" max="266" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="267" max="267" width="12.75" style="5" customWidth="1"/>
     <col min="268" max="268" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="269" max="269" width="14.08203125" style="5" customWidth="1"/>
-    <col min="270" max="270" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="269" max="269" width="14.125" style="5" customWidth="1"/>
+    <col min="270" max="270" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="271" max="271" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="272" max="272" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="273" max="273" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="274" max="274" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="275" max="275" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="276" max="276" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="277" max="277" width="12.83203125" style="5" customWidth="1"/>
-    <col min="278" max="278" width="15.58203125" style="5" customWidth="1"/>
+    <col min="273" max="273" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="274" max="274" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="275" max="275" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="276" max="276" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="277" max="277" width="12.875" style="5" customWidth="1"/>
+    <col min="278" max="278" width="15.625" style="5" customWidth="1"/>
     <col min="279" max="512" width="9" style="5"/>
-    <col min="513" max="513" width="37.83203125" style="5" customWidth="1"/>
-    <col min="514" max="514" width="6.58203125" style="5" customWidth="1"/>
+    <col min="513" max="513" width="37.875" style="5" customWidth="1"/>
+    <col min="514" max="514" width="6.625" style="5" customWidth="1"/>
     <col min="515" max="515" width="9" style="5"/>
-    <col min="516" max="516" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="519" max="519" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="522" max="522" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="523" max="523" width="12.75" style="5" customWidth="1"/>
     <col min="524" max="524" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="525" max="525" width="14.08203125" style="5" customWidth="1"/>
-    <col min="526" max="526" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="525" max="525" width="14.125" style="5" customWidth="1"/>
+    <col min="526" max="526" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="527" max="527" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="528" max="528" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="529" max="529" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="530" max="530" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="531" max="531" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="532" max="532" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="533" max="533" width="12.83203125" style="5" customWidth="1"/>
-    <col min="534" max="534" width="15.58203125" style="5" customWidth="1"/>
+    <col min="529" max="529" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="530" max="530" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="531" max="531" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="532" max="532" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="533" max="533" width="12.875" style="5" customWidth="1"/>
+    <col min="534" max="534" width="15.625" style="5" customWidth="1"/>
     <col min="535" max="768" width="9" style="5"/>
-    <col min="769" max="769" width="37.83203125" style="5" customWidth="1"/>
-    <col min="770" max="770" width="6.58203125" style="5" customWidth="1"/>
+    <col min="769" max="769" width="37.875" style="5" customWidth="1"/>
+    <col min="770" max="770" width="6.625" style="5" customWidth="1"/>
     <col min="771" max="771" width="9" style="5"/>
-    <col min="772" max="772" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="775" max="775" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="778" max="778" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="779" max="779" width="12.75" style="5" customWidth="1"/>
     <col min="780" max="780" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="14.08203125" style="5" customWidth="1"/>
-    <col min="782" max="782" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="14.125" style="5" customWidth="1"/>
+    <col min="782" max="782" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="783" max="783" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="784" max="784" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="785" max="785" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="786" max="786" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="787" max="787" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="12.83203125" style="5" customWidth="1"/>
-    <col min="790" max="790" width="15.58203125" style="5" customWidth="1"/>
+    <col min="785" max="785" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="786" max="786" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="787" max="787" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="788" max="788" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="789" max="789" width="12.875" style="5" customWidth="1"/>
+    <col min="790" max="790" width="15.625" style="5" customWidth="1"/>
     <col min="791" max="1024" width="9" style="5"/>
-    <col min="1025" max="1025" width="37.83203125" style="5" customWidth="1"/>
-    <col min="1026" max="1026" width="6.58203125" style="5" customWidth="1"/>
+    <col min="1025" max="1025" width="37.875" style="5" customWidth="1"/>
+    <col min="1026" max="1026" width="6.625" style="5" customWidth="1"/>
     <col min="1027" max="1027" width="9" style="5"/>
-    <col min="1028" max="1028" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1031" max="1031" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="1034" max="1034" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="1035" max="1035" width="12.75" style="5" customWidth="1"/>
     <col min="1036" max="1036" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1037" width="14.08203125" style="5" customWidth="1"/>
-    <col min="1038" max="1038" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1037" width="14.125" style="5" customWidth="1"/>
+    <col min="1038" max="1038" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1039" max="1039" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="1040" max="1040" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1041" max="1041" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1042" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1043" max="1043" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1044" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1045" max="1045" width="12.83203125" style="5" customWidth="1"/>
-    <col min="1046" max="1046" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1041" max="1041" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1042" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1043" max="1043" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1044" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1045" max="1045" width="12.875" style="5" customWidth="1"/>
+    <col min="1046" max="1046" width="15.625" style="5" customWidth="1"/>
     <col min="1047" max="1280" width="9" style="5"/>
-    <col min="1281" max="1281" width="37.83203125" style="5" customWidth="1"/>
-    <col min="1282" max="1282" width="6.58203125" style="5" customWidth="1"/>
+    <col min="1281" max="1281" width="37.875" style="5" customWidth="1"/>
+    <col min="1282" max="1282" width="6.625" style="5" customWidth="1"/>
     <col min="1283" max="1283" width="9" style="5"/>
-    <col min="1284" max="1284" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1287" max="1287" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="1290" max="1290" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="1291" max="1291" width="12.75" style="5" customWidth="1"/>
     <col min="1292" max="1292" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1293" width="14.08203125" style="5" customWidth="1"/>
-    <col min="1294" max="1294" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1293" width="14.125" style="5" customWidth="1"/>
+    <col min="1294" max="1294" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1295" max="1295" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="1296" max="1296" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1297" max="1297" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1298" max="1298" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1299" max="1299" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1300" max="1300" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1301" max="1301" width="12.83203125" style="5" customWidth="1"/>
-    <col min="1302" max="1302" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1297" max="1297" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1298" max="1298" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1299" max="1299" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1300" max="1300" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1301" max="1301" width="12.875" style="5" customWidth="1"/>
+    <col min="1302" max="1302" width="15.625" style="5" customWidth="1"/>
     <col min="1303" max="1536" width="9" style="5"/>
-    <col min="1537" max="1537" width="37.83203125" style="5" customWidth="1"/>
-    <col min="1538" max="1538" width="6.58203125" style="5" customWidth="1"/>
+    <col min="1537" max="1537" width="37.875" style="5" customWidth="1"/>
+    <col min="1538" max="1538" width="6.625" style="5" customWidth="1"/>
     <col min="1539" max="1539" width="9" style="5"/>
-    <col min="1540" max="1540" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1543" max="1543" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="1546" max="1546" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="1547" max="1547" width="12.75" style="5" customWidth="1"/>
     <col min="1548" max="1548" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1549" width="14.08203125" style="5" customWidth="1"/>
-    <col min="1550" max="1550" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1549" width="14.125" style="5" customWidth="1"/>
+    <col min="1550" max="1550" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1551" max="1551" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="1552" max="1552" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1553" max="1553" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1554" max="1554" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1555" max="1555" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1556" max="1556" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1557" max="1557" width="12.83203125" style="5" customWidth="1"/>
-    <col min="1558" max="1558" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1553" max="1553" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1554" max="1554" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1555" max="1555" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1556" max="1556" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1557" max="1557" width="12.875" style="5" customWidth="1"/>
+    <col min="1558" max="1558" width="15.625" style="5" customWidth="1"/>
     <col min="1559" max="1792" width="9" style="5"/>
-    <col min="1793" max="1793" width="37.83203125" style="5" customWidth="1"/>
-    <col min="1794" max="1794" width="6.58203125" style="5" customWidth="1"/>
+    <col min="1793" max="1793" width="37.875" style="5" customWidth="1"/>
+    <col min="1794" max="1794" width="6.625" style="5" customWidth="1"/>
     <col min="1795" max="1795" width="9" style="5"/>
-    <col min="1796" max="1796" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1799" max="1799" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="1802" max="1802" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="1803" max="1803" width="12.75" style="5" customWidth="1"/>
     <col min="1804" max="1804" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="1805" max="1805" width="14.08203125" style="5" customWidth="1"/>
-    <col min="1806" max="1806" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1805" max="1805" width="14.125" style="5" customWidth="1"/>
+    <col min="1806" max="1806" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="1807" max="1807" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="1808" max="1808" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="1809" max="1809" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1810" max="1810" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1811" max="1811" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1812" max="1812" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="1813" max="1813" width="12.83203125" style="5" customWidth="1"/>
-    <col min="1814" max="1814" width="15.58203125" style="5" customWidth="1"/>
+    <col min="1809" max="1809" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1810" max="1810" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1811" max="1811" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1812" max="1812" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1813" max="1813" width="12.875" style="5" customWidth="1"/>
+    <col min="1814" max="1814" width="15.625" style="5" customWidth="1"/>
     <col min="1815" max="2048" width="9" style="5"/>
-    <col min="2049" max="2049" width="37.83203125" style="5" customWidth="1"/>
-    <col min="2050" max="2050" width="6.58203125" style="5" customWidth="1"/>
+    <col min="2049" max="2049" width="37.875" style="5" customWidth="1"/>
+    <col min="2050" max="2050" width="6.625" style="5" customWidth="1"/>
     <col min="2051" max="2051" width="9" style="5"/>
-    <col min="2052" max="2052" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2055" max="2055" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2058" max="2058" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="2059" max="2059" width="12.75" style="5" customWidth="1"/>
     <col min="2060" max="2060" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2061" width="14.08203125" style="5" customWidth="1"/>
-    <col min="2062" max="2062" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2061" width="14.125" style="5" customWidth="1"/>
+    <col min="2062" max="2062" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2063" max="2063" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2064" max="2064" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2065" max="2065" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2066" max="2066" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2067" max="2067" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2068" max="2068" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2069" max="2069" width="12.83203125" style="5" customWidth="1"/>
-    <col min="2070" max="2070" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2065" max="2065" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2066" max="2066" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2067" max="2067" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2068" max="2068" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2069" max="2069" width="12.875" style="5" customWidth="1"/>
+    <col min="2070" max="2070" width="15.625" style="5" customWidth="1"/>
     <col min="2071" max="2304" width="9" style="5"/>
-    <col min="2305" max="2305" width="37.83203125" style="5" customWidth="1"/>
-    <col min="2306" max="2306" width="6.58203125" style="5" customWidth="1"/>
+    <col min="2305" max="2305" width="37.875" style="5" customWidth="1"/>
+    <col min="2306" max="2306" width="6.625" style="5" customWidth="1"/>
     <col min="2307" max="2307" width="9" style="5"/>
-    <col min="2308" max="2308" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2311" max="2311" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2314" max="2314" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="2315" max="2315" width="12.75" style="5" customWidth="1"/>
     <col min="2316" max="2316" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2317" width="14.08203125" style="5" customWidth="1"/>
-    <col min="2318" max="2318" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2317" width="14.125" style="5" customWidth="1"/>
+    <col min="2318" max="2318" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2319" max="2319" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2320" max="2320" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2321" max="2321" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2322" max="2322" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2323" max="2323" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2324" max="2324" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2325" max="2325" width="12.83203125" style="5" customWidth="1"/>
-    <col min="2326" max="2326" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2321" max="2321" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2322" max="2322" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2323" max="2323" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2324" max="2324" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2325" max="2325" width="12.875" style="5" customWidth="1"/>
+    <col min="2326" max="2326" width="15.625" style="5" customWidth="1"/>
     <col min="2327" max="2560" width="9" style="5"/>
-    <col min="2561" max="2561" width="37.83203125" style="5" customWidth="1"/>
-    <col min="2562" max="2562" width="6.58203125" style="5" customWidth="1"/>
+    <col min="2561" max="2561" width="37.875" style="5" customWidth="1"/>
+    <col min="2562" max="2562" width="6.625" style="5" customWidth="1"/>
     <col min="2563" max="2563" width="9" style="5"/>
-    <col min="2564" max="2564" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2567" max="2567" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2570" max="2570" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="2571" max="2571" width="12.75" style="5" customWidth="1"/>
     <col min="2572" max="2572" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2573" width="14.08203125" style="5" customWidth="1"/>
-    <col min="2574" max="2574" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2573" width="14.125" style="5" customWidth="1"/>
+    <col min="2574" max="2574" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2575" max="2575" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2576" max="2576" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2577" max="2577" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2578" max="2578" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2579" max="2579" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2580" max="2580" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2581" max="2581" width="12.83203125" style="5" customWidth="1"/>
-    <col min="2582" max="2582" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2577" max="2577" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2578" max="2578" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2579" max="2579" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2580" max="2580" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2581" max="2581" width="12.875" style="5" customWidth="1"/>
+    <col min="2582" max="2582" width="15.625" style="5" customWidth="1"/>
     <col min="2583" max="2816" width="9" style="5"/>
-    <col min="2817" max="2817" width="37.83203125" style="5" customWidth="1"/>
-    <col min="2818" max="2818" width="6.58203125" style="5" customWidth="1"/>
+    <col min="2817" max="2817" width="37.875" style="5" customWidth="1"/>
+    <col min="2818" max="2818" width="6.625" style="5" customWidth="1"/>
     <col min="2819" max="2819" width="9" style="5"/>
-    <col min="2820" max="2820" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2823" max="2823" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2826" max="2826" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="2827" max="2827" width="12.75" style="5" customWidth="1"/>
     <col min="2828" max="2828" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2829" max="2829" width="14.08203125" style="5" customWidth="1"/>
-    <col min="2830" max="2830" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2829" max="2829" width="14.125" style="5" customWidth="1"/>
+    <col min="2830" max="2830" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="2831" max="2831" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2832" max="2832" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="2833" max="2833" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2834" max="2834" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2835" max="2835" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2836" max="2836" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2837" max="2837" width="12.83203125" style="5" customWidth="1"/>
-    <col min="2838" max="2838" width="15.58203125" style="5" customWidth="1"/>
+    <col min="2833" max="2833" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2834" max="2834" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2835" max="2835" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2836" max="2836" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2837" max="2837" width="12.875" style="5" customWidth="1"/>
+    <col min="2838" max="2838" width="15.625" style="5" customWidth="1"/>
     <col min="2839" max="3072" width="9" style="5"/>
-    <col min="3073" max="3073" width="37.83203125" style="5" customWidth="1"/>
-    <col min="3074" max="3074" width="6.58203125" style="5" customWidth="1"/>
+    <col min="3073" max="3073" width="37.875" style="5" customWidth="1"/>
+    <col min="3074" max="3074" width="6.625" style="5" customWidth="1"/>
     <col min="3075" max="3075" width="9" style="5"/>
-    <col min="3076" max="3076" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3079" max="3079" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3082" max="3082" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3083" max="3083" width="12.75" style="5" customWidth="1"/>
     <col min="3084" max="3084" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3085" width="14.08203125" style="5" customWidth="1"/>
-    <col min="3086" max="3086" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3085" width="14.125" style="5" customWidth="1"/>
+    <col min="3086" max="3086" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3087" max="3087" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3088" max="3088" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3089" max="3089" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3090" max="3090" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3091" max="3091" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3092" max="3092" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3093" max="3093" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3094" max="3094" width="15.58203125" style="5" customWidth="1"/>
+    <col min="3089" max="3089" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3090" max="3090" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3091" max="3091" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3092" max="3092" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3093" max="3093" width="12.875" style="5" customWidth="1"/>
+    <col min="3094" max="3094" width="15.625" style="5" customWidth="1"/>
     <col min="3095" max="3328" width="9" style="5"/>
-    <col min="3329" max="3329" width="37.83203125" style="5" customWidth="1"/>
-    <col min="3330" max="3330" width="6.58203125" style="5" customWidth="1"/>
+    <col min="3329" max="3329" width="37.875" style="5" customWidth="1"/>
+    <col min="3330" max="3330" width="6.625" style="5" customWidth="1"/>
     <col min="3331" max="3331" width="9" style="5"/>
-    <col min="3332" max="3332" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3335" max="3335" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3338" max="3338" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3339" max="3339" width="12.75" style="5" customWidth="1"/>
     <col min="3340" max="3340" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3341" width="14.08203125" style="5" customWidth="1"/>
-    <col min="3342" max="3342" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3341" width="14.125" style="5" customWidth="1"/>
+    <col min="3342" max="3342" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3343" max="3343" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3344" max="3344" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3345" max="3345" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3346" max="3346" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3347" max="3347" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3348" max="3348" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3349" max="3349" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3350" max="3350" width="15.58203125" style="5" customWidth="1"/>
+    <col min="3345" max="3345" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3346" max="3346" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3347" max="3347" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3348" max="3348" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3349" max="3349" width="12.875" style="5" customWidth="1"/>
+    <col min="3350" max="3350" width="15.625" style="5" customWidth="1"/>
     <col min="3351" max="3584" width="9" style="5"/>
-    <col min="3585" max="3585" width="37.83203125" style="5" customWidth="1"/>
-    <col min="3586" max="3586" width="6.58203125" style="5" customWidth="1"/>
+    <col min="3585" max="3585" width="37.875" style="5" customWidth="1"/>
+    <col min="3586" max="3586" width="6.625" style="5" customWidth="1"/>
     <col min="3587" max="3587" width="9" style="5"/>
-    <col min="3588" max="3588" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3591" max="3591" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3594" max="3594" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3595" max="3595" width="12.75" style="5" customWidth="1"/>
     <col min="3596" max="3596" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3597" width="14.08203125" style="5" customWidth="1"/>
-    <col min="3598" max="3598" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3597" width="14.125" style="5" customWidth="1"/>
+    <col min="3598" max="3598" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3599" max="3599" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3600" max="3600" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3601" max="3601" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3602" max="3602" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3603" max="3603" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3604" max="3604" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3605" max="3605" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3606" max="3606" width="15.58203125" style="5" customWidth="1"/>
+    <col min="3601" max="3601" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3602" max="3602" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3603" max="3603" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3604" max="3604" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3605" max="3605" width="12.875" style="5" customWidth="1"/>
+    <col min="3606" max="3606" width="15.625" style="5" customWidth="1"/>
     <col min="3607" max="3840" width="9" style="5"/>
-    <col min="3841" max="3841" width="37.83203125" style="5" customWidth="1"/>
-    <col min="3842" max="3842" width="6.58203125" style="5" customWidth="1"/>
+    <col min="3841" max="3841" width="37.875" style="5" customWidth="1"/>
+    <col min="3842" max="3842" width="6.625" style="5" customWidth="1"/>
     <col min="3843" max="3843" width="9" style="5"/>
-    <col min="3844" max="3844" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3847" max="3847" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="3850" max="3850" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="3851" max="3851" width="12.75" style="5" customWidth="1"/>
     <col min="3852" max="3852" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3853" max="3853" width="14.08203125" style="5" customWidth="1"/>
-    <col min="3854" max="3854" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3853" max="3853" width="14.125" style="5" customWidth="1"/>
+    <col min="3854" max="3854" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="3855" max="3855" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="3856" max="3856" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="3857" max="3857" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3858" max="3858" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3859" max="3859" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3860" max="3860" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3861" max="3861" width="12.83203125" style="5" customWidth="1"/>
-    <col min="3862" max="3862" width="15.58203125" style="5" customWidth="1"/>
+    <col min="3857" max="3857" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3858" max="3858" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3859" max="3859" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3860" max="3860" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3861" max="3861" width="12.875" style="5" customWidth="1"/>
+    <col min="3862" max="3862" width="15.625" style="5" customWidth="1"/>
     <col min="3863" max="4096" width="9" style="5"/>
-    <col min="4097" max="4097" width="37.83203125" style="5" customWidth="1"/>
-    <col min="4098" max="4098" width="6.58203125" style="5" customWidth="1"/>
+    <col min="4097" max="4097" width="37.875" style="5" customWidth="1"/>
+    <col min="4098" max="4098" width="6.625" style="5" customWidth="1"/>
     <col min="4099" max="4099" width="9" style="5"/>
-    <col min="4100" max="4100" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4103" max="4103" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4106" max="4106" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="4107" max="4107" width="12.75" style="5" customWidth="1"/>
     <col min="4108" max="4108" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4109" width="14.08203125" style="5" customWidth="1"/>
-    <col min="4110" max="4110" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4109" width="14.125" style="5" customWidth="1"/>
+    <col min="4110" max="4110" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4111" max="4111" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4112" max="4112" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4113" max="4113" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4114" max="4114" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4115" max="4115" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4116" max="4116" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4117" max="4117" width="12.83203125" style="5" customWidth="1"/>
-    <col min="4118" max="4118" width="15.58203125" style="5" customWidth="1"/>
+    <col min="4113" max="4113" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4114" max="4114" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4115" max="4115" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4116" max="4116" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4117" max="4117" width="12.875" style="5" customWidth="1"/>
+    <col min="4118" max="4118" width="15.625" style="5" customWidth="1"/>
     <col min="4119" max="4352" width="9" style="5"/>
-    <col min="4353" max="4353" width="37.83203125" style="5" customWidth="1"/>
-    <col min="4354" max="4354" width="6.58203125" style="5" customWidth="1"/>
+    <col min="4353" max="4353" width="37.875" style="5" customWidth="1"/>
+    <col min="4354" max="4354" width="6.625" style="5" customWidth="1"/>
     <col min="4355" max="4355" width="9" style="5"/>
-    <col min="4356" max="4356" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4359" max="4359" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4362" max="4362" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="4363" max="4363" width="12.75" style="5" customWidth="1"/>
     <col min="4364" max="4364" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4365" width="14.08203125" style="5" customWidth="1"/>
-    <col min="4366" max="4366" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4365" width="14.125" style="5" customWidth="1"/>
+    <col min="4366" max="4366" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4367" max="4367" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4368" max="4368" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4369" max="4369" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4370" max="4370" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4371" max="4371" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4372" max="4372" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4373" max="4373" width="12.83203125" style="5" customWidth="1"/>
-    <col min="4374" max="4374" width="15.58203125" style="5" customWidth="1"/>
+    <col min="4369" max="4369" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4370" max="4370" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4371" max="4371" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4372" max="4372" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4373" max="4373" width="12.875" style="5" customWidth="1"/>
+    <col min="4374" max="4374" width="15.625" style="5" customWidth="1"/>
     <col min="4375" max="4608" width="9" style="5"/>
-    <col min="4609" max="4609" width="37.83203125" style="5" customWidth="1"/>
-    <col min="4610" max="4610" width="6.58203125" style="5" customWidth="1"/>
+    <col min="4609" max="4609" width="37.875" style="5" customWidth="1"/>
+    <col min="4610" max="4610" width="6.625" style="5" customWidth="1"/>
     <col min="4611" max="4611" width="9" style="5"/>
-    <col min="4612" max="4612" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4615" max="4615" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4618" max="4618" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="4619" max="4619" width="12.75" style="5" customWidth="1"/>
     <col min="4620" max="4620" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4621" width="14.08203125" style="5" customWidth="1"/>
-    <col min="4622" max="4622" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4621" width="14.125" style="5" customWidth="1"/>
+    <col min="4622" max="4622" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4623" max="4623" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4624" max="4624" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4625" max="4625" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4626" max="4626" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4627" max="4627" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4628" max="4628" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4629" max="4629" width="12.83203125" style="5" customWidth="1"/>
-    <col min="4630" max="4630" width="15.58203125" style="5" customWidth="1"/>
+    <col min="4625" max="4625" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4626" max="4626" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4627" max="4627" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4628" max="4628" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4629" max="4629" width="12.875" style="5" customWidth="1"/>
+    <col min="4630" max="4630" width="15.625" style="5" customWidth="1"/>
     <col min="4631" max="4864" width="9" style="5"/>
-    <col min="4865" max="4865" width="37.83203125" style="5" customWidth="1"/>
-    <col min="4866" max="4866" width="6.58203125" style="5" customWidth="1"/>
+    <col min="4865" max="4865" width="37.875" style="5" customWidth="1"/>
+    <col min="4866" max="4866" width="6.625" style="5" customWidth="1"/>
     <col min="4867" max="4867" width="9" style="5"/>
-    <col min="4868" max="4868" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4871" max="4871" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4874" max="4874" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="4875" max="4875" width="12.75" style="5" customWidth="1"/>
     <col min="4876" max="4876" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4877" max="4877" width="14.08203125" style="5" customWidth="1"/>
-    <col min="4878" max="4878" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4877" max="4877" width="14.125" style="5" customWidth="1"/>
+    <col min="4878" max="4878" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4879" max="4879" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="4880" max="4880" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="4881" max="4881" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4882" max="4882" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4883" max="4883" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4884" max="4884" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4885" max="4885" width="12.83203125" style="5" customWidth="1"/>
-    <col min="4886" max="4886" width="15.58203125" style="5" customWidth="1"/>
+    <col min="4881" max="4881" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4882" max="4882" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4883" max="4883" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4884" max="4884" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4885" max="4885" width="12.875" style="5" customWidth="1"/>
+    <col min="4886" max="4886" width="15.625" style="5" customWidth="1"/>
     <col min="4887" max="5120" width="9" style="5"/>
-    <col min="5121" max="5121" width="37.83203125" style="5" customWidth="1"/>
-    <col min="5122" max="5122" width="6.58203125" style="5" customWidth="1"/>
+    <col min="5121" max="5121" width="37.875" style="5" customWidth="1"/>
+    <col min="5122" max="5122" width="6.625" style="5" customWidth="1"/>
     <col min="5123" max="5123" width="9" style="5"/>
-    <col min="5124" max="5124" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5127" max="5127" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5130" max="5130" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5131" max="5131" width="12.75" style="5" customWidth="1"/>
     <col min="5132" max="5132" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5133" width="14.08203125" style="5" customWidth="1"/>
-    <col min="5134" max="5134" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5133" width="14.125" style="5" customWidth="1"/>
+    <col min="5134" max="5134" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5135" max="5135" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5136" max="5136" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5137" max="5137" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5138" max="5138" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5139" max="5139" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5140" max="5140" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5141" max="5141" width="12.83203125" style="5" customWidth="1"/>
-    <col min="5142" max="5142" width="15.58203125" style="5" customWidth="1"/>
+    <col min="5137" max="5137" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5138" max="5138" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5139" max="5139" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5140" max="5140" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5141" max="5141" width="12.875" style="5" customWidth="1"/>
+    <col min="5142" max="5142" width="15.625" style="5" customWidth="1"/>
     <col min="5143" max="5376" width="9" style="5"/>
-    <col min="5377" max="5377" width="37.83203125" style="5" customWidth="1"/>
-    <col min="5378" max="5378" width="6.58203125" style="5" customWidth="1"/>
+    <col min="5377" max="5377" width="37.875" style="5" customWidth="1"/>
+    <col min="5378" max="5378" width="6.625" style="5" customWidth="1"/>
     <col min="5379" max="5379" width="9" style="5"/>
-    <col min="5380" max="5380" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5383" max="5383" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5386" max="5386" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5387" max="5387" width="12.75" style="5" customWidth="1"/>
     <col min="5388" max="5388" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5389" width="14.08203125" style="5" customWidth="1"/>
-    <col min="5390" max="5390" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5389" width="14.125" style="5" customWidth="1"/>
+    <col min="5390" max="5390" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5391" max="5391" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5392" max="5392" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5393" max="5393" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5394" max="5394" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5395" max="5395" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5396" max="5396" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5397" max="5397" width="12.83203125" style="5" customWidth="1"/>
-    <col min="5398" max="5398" width="15.58203125" style="5" customWidth="1"/>
+    <col min="5393" max="5393" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5394" max="5394" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5395" max="5395" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5396" max="5396" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5397" max="5397" width="12.875" style="5" customWidth="1"/>
+    <col min="5398" max="5398" width="15.625" style="5" customWidth="1"/>
     <col min="5399" max="5632" width="9" style="5"/>
-    <col min="5633" max="5633" width="37.83203125" style="5" customWidth="1"/>
-    <col min="5634" max="5634" width="6.58203125" style="5" customWidth="1"/>
+    <col min="5633" max="5633" width="37.875" style="5" customWidth="1"/>
+    <col min="5634" max="5634" width="6.625" style="5" customWidth="1"/>
     <col min="5635" max="5635" width="9" style="5"/>
-    <col min="5636" max="5636" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5639" max="5639" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5642" max="5642" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5643" max="5643" width="12.75" style="5" customWidth="1"/>
     <col min="5644" max="5644" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5645" width="14.08203125" style="5" customWidth="1"/>
-    <col min="5646" max="5646" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5645" width="14.125" style="5" customWidth="1"/>
+    <col min="5646" max="5646" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5647" max="5647" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5648" max="5648" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5649" max="5649" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5650" max="5650" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5651" max="5651" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5652" max="5652" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5653" max="5653" width="12.83203125" style="5" customWidth="1"/>
-    <col min="5654" max="5654" width="15.58203125" style="5" customWidth="1"/>
+    <col min="5649" max="5649" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5650" max="5650" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5651" max="5651" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5652" max="5652" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5653" max="5653" width="12.875" style="5" customWidth="1"/>
+    <col min="5654" max="5654" width="15.625" style="5" customWidth="1"/>
     <col min="5655" max="5888" width="9" style="5"/>
-    <col min="5889" max="5889" width="37.83203125" style="5" customWidth="1"/>
-    <col min="5890" max="5890" width="6.58203125" style="5" customWidth="1"/>
+    <col min="5889" max="5889" width="37.875" style="5" customWidth="1"/>
+    <col min="5890" max="5890" width="6.625" style="5" customWidth="1"/>
     <col min="5891" max="5891" width="9" style="5"/>
-    <col min="5892" max="5892" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5895" max="5895" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="5898" max="5898" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="5899" max="5899" width="12.75" style="5" customWidth="1"/>
     <col min="5900" max="5900" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5901" max="5901" width="14.08203125" style="5" customWidth="1"/>
-    <col min="5902" max="5902" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5901" max="5901" width="14.125" style="5" customWidth="1"/>
+    <col min="5902" max="5902" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="5903" max="5903" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5904" max="5904" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="5905" max="5905" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5906" max="5906" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5907" max="5907" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5908" max="5908" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5909" max="5909" width="12.83203125" style="5" customWidth="1"/>
-    <col min="5910" max="5910" width="15.58203125" style="5" customWidth="1"/>
+    <col min="5905" max="5905" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5906" max="5906" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5907" max="5907" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5908" max="5908" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5909" max="5909" width="12.875" style="5" customWidth="1"/>
+    <col min="5910" max="5910" width="15.625" style="5" customWidth="1"/>
     <col min="5911" max="6144" width="9" style="5"/>
-    <col min="6145" max="6145" width="37.83203125" style="5" customWidth="1"/>
-    <col min="6146" max="6146" width="6.58203125" style="5" customWidth="1"/>
+    <col min="6145" max="6145" width="37.875" style="5" customWidth="1"/>
+    <col min="6146" max="6146" width="6.625" style="5" customWidth="1"/>
     <col min="6147" max="6147" width="9" style="5"/>
-    <col min="6148" max="6148" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6151" max="6151" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6154" max="6154" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6155" max="6155" width="12.75" style="5" customWidth="1"/>
     <col min="6156" max="6156" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6157" width="14.08203125" style="5" customWidth="1"/>
-    <col min="6158" max="6158" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6157" width="14.125" style="5" customWidth="1"/>
+    <col min="6158" max="6158" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6159" max="6159" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6160" max="6160" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6161" max="6161" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6162" max="6162" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6163" max="6163" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6164" max="6164" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6165" max="6165" width="12.83203125" style="5" customWidth="1"/>
-    <col min="6166" max="6166" width="15.58203125" style="5" customWidth="1"/>
+    <col min="6161" max="6161" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6162" max="6162" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6163" max="6163" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6164" max="6164" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6165" max="6165" width="12.875" style="5" customWidth="1"/>
+    <col min="6166" max="6166" width="15.625" style="5" customWidth="1"/>
     <col min="6167" max="6400" width="9" style="5"/>
-    <col min="6401" max="6401" width="37.83203125" style="5" customWidth="1"/>
-    <col min="6402" max="6402" width="6.58203125" style="5" customWidth="1"/>
+    <col min="6401" max="6401" width="37.875" style="5" customWidth="1"/>
+    <col min="6402" max="6402" width="6.625" style="5" customWidth="1"/>
     <col min="6403" max="6403" width="9" style="5"/>
-    <col min="6404" max="6404" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6407" max="6407" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6410" max="6410" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6411" max="6411" width="12.75" style="5" customWidth="1"/>
     <col min="6412" max="6412" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6413" width="14.08203125" style="5" customWidth="1"/>
-    <col min="6414" max="6414" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6413" width="14.125" style="5" customWidth="1"/>
+    <col min="6414" max="6414" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6415" max="6415" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6416" max="6416" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6417" max="6417" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6418" max="6418" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6419" max="6419" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6420" max="6420" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6421" max="6421" width="12.83203125" style="5" customWidth="1"/>
-    <col min="6422" max="6422" width="15.58203125" style="5" customWidth="1"/>
+    <col min="6417" max="6417" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6418" max="6418" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6419" max="6419" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6420" max="6420" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6421" max="6421" width="12.875" style="5" customWidth="1"/>
+    <col min="6422" max="6422" width="15.625" style="5" customWidth="1"/>
     <col min="6423" max="6656" width="9" style="5"/>
-    <col min="6657" max="6657" width="37.83203125" style="5" customWidth="1"/>
-    <col min="6658" max="6658" width="6.58203125" style="5" customWidth="1"/>
+    <col min="6657" max="6657" width="37.875" style="5" customWidth="1"/>
+    <col min="6658" max="6658" width="6.625" style="5" customWidth="1"/>
     <col min="6659" max="6659" width="9" style="5"/>
-    <col min="6660" max="6660" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6663" max="6663" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6666" max="6666" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6667" max="6667" width="12.75" style="5" customWidth="1"/>
     <col min="6668" max="6668" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6669" width="14.08203125" style="5" customWidth="1"/>
-    <col min="6670" max="6670" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6669" width="14.125" style="5" customWidth="1"/>
+    <col min="6670" max="6670" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6671" max="6671" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6672" max="6672" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6673" max="6673" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6674" max="6674" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6675" max="6675" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6676" max="6676" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6677" max="6677" width="12.83203125" style="5" customWidth="1"/>
-    <col min="6678" max="6678" width="15.58203125" style="5" customWidth="1"/>
+    <col min="6673" max="6673" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6674" max="6674" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6675" max="6675" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6676" max="6676" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6677" max="6677" width="12.875" style="5" customWidth="1"/>
+    <col min="6678" max="6678" width="15.625" style="5" customWidth="1"/>
     <col min="6679" max="6912" width="9" style="5"/>
-    <col min="6913" max="6913" width="37.83203125" style="5" customWidth="1"/>
-    <col min="6914" max="6914" width="6.58203125" style="5" customWidth="1"/>
+    <col min="6913" max="6913" width="37.875" style="5" customWidth="1"/>
+    <col min="6914" max="6914" width="6.625" style="5" customWidth="1"/>
     <col min="6915" max="6915" width="9" style="5"/>
-    <col min="6916" max="6916" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6919" max="6919" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6922" max="6922" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="6923" max="6923" width="12.75" style="5" customWidth="1"/>
     <col min="6924" max="6924" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6925" max="6925" width="14.08203125" style="5" customWidth="1"/>
-    <col min="6926" max="6926" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6925" max="6925" width="14.125" style="5" customWidth="1"/>
+    <col min="6926" max="6926" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="6927" max="6927" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6928" max="6928" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6929" max="6929" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6930" max="6930" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6931" max="6931" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6932" max="6932" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6933" max="6933" width="12.83203125" style="5" customWidth="1"/>
-    <col min="6934" max="6934" width="15.58203125" style="5" customWidth="1"/>
+    <col min="6929" max="6929" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6930" max="6930" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6931" max="6931" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6932" max="6932" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6933" max="6933" width="12.875" style="5" customWidth="1"/>
+    <col min="6934" max="6934" width="15.625" style="5" customWidth="1"/>
     <col min="6935" max="7168" width="9" style="5"/>
-    <col min="7169" max="7169" width="37.83203125" style="5" customWidth="1"/>
-    <col min="7170" max="7170" width="6.58203125" style="5" customWidth="1"/>
+    <col min="7169" max="7169" width="37.875" style="5" customWidth="1"/>
+    <col min="7170" max="7170" width="6.625" style="5" customWidth="1"/>
     <col min="7171" max="7171" width="9" style="5"/>
-    <col min="7172" max="7172" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7175" max="7175" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7178" max="7178" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7179" max="7179" width="12.75" style="5" customWidth="1"/>
     <col min="7180" max="7180" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7181" width="14.08203125" style="5" customWidth="1"/>
-    <col min="7182" max="7182" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7181" width="14.125" style="5" customWidth="1"/>
+    <col min="7182" max="7182" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7183" max="7183" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7184" max="7184" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7185" max="7185" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7186" max="7186" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7187" max="7187" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7188" max="7188" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7189" max="7189" width="12.83203125" style="5" customWidth="1"/>
-    <col min="7190" max="7190" width="15.58203125" style="5" customWidth="1"/>
+    <col min="7185" max="7185" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7186" max="7186" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7187" max="7187" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7188" max="7188" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7189" max="7189" width="12.875" style="5" customWidth="1"/>
+    <col min="7190" max="7190" width="15.625" style="5" customWidth="1"/>
     <col min="7191" max="7424" width="9" style="5"/>
-    <col min="7425" max="7425" width="37.83203125" style="5" customWidth="1"/>
-    <col min="7426" max="7426" width="6.58203125" style="5" customWidth="1"/>
+    <col min="7425" max="7425" width="37.875" style="5" customWidth="1"/>
+    <col min="7426" max="7426" width="6.625" style="5" customWidth="1"/>
     <col min="7427" max="7427" width="9" style="5"/>
-    <col min="7428" max="7428" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7431" max="7431" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7434" max="7434" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7435" max="7435" width="12.75" style="5" customWidth="1"/>
     <col min="7436" max="7436" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7437" width="14.08203125" style="5" customWidth="1"/>
-    <col min="7438" max="7438" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7437" width="14.125" style="5" customWidth="1"/>
+    <col min="7438" max="7438" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7439" max="7439" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7440" max="7440" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7441" max="7441" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7442" max="7442" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7443" max="7443" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7444" max="7444" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7445" max="7445" width="12.83203125" style="5" customWidth="1"/>
-    <col min="7446" max="7446" width="15.58203125" style="5" customWidth="1"/>
+    <col min="7441" max="7441" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7442" max="7442" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7443" max="7443" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7444" max="7444" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7445" max="7445" width="12.875" style="5" customWidth="1"/>
+    <col min="7446" max="7446" width="15.625" style="5" customWidth="1"/>
     <col min="7447" max="7680" width="9" style="5"/>
-    <col min="7681" max="7681" width="37.83203125" style="5" customWidth="1"/>
-    <col min="7682" max="7682" width="6.58203125" style="5" customWidth="1"/>
+    <col min="7681" max="7681" width="37.875" style="5" customWidth="1"/>
+    <col min="7682" max="7682" width="6.625" style="5" customWidth="1"/>
     <col min="7683" max="7683" width="9" style="5"/>
-    <col min="7684" max="7684" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7687" max="7687" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7690" max="7690" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7691" max="7691" width="12.75" style="5" customWidth="1"/>
     <col min="7692" max="7692" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7693" width="14.08203125" style="5" customWidth="1"/>
-    <col min="7694" max="7694" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7693" width="14.125" style="5" customWidth="1"/>
+    <col min="7694" max="7694" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7695" max="7695" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7696" max="7696" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7697" max="7697" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7698" max="7698" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7699" max="7699" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7700" max="7700" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7701" max="7701" width="12.83203125" style="5" customWidth="1"/>
-    <col min="7702" max="7702" width="15.58203125" style="5" customWidth="1"/>
+    <col min="7697" max="7697" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7698" max="7698" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7699" max="7699" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7700" max="7700" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7701" max="7701" width="12.875" style="5" customWidth="1"/>
+    <col min="7702" max="7702" width="15.625" style="5" customWidth="1"/>
     <col min="7703" max="7936" width="9" style="5"/>
-    <col min="7937" max="7937" width="37.83203125" style="5" customWidth="1"/>
-    <col min="7938" max="7938" width="6.58203125" style="5" customWidth="1"/>
+    <col min="7937" max="7937" width="37.875" style="5" customWidth="1"/>
+    <col min="7938" max="7938" width="6.625" style="5" customWidth="1"/>
     <col min="7939" max="7939" width="9" style="5"/>
-    <col min="7940" max="7940" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7943" max="7943" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="7946" max="7946" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="7947" max="7947" width="12.75" style="5" customWidth="1"/>
     <col min="7948" max="7948" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7949" max="7949" width="14.08203125" style="5" customWidth="1"/>
-    <col min="7950" max="7950" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7949" max="7949" width="14.125" style="5" customWidth="1"/>
+    <col min="7950" max="7950" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="7951" max="7951" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="7952" max="7952" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="7953" max="7953" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7954" max="7954" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7955" max="7955" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7956" max="7956" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7957" max="7957" width="12.83203125" style="5" customWidth="1"/>
-    <col min="7958" max="7958" width="15.58203125" style="5" customWidth="1"/>
+    <col min="7953" max="7953" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7954" max="7954" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7955" max="7955" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7956" max="7956" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7957" max="7957" width="12.875" style="5" customWidth="1"/>
+    <col min="7958" max="7958" width="15.625" style="5" customWidth="1"/>
     <col min="7959" max="8192" width="9" style="5"/>
-    <col min="8193" max="8193" width="37.83203125" style="5" customWidth="1"/>
-    <col min="8194" max="8194" width="6.58203125" style="5" customWidth="1"/>
+    <col min="8193" max="8193" width="37.875" style="5" customWidth="1"/>
+    <col min="8194" max="8194" width="6.625" style="5" customWidth="1"/>
     <col min="8195" max="8195" width="9" style="5"/>
-    <col min="8196" max="8196" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8199" max="8199" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="8202" max="8202" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="8203" max="8203" width="12.75" style="5" customWidth="1"/>
     <col min="8204" max="8204" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8205" width="14.08203125" style="5" customWidth="1"/>
-    <col min="8206" max="8206" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8205" width="14.125" style="5" customWidth="1"/>
+    <col min="8206" max="8206" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8207" max="8207" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8208" max="8208" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8209" max="8209" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8210" max="8210" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8211" max="8211" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8212" max="8212" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8213" max="8213" width="12.83203125" style="5" customWidth="1"/>
-    <col min="8214" max="8214" width="15.58203125" style="5" customWidth="1"/>
+    <col min="8209" max="8209" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8210" max="8210" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8211" max="8211" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8212" max="8212" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8213" max="8213" width="12.875" style="5" customWidth="1"/>
+    <col min="8214" max="8214" width="15.625" style="5" customWidth="1"/>
     <col min="8215" max="8448" width="9" style="5"/>
-    <col min="8449" max="8449" width="37.83203125" style="5" customWidth="1"/>
-    <col min="8450" max="8450" width="6.58203125" style="5" customWidth="1"/>
+    <col min="8449" max="8449" width="37.875" style="5" customWidth="1"/>
+    <col min="8450" max="8450" width="6.625" style="5" customWidth="1"/>
     <col min="8451" max="8451" width="9" style="5"/>
-    <col min="8452" max="8452" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8455" max="8455" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="8458" max="8458" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="8459" max="8459" width="12.75" style="5" customWidth="1"/>
     <col min="8460" max="8460" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8461" width="14.08203125" style="5" customWidth="1"/>
-    <col min="8462" max="8462" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8461" width="14.125" style="5" customWidth="1"/>
+    <col min="8462" max="8462" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8463" max="8463" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8464" max="8464" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8465" max="8465" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8466" max="8466" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8467" max="8467" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8468" max="8468" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8469" max="8469" width="12.83203125" style="5" customWidth="1"/>
-    <col min="8470" max="8470" width="15.58203125" style="5" customWidth="1"/>
+    <col min="8465" max="8465" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8466" max="8466" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8467" max="8467" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8468" max="8468" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8469" max="8469" width="12.875" style="5" customWidth="1"/>
+    <col min="8470" max="8470" width="15.625" style="5" customWidth="1"/>
     <col min="8471" max="8704" width="9" style="5"/>
-    <col min="8705" max="8705" width="37.83203125" style="5" customWidth="1"/>
-    <col min="8706" max="8706" width="6.58203125" style="5" customWidth="1"/>
+    <col min="8705" max="8705" width="37.875" style="5" customWidth="1"/>
+    <col min="8706" max="8706" width="6.625" style="5" customWidth="1"/>
     <col min="8707" max="8707" width="9" style="5"/>
-    <col min="8708" max="8708" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8711" max="8711" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="8714" max="8714" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="8715" max="8715" width="12.75" style="5" customWidth="1"/>
     <col min="8716" max="8716" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8717" width="14.08203125" style="5" customWidth="1"/>
-    <col min="8718" max="8718" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8717" width="14.125" style="5" customWidth="1"/>
+    <col min="8718" max="8718" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8719" max="8719" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8720" max="8720" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8721" max="8721" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8722" max="8722" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8723" max="8723" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8724" max="8724" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8725" max="8725" width="12.83203125" style="5" customWidth="1"/>
-    <col min="8726" max="8726" width="15.58203125" style="5" customWidth="1"/>
+    <col min="8721" max="8721" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8722" max="8722" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8723" max="8723" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8724" max="8724" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8725" max="8725" width="12.875" style="5" customWidth="1"/>
+    <col min="8726" max="8726" width="15.625" style="5" customWidth="1"/>
     <col min="8727" max="8960" width="9" style="5"/>
-    <col min="8961" max="8961" width="37.83203125" style="5" customWidth="1"/>
-    <col min="8962" max="8962" width="6.58203125" style="5" customWidth="1"/>
+    <col min="8961" max="8961" width="37.875" style="5" customWidth="1"/>
+    <col min="8962" max="8962" width="6.625" style="5" customWidth="1"/>
     <col min="8963" max="8963" width="9" style="5"/>
-    <col min="8964" max="8964" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8967" max="8967" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="8970" max="8970" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="8971" max="8971" width="12.75" style="5" customWidth="1"/>
     <col min="8972" max="8972" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8973" max="8973" width="14.08203125" style="5" customWidth="1"/>
-    <col min="8974" max="8974" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8973" max="8973" width="14.125" style="5" customWidth="1"/>
+    <col min="8974" max="8974" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="8975" max="8975" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="8976" max="8976" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8977" max="8977" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8978" max="8978" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8979" max="8979" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8980" max="8980" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8981" max="8981" width="12.83203125" style="5" customWidth="1"/>
-    <col min="8982" max="8982" width="15.58203125" style="5" customWidth="1"/>
+    <col min="8977" max="8977" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8978" max="8978" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8979" max="8979" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8980" max="8980" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8981" max="8981" width="12.875" style="5" customWidth="1"/>
+    <col min="8982" max="8982" width="15.625" style="5" customWidth="1"/>
     <col min="8983" max="9216" width="9" style="5"/>
-    <col min="9217" max="9217" width="37.83203125" style="5" customWidth="1"/>
-    <col min="9218" max="9218" width="6.58203125" style="5" customWidth="1"/>
+    <col min="9217" max="9217" width="37.875" style="5" customWidth="1"/>
+    <col min="9218" max="9218" width="6.625" style="5" customWidth="1"/>
     <col min="9219" max="9219" width="9" style="5"/>
-    <col min="9220" max="9220" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9223" max="9223" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9226" max="9226" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="9227" max="9227" width="12.75" style="5" customWidth="1"/>
     <col min="9228" max="9228" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9229" width="14.08203125" style="5" customWidth="1"/>
-    <col min="9230" max="9230" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9229" width="14.125" style="5" customWidth="1"/>
+    <col min="9230" max="9230" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9231" max="9231" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9232" max="9232" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9233" max="9233" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9234" max="9234" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9235" max="9235" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9236" max="9236" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9237" max="9237" width="12.83203125" style="5" customWidth="1"/>
-    <col min="9238" max="9238" width="15.58203125" style="5" customWidth="1"/>
+    <col min="9233" max="9233" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9234" max="9234" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9235" max="9235" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9236" max="9236" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9237" max="9237" width="12.875" style="5" customWidth="1"/>
+    <col min="9238" max="9238" width="15.625" style="5" customWidth="1"/>
     <col min="9239" max="9472" width="9" style="5"/>
-    <col min="9473" max="9473" width="37.83203125" style="5" customWidth="1"/>
-    <col min="9474" max="9474" width="6.58203125" style="5" customWidth="1"/>
+    <col min="9473" max="9473" width="37.875" style="5" customWidth="1"/>
+    <col min="9474" max="9474" width="6.625" style="5" customWidth="1"/>
     <col min="9475" max="9475" width="9" style="5"/>
-    <col min="9476" max="9476" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9479" max="9479" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9482" max="9482" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="9483" max="9483" width="12.75" style="5" customWidth="1"/>
     <col min="9484" max="9484" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9485" width="14.08203125" style="5" customWidth="1"/>
-    <col min="9486" max="9486" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9485" width="14.125" style="5" customWidth="1"/>
+    <col min="9486" max="9486" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9487" max="9487" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9488" max="9488" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9489" max="9489" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9490" max="9490" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9491" max="9491" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9492" max="9492" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9493" max="9493" width="12.83203125" style="5" customWidth="1"/>
-    <col min="9494" max="9494" width="15.58203125" style="5" customWidth="1"/>
+    <col min="9489" max="9489" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9490" max="9490" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9491" max="9491" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9492" max="9492" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9493" max="9493" width="12.875" style="5" customWidth="1"/>
+    <col min="9494" max="9494" width="15.625" style="5" customWidth="1"/>
     <col min="9495" max="9728" width="9" style="5"/>
-    <col min="9729" max="9729" width="37.83203125" style="5" customWidth="1"/>
-    <col min="9730" max="9730" width="6.58203125" style="5" customWidth="1"/>
+    <col min="9729" max="9729" width="37.875" style="5" customWidth="1"/>
+    <col min="9730" max="9730" width="6.625" style="5" customWidth="1"/>
     <col min="9731" max="9731" width="9" style="5"/>
-    <col min="9732" max="9732" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9735" max="9735" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9738" max="9738" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="9739" max="9739" width="12.75" style="5" customWidth="1"/>
     <col min="9740" max="9740" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9741" width="14.08203125" style="5" customWidth="1"/>
-    <col min="9742" max="9742" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9741" width="14.125" style="5" customWidth="1"/>
+    <col min="9742" max="9742" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9743" max="9743" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="9744" max="9744" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="9745" max="9745" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9746" max="9746" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9747" max="9747" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9748" max="9748" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9749" max="9749" width="12.83203125" style="5" customWidth="1"/>
-    <col min="9750" max="9750" width="15.58203125" style="5" customWidth="1"/>
+    <col min="9745" max="9745" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9746" max="9746" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9747" max="9747" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9748" max="9748" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9749" max="9749" width="12.875" style="5" customWidth="1"/>
+    <col min="9750" max="9750" width="15.625" style="5" customWidth="1"/>
     <col min="9751" max="9984" width="9" style="5"/>
-    <col min="9985" max="9985" width="37.83203125" style="5" customWidth="1"/>
-    <col min="9986" max="9986" width="6.58203125" style="5" customWidth="1"/>
+    <col min="9985" max="9985" width="37.875" style="5" customWidth="1"/>
+    <col min="9986" max="9986" width="6.625" style="5" customWidth="1"/>
     <col min="9987" max="9987" width="9" style="5"/>
-    <col min="9988" max="9988" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9991" max="9991" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="9994" max="9994" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="9995" max="9995" width="12.75" style="5" customWidth="1"/>
     <col min="9996" max="9996" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9997" max="9997" width="14.08203125" style="5" customWidth="1"/>
-    <col min="9998" max="9998" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9997" max="9997" width="14.125" style="5" customWidth="1"/>
+    <col min="9998" max="9998" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="9999" max="9999" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10000" max="10000" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10001" max="10001" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10002" max="10002" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10003" max="10003" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10004" max="10004" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10005" max="10005" width="12.83203125" style="5" customWidth="1"/>
-    <col min="10006" max="10006" width="15.58203125" style="5" customWidth="1"/>
+    <col min="10001" max="10001" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10002" max="10002" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10003" max="10003" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10004" max="10004" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10005" max="10005" width="12.875" style="5" customWidth="1"/>
+    <col min="10006" max="10006" width="15.625" style="5" customWidth="1"/>
     <col min="10007" max="10240" width="9" style="5"/>
-    <col min="10241" max="10241" width="37.83203125" style="5" customWidth="1"/>
-    <col min="10242" max="10242" width="6.58203125" style="5" customWidth="1"/>
+    <col min="10241" max="10241" width="37.875" style="5" customWidth="1"/>
+    <col min="10242" max="10242" width="6.625" style="5" customWidth="1"/>
     <col min="10243" max="10243" width="9" style="5"/>
-    <col min="10244" max="10244" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10247" max="10247" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="10250" max="10250" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="10251" max="10251" width="12.75" style="5" customWidth="1"/>
     <col min="10252" max="10252" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10253" width="14.08203125" style="5" customWidth="1"/>
-    <col min="10254" max="10254" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10253" width="14.125" style="5" customWidth="1"/>
+    <col min="10254" max="10254" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10255" max="10255" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10256" max="10256" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10257" max="10257" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10258" max="10258" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10259" max="10259" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10260" max="10260" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10261" max="10261" width="12.83203125" style="5" customWidth="1"/>
-    <col min="10262" max="10262" width="15.58203125" style="5" customWidth="1"/>
+    <col min="10257" max="10257" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10258" max="10258" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10259" max="10259" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10260" max="10260" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10261" max="10261" width="12.875" style="5" customWidth="1"/>
+    <col min="10262" max="10262" width="15.625" style="5" customWidth="1"/>
     <col min="10263" max="10496" width="9" style="5"/>
-    <col min="10497" max="10497" width="37.83203125" style="5" customWidth="1"/>
-    <col min="10498" max="10498" width="6.58203125" style="5" customWidth="1"/>
+    <col min="10497" max="10497" width="37.875" style="5" customWidth="1"/>
+    <col min="10498" max="10498" width="6.625" style="5" customWidth="1"/>
     <col min="10499" max="10499" width="9" style="5"/>
-    <col min="10500" max="10500" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10503" max="10503" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="10506" max="10506" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="10507" max="10507" width="12.75" style="5" customWidth="1"/>
     <col min="10508" max="10508" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10509" width="14.08203125" style="5" customWidth="1"/>
-    <col min="10510" max="10510" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10509" width="14.125" style="5" customWidth="1"/>
+    <col min="10510" max="10510" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10511" max="10511" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10512" max="10512" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10513" max="10513" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10514" max="10514" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10515" max="10515" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10516" max="10516" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10517" max="10517" width="12.83203125" style="5" customWidth="1"/>
-    <col min="10518" max="10518" width="15.58203125" style="5" customWidth="1"/>
+    <col min="10513" max="10513" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10514" max="10514" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10515" max="10515" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10516" max="10516" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10517" max="10517" width="12.875" style="5" customWidth="1"/>
+    <col min="10518" max="10518" width="15.625" style="5" customWidth="1"/>
     <col min="10519" max="10752" width="9" style="5"/>
-    <col min="10753" max="10753" width="37.83203125" style="5" customWidth="1"/>
-    <col min="10754" max="10754" width="6.58203125" style="5" customWidth="1"/>
+    <col min="10753" max="10753" width="37.875" style="5" customWidth="1"/>
+    <col min="10754" max="10754" width="6.625" style="5" customWidth="1"/>
     <col min="10755" max="10755" width="9" style="5"/>
-    <col min="10756" max="10756" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10759" max="10759" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="10762" max="10762" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="10763" max="10763" width="12.75" style="5" customWidth="1"/>
     <col min="10764" max="10764" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="10765" max="10765" width="14.08203125" style="5" customWidth="1"/>
-    <col min="10766" max="10766" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10765" max="10765" width="14.125" style="5" customWidth="1"/>
+    <col min="10766" max="10766" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="10767" max="10767" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="10768" max="10768" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="10769" max="10769" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10770" max="10770" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10771" max="10771" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10772" max="10772" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10773" max="10773" width="12.83203125" style="5" customWidth="1"/>
-    <col min="10774" max="10774" width="15.58203125" style="5" customWidth="1"/>
+    <col min="10769" max="10769" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10770" max="10770" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10771" max="10771" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10772" max="10772" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10773" max="10773" width="12.875" style="5" customWidth="1"/>
+    <col min="10774" max="10774" width="15.625" style="5" customWidth="1"/>
     <col min="10775" max="11008" width="9" style="5"/>
-    <col min="11009" max="11009" width="37.83203125" style="5" customWidth="1"/>
-    <col min="11010" max="11010" width="6.58203125" style="5" customWidth="1"/>
+    <col min="11009" max="11009" width="37.875" style="5" customWidth="1"/>
+    <col min="11010" max="11010" width="6.625" style="5" customWidth="1"/>
     <col min="11011" max="11011" width="9" style="5"/>
-    <col min="11012" max="11012" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11015" max="11015" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="11018" max="11018" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11019" max="11019" width="12.75" style="5" customWidth="1"/>
     <col min="11020" max="11020" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11021" width="14.08203125" style="5" customWidth="1"/>
-    <col min="11022" max="11022" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11021" width="14.125" style="5" customWidth="1"/>
+    <col min="11022" max="11022" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11023" max="11023" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11024" max="11024" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11025" max="11025" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11026" max="11026" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11027" max="11027" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11028" max="11028" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11029" max="11029" width="12.83203125" style="5" customWidth="1"/>
-    <col min="11030" max="11030" width="15.58203125" style="5" customWidth="1"/>
+    <col min="11025" max="11025" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11026" max="11026" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11027" max="11027" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11028" max="11028" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11029" max="11029" width="12.875" style="5" customWidth="1"/>
+    <col min="11030" max="11030" width="15.625" style="5" customWidth="1"/>
     <col min="11031" max="11264" width="9" style="5"/>
-    <col min="11265" max="11265" width="37.83203125" style="5" customWidth="1"/>
-    <col min="11266" max="11266" width="6.58203125" style="5" customWidth="1"/>
+    <col min="11265" max="11265" width="37.875" style="5" customWidth="1"/>
+    <col min="11266" max="11266" width="6.625" style="5" customWidth="1"/>
     <col min="11267" max="11267" width="9" style="5"/>
-    <col min="11268" max="11268" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11271" max="11271" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="11274" max="11274" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11275" max="11275" width="12.75" style="5" customWidth="1"/>
     <col min="11276" max="11276" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11277" width="14.08203125" style="5" customWidth="1"/>
-    <col min="11278" max="11278" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11277" width="14.125" style="5" customWidth="1"/>
+    <col min="11278" max="11278" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11279" max="11279" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11280" max="11280" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11281" max="11281" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11282" max="11282" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11283" max="11283" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11284" max="11284" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11285" max="11285" width="12.83203125" style="5" customWidth="1"/>
-    <col min="11286" max="11286" width="15.58203125" style="5" customWidth="1"/>
+    <col min="11281" max="11281" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11282" max="11282" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11283" max="11283" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11284" max="11284" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11285" max="11285" width="12.875" style="5" customWidth="1"/>
+    <col min="11286" max="11286" width="15.625" style="5" customWidth="1"/>
     <col min="11287" max="11520" width="9" style="5"/>
-    <col min="11521" max="11521" width="37.83203125" style="5" customWidth="1"/>
-    <col min="11522" max="11522" width="6.58203125" style="5" customWidth="1"/>
+    <col min="11521" max="11521" width="37.875" style="5" customWidth="1"/>
+    <col min="11522" max="11522" width="6.625" style="5" customWidth="1"/>
     <col min="11523" max="11523" width="9" style="5"/>
-    <col min="11524" max="11524" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11527" max="11527" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="11530" max="11530" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11531" max="11531" width="12.75" style="5" customWidth="1"/>
     <col min="11532" max="11532" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11533" width="14.08203125" style="5" customWidth="1"/>
-    <col min="11534" max="11534" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11533" width="14.125" style="5" customWidth="1"/>
+    <col min="11534" max="11534" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11535" max="11535" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11536" max="11536" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11537" max="11537" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11538" max="11538" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11539" max="11539" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11540" max="11540" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11541" max="11541" width="12.83203125" style="5" customWidth="1"/>
-    <col min="11542" max="11542" width="15.58203125" style="5" customWidth="1"/>
+    <col min="11537" max="11537" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11538" max="11538" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11539" max="11539" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11540" max="11540" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11541" max="11541" width="12.875" style="5" customWidth="1"/>
+    <col min="11542" max="11542" width="15.625" style="5" customWidth="1"/>
     <col min="11543" max="11776" width="9" style="5"/>
-    <col min="11777" max="11777" width="37.83203125" style="5" customWidth="1"/>
-    <col min="11778" max="11778" width="6.58203125" style="5" customWidth="1"/>
+    <col min="11777" max="11777" width="37.875" style="5" customWidth="1"/>
+    <col min="11778" max="11778" width="6.625" style="5" customWidth="1"/>
     <col min="11779" max="11779" width="9" style="5"/>
-    <col min="11780" max="11780" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11783" max="11783" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="11786" max="11786" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="11787" max="11787" width="12.75" style="5" customWidth="1"/>
     <col min="11788" max="11788" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="11789" max="11789" width="14.08203125" style="5" customWidth="1"/>
-    <col min="11790" max="11790" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11789" max="11789" width="14.125" style="5" customWidth="1"/>
+    <col min="11790" max="11790" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="11791" max="11791" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11792" max="11792" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="11793" max="11793" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11794" max="11794" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11795" max="11795" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11796" max="11796" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11797" max="11797" width="12.83203125" style="5" customWidth="1"/>
-    <col min="11798" max="11798" width="15.58203125" style="5" customWidth="1"/>
+    <col min="11793" max="11793" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11794" max="11794" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11795" max="11795" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11796" max="11796" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11797" max="11797" width="12.875" style="5" customWidth="1"/>
+    <col min="11798" max="11798" width="15.625" style="5" customWidth="1"/>
     <col min="11799" max="12032" width="9" style="5"/>
-    <col min="12033" max="12033" width="37.83203125" style="5" customWidth="1"/>
-    <col min="12034" max="12034" width="6.58203125" style="5" customWidth="1"/>
+    <col min="12033" max="12033" width="37.875" style="5" customWidth="1"/>
+    <col min="12034" max="12034" width="6.625" style="5" customWidth="1"/>
     <col min="12035" max="12035" width="9" style="5"/>
-    <col min="12036" max="12036" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12039" max="12039" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="12042" max="12042" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="12043" max="12043" width="12.75" style="5" customWidth="1"/>
     <col min="12044" max="12044" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12045" width="14.08203125" style="5" customWidth="1"/>
-    <col min="12046" max="12046" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12045" width="14.125" style="5" customWidth="1"/>
+    <col min="12046" max="12046" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12047" max="12047" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="12048" max="12048" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12049" max="12049" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12050" max="12050" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12051" max="12051" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12052" max="12052" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12053" max="12053" width="12.83203125" style="5" customWidth="1"/>
-    <col min="12054" max="12054" width="15.58203125" style="5" customWidth="1"/>
+    <col min="12049" max="12049" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12050" max="12050" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12051" max="12051" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12052" max="12052" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12053" max="12053" width="12.875" style="5" customWidth="1"/>
+    <col min="12054" max="12054" width="15.625" style="5" customWidth="1"/>
     <col min="12055" max="12288" width="9" style="5"/>
-    <col min="12289" max="12289" width="37.83203125" style="5" customWidth="1"/>
-    <col min="12290" max="12290" width="6.58203125" style="5" customWidth="1"/>
+    <col min="12289" max="12289" width="37.875" style="5" customWidth="1"/>
+    <col min="12290" max="12290" width="6.625" style="5" customWidth="1"/>
     <col min="12291" max="12291" width="9" style="5"/>
-    <col min="12292" max="12292" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12295" max="12295" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="12298" max="12298" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="12299" max="12299" width="12.75" style="5" customWidth="1"/>
     <col min="12300" max="12300" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12301" width="14.08203125" style="5" customWidth="1"/>
-    <col min="12302" max="12302" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12301" width="14.125" style="5" customWidth="1"/>
+    <col min="12302" max="12302" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12303" max="12303" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="12304" max="12304" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12305" max="12305" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12306" max="12306" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12307" max="12307" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12308" max="12308" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12309" max="12309" width="12.83203125" style="5" customWidth="1"/>
-    <col min="12310" max="12310" width="15.58203125" style="5" customWidth="1"/>
+    <col min="12305" max="12305" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12306" max="12306" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12307" max="12307" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12308" max="12308" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12309" max="12309" width="12.875" style="5" customWidth="1"/>
+    <col min="12310" max="12310" width="15.625" style="5" customWidth="1"/>
     <col min="12311" max="12544" width="9" style="5"/>
-    <col min="12545" max="12545" width="37.83203125" style="5" customWidth="1"/>
-    <col min="12546" max="12546" width="6.58203125" style="5" customWidth="1"/>
+    <col min="12545" max="12545" width="37.875" style="5" customWidth="1"/>
+    <col min="12546" max="12546" width="6.625" style="5" customWidth="1"/>
     <col min="12547" max="12547" width="9" style="5"/>
-    <col min="12548" max="12548" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12551" max="12551" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="12554" max="12554" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="12555" max="12555" width="12.75" style="5" customWidth="1"/>
     <col min="12556" max="12556" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12557" width="14.08203125" style="5" customWidth="1"/>
-    <col min="12558" max="12558" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12557" width="14.125" style="5" customWidth="1"/>
+    <col min="12558" max="12558" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12559" max="12559" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="12560" max="12560" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12561" max="12561" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12562" max="12562" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12563" max="12563" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12564" max="12564" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12565" max="12565" width="12.83203125" style="5" customWidth="1"/>
-    <col min="12566" max="12566" width="15.58203125" style="5" customWidth="1"/>
+    <col min="12561" max="12561" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12562" max="12562" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12563" max="12563" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12564" max="12564" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12565" max="12565" width="12.875" style="5" customWidth="1"/>
+    <col min="12566" max="12566" width="15.625" style="5" customWidth="1"/>
     <col min="12567" max="12800" width="9" style="5"/>
-    <col min="12801" max="12801" width="37.83203125" style="5" customWidth="1"/>
-    <col min="12802" max="12802" width="6.58203125" style="5" customWidth="1"/>
+    <col min="12801" max="12801" width="37.875" style="5" customWidth="1"/>
+    <col min="12802" max="12802" width="6.625" style="5" customWidth="1"/>
     <col min="12803" max="12803" width="9" style="5"/>
-    <col min="12804" max="12804" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12807" max="12807" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="12810" max="12810" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="12811" max="12811" width="12.75" style="5" customWidth="1"/>
     <col min="12812" max="12812" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12813" max="12813" width="14.08203125" style="5" customWidth="1"/>
-    <col min="12814" max="12814" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12813" max="12813" width="14.125" style="5" customWidth="1"/>
+    <col min="12814" max="12814" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12815" max="12815" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="12816" max="12816" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="12817" max="12817" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12818" max="12818" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12819" max="12819" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12820" max="12820" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12821" max="12821" width="12.83203125" style="5" customWidth="1"/>
-    <col min="12822" max="12822" width="15.58203125" style="5" customWidth="1"/>
+    <col min="12817" max="12817" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12818" max="12818" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12819" max="12819" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12820" max="12820" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12821" max="12821" width="12.875" style="5" customWidth="1"/>
+    <col min="12822" max="12822" width="15.625" style="5" customWidth="1"/>
     <col min="12823" max="13056" width="9" style="5"/>
-    <col min="13057" max="13057" width="37.83203125" style="5" customWidth="1"/>
-    <col min="13058" max="13058" width="6.58203125" style="5" customWidth="1"/>
+    <col min="13057" max="13057" width="37.875" style="5" customWidth="1"/>
+    <col min="13058" max="13058" width="6.625" style="5" customWidth="1"/>
     <col min="13059" max="13059" width="9" style="5"/>
-    <col min="13060" max="13060" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13063" max="13063" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13066" max="13066" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="13067" max="13067" width="12.75" style="5" customWidth="1"/>
     <col min="13068" max="13068" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13069" width="14.08203125" style="5" customWidth="1"/>
-    <col min="13070" max="13070" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13069" width="14.125" style="5" customWidth="1"/>
+    <col min="13070" max="13070" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13071" max="13071" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="13072" max="13072" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13073" max="13073" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13074" max="13074" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13075" max="13075" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13076" max="13076" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13077" max="13077" width="12.83203125" style="5" customWidth="1"/>
-    <col min="13078" max="13078" width="15.58203125" style="5" customWidth="1"/>
+    <col min="13073" max="13073" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13074" max="13074" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13075" max="13075" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13076" max="13076" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13077" max="13077" width="12.875" style="5" customWidth="1"/>
+    <col min="13078" max="13078" width="15.625" style="5" customWidth="1"/>
     <col min="13079" max="13312" width="9" style="5"/>
-    <col min="13313" max="13313" width="37.83203125" style="5" customWidth="1"/>
-    <col min="13314" max="13314" width="6.58203125" style="5" customWidth="1"/>
+    <col min="13313" max="13313" width="37.875" style="5" customWidth="1"/>
+    <col min="13314" max="13314" width="6.625" style="5" customWidth="1"/>
     <col min="13315" max="13315" width="9" style="5"/>
-    <col min="13316" max="13316" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13319" max="13319" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13322" max="13322" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="13323" max="13323" width="12.75" style="5" customWidth="1"/>
     <col min="13324" max="13324" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13325" width="14.08203125" style="5" customWidth="1"/>
-    <col min="13326" max="13326" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13325" width="14.125" style="5" customWidth="1"/>
+    <col min="13326" max="13326" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13327" max="13327" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="13328" max="13328" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13329" max="13329" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13330" max="13330" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13331" max="13331" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13332" max="13332" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13333" max="13333" width="12.83203125" style="5" customWidth="1"/>
-    <col min="13334" max="13334" width="15.58203125" style="5" customWidth="1"/>
+    <col min="13329" max="13329" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13330" max="13330" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13331" max="13331" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13332" max="13332" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13333" max="13333" width="12.875" style="5" customWidth="1"/>
+    <col min="13334" max="13334" width="15.625" style="5" customWidth="1"/>
     <col min="13335" max="13568" width="9" style="5"/>
-    <col min="13569" max="13569" width="37.83203125" style="5" customWidth="1"/>
-    <col min="13570" max="13570" width="6.58203125" style="5" customWidth="1"/>
+    <col min="13569" max="13569" width="37.875" style="5" customWidth="1"/>
+    <col min="13570" max="13570" width="6.625" style="5" customWidth="1"/>
     <col min="13571" max="13571" width="9" style="5"/>
-    <col min="13572" max="13572" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13575" max="13575" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13578" max="13578" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="13579" max="13579" width="12.75" style="5" customWidth="1"/>
     <col min="13580" max="13580" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13581" width="14.08203125" style="5" customWidth="1"/>
-    <col min="13582" max="13582" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13581" width="14.125" style="5" customWidth="1"/>
+    <col min="13582" max="13582" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13583" max="13583" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="13584" max="13584" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13585" max="13585" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13586" max="13586" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13587" max="13587" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13588" max="13588" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13589" max="13589" width="12.83203125" style="5" customWidth="1"/>
-    <col min="13590" max="13590" width="15.58203125" style="5" customWidth="1"/>
+    <col min="13585" max="13585" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13586" max="13586" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13587" max="13587" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13588" max="13588" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13589" max="13589" width="12.875" style="5" customWidth="1"/>
+    <col min="13590" max="13590" width="15.625" style="5" customWidth="1"/>
     <col min="13591" max="13824" width="9" style="5"/>
-    <col min="13825" max="13825" width="37.83203125" style="5" customWidth="1"/>
-    <col min="13826" max="13826" width="6.58203125" style="5" customWidth="1"/>
+    <col min="13825" max="13825" width="37.875" style="5" customWidth="1"/>
+    <col min="13826" max="13826" width="6.625" style="5" customWidth="1"/>
     <col min="13827" max="13827" width="9" style="5"/>
-    <col min="13828" max="13828" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13831" max="13831" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="13834" max="13834" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="13835" max="13835" width="12.75" style="5" customWidth="1"/>
     <col min="13836" max="13836" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="13837" max="13837" width="14.08203125" style="5" customWidth="1"/>
-    <col min="13838" max="13838" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13837" max="13837" width="14.125" style="5" customWidth="1"/>
+    <col min="13838" max="13838" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="13839" max="13839" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="13840" max="13840" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="13841" max="13841" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13842" max="13842" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13843" max="13843" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13844" max="13844" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13845" max="13845" width="12.83203125" style="5" customWidth="1"/>
-    <col min="13846" max="13846" width="15.58203125" style="5" customWidth="1"/>
+    <col min="13841" max="13841" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13842" max="13842" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13843" max="13843" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13844" max="13844" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13845" max="13845" width="12.875" style="5" customWidth="1"/>
+    <col min="13846" max="13846" width="15.625" style="5" customWidth="1"/>
     <col min="13847" max="14080" width="9" style="5"/>
-    <col min="14081" max="14081" width="37.83203125" style="5" customWidth="1"/>
-    <col min="14082" max="14082" width="6.58203125" style="5" customWidth="1"/>
+    <col min="14081" max="14081" width="37.875" style="5" customWidth="1"/>
+    <col min="14082" max="14082" width="6.625" style="5" customWidth="1"/>
     <col min="14083" max="14083" width="9" style="5"/>
-    <col min="14084" max="14084" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14087" max="14087" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="14090" max="14090" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="14091" max="14091" width="12.75" style="5" customWidth="1"/>
     <col min="14092" max="14092" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14093" width="14.08203125" style="5" customWidth="1"/>
-    <col min="14094" max="14094" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14093" width="14.125" style="5" customWidth="1"/>
+    <col min="14094" max="14094" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14095" max="14095" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14096" max="14096" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14097" max="14097" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14098" max="14098" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14099" max="14099" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14100" max="14100" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14101" max="14101" width="12.83203125" style="5" customWidth="1"/>
-    <col min="14102" max="14102" width="15.58203125" style="5" customWidth="1"/>
+    <col min="14097" max="14097" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14098" max="14098" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14099" max="14099" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14100" max="14100" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14101" max="14101" width="12.875" style="5" customWidth="1"/>
+    <col min="14102" max="14102" width="15.625" style="5" customWidth="1"/>
     <col min="14103" max="14336" width="9" style="5"/>
-    <col min="14337" max="14337" width="37.83203125" style="5" customWidth="1"/>
-    <col min="14338" max="14338" width="6.58203125" style="5" customWidth="1"/>
+    <col min="14337" max="14337" width="37.875" style="5" customWidth="1"/>
+    <col min="14338" max="14338" width="6.625" style="5" customWidth="1"/>
     <col min="14339" max="14339" width="9" style="5"/>
-    <col min="14340" max="14340" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14343" max="14343" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="14346" max="14346" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="14347" max="14347" width="12.75" style="5" customWidth="1"/>
     <col min="14348" max="14348" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14349" width="14.08203125" style="5" customWidth="1"/>
-    <col min="14350" max="14350" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14349" width="14.125" style="5" customWidth="1"/>
+    <col min="14350" max="14350" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14351" max="14351" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14352" max="14352" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14353" max="14353" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14354" max="14354" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14355" max="14355" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14356" max="14356" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14357" max="14357" width="12.83203125" style="5" customWidth="1"/>
-    <col min="14358" max="14358" width="15.58203125" style="5" customWidth="1"/>
+    <col min="14353" max="14353" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14354" max="14354" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14355" max="14355" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14356" max="14356" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14357" max="14357" width="12.875" style="5" customWidth="1"/>
+    <col min="14358" max="14358" width="15.625" style="5" customWidth="1"/>
     <col min="14359" max="14592" width="9" style="5"/>
-    <col min="14593" max="14593" width="37.83203125" style="5" customWidth="1"/>
-    <col min="14594" max="14594" width="6.58203125" style="5" customWidth="1"/>
+    <col min="14593" max="14593" width="37.875" style="5" customWidth="1"/>
+    <col min="14594" max="14594" width="6.625" style="5" customWidth="1"/>
     <col min="14595" max="14595" width="9" style="5"/>
-    <col min="14596" max="14596" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14599" max="14599" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="14602" max="14602" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="14603" max="14603" width="12.75" style="5" customWidth="1"/>
     <col min="14604" max="14604" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14605" width="14.08203125" style="5" customWidth="1"/>
-    <col min="14606" max="14606" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14605" width="14.125" style="5" customWidth="1"/>
+    <col min="14606" max="14606" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14607" max="14607" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14608" max="14608" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14609" max="14609" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14610" max="14610" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14611" max="14611" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14612" max="14612" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14613" max="14613" width="12.83203125" style="5" customWidth="1"/>
-    <col min="14614" max="14614" width="15.58203125" style="5" customWidth="1"/>
+    <col min="14609" max="14609" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14610" max="14610" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14611" max="14611" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14612" max="14612" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14613" max="14613" width="12.875" style="5" customWidth="1"/>
+    <col min="14614" max="14614" width="15.625" style="5" customWidth="1"/>
     <col min="14615" max="14848" width="9" style="5"/>
-    <col min="14849" max="14849" width="37.83203125" style="5" customWidth="1"/>
-    <col min="14850" max="14850" width="6.58203125" style="5" customWidth="1"/>
+    <col min="14849" max="14849" width="37.875" style="5" customWidth="1"/>
+    <col min="14850" max="14850" width="6.625" style="5" customWidth="1"/>
     <col min="14851" max="14851" width="9" style="5"/>
-    <col min="14852" max="14852" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14855" max="14855" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="14858" max="14858" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="14859" max="14859" width="12.75" style="5" customWidth="1"/>
     <col min="14860" max="14860" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14861" max="14861" width="14.08203125" style="5" customWidth="1"/>
-    <col min="14862" max="14862" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14861" max="14861" width="14.125" style="5" customWidth="1"/>
+    <col min="14862" max="14862" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="14863" max="14863" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="14864" max="14864" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="14865" max="14865" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14866" max="14866" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14867" max="14867" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14868" max="14868" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14869" max="14869" width="12.83203125" style="5" customWidth="1"/>
-    <col min="14870" max="14870" width="15.58203125" style="5" customWidth="1"/>
+    <col min="14865" max="14865" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14866" max="14866" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14867" max="14867" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14868" max="14868" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14869" max="14869" width="12.875" style="5" customWidth="1"/>
+    <col min="14870" max="14870" width="15.625" style="5" customWidth="1"/>
     <col min="14871" max="15104" width="9" style="5"/>
-    <col min="15105" max="15105" width="37.83203125" style="5" customWidth="1"/>
-    <col min="15106" max="15106" width="6.58203125" style="5" customWidth="1"/>
+    <col min="15105" max="15105" width="37.875" style="5" customWidth="1"/>
+    <col min="15106" max="15106" width="6.625" style="5" customWidth="1"/>
     <col min="15107" max="15107" width="9" style="5"/>
-    <col min="15108" max="15108" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15111" max="15111" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="15114" max="15114" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="15115" max="15115" width="12.75" style="5" customWidth="1"/>
     <col min="15116" max="15116" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15117" width="14.08203125" style="5" customWidth="1"/>
-    <col min="15118" max="15118" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15117" width="14.125" style="5" customWidth="1"/>
+    <col min="15118" max="15118" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15119" max="15119" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15120" max="15120" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15121" max="15121" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15122" max="15122" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15123" max="15123" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15124" max="15124" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15125" max="15125" width="12.83203125" style="5" customWidth="1"/>
-    <col min="15126" max="15126" width="15.58203125" style="5" customWidth="1"/>
+    <col min="15121" max="15121" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15122" max="15122" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15123" max="15123" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15124" max="15124" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15125" max="15125" width="12.875" style="5" customWidth="1"/>
+    <col min="15126" max="15126" width="15.625" style="5" customWidth="1"/>
     <col min="15127" max="15360" width="9" style="5"/>
-    <col min="15361" max="15361" width="37.83203125" style="5" customWidth="1"/>
-    <col min="15362" max="15362" width="6.58203125" style="5" customWidth="1"/>
+    <col min="15361" max="15361" width="37.875" style="5" customWidth="1"/>
+    <col min="15362" max="15362" width="6.625" style="5" customWidth="1"/>
     <col min="15363" max="15363" width="9" style="5"/>
-    <col min="15364" max="15364" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15367" max="15367" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="15370" max="15370" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="15371" max="15371" width="12.75" style="5" customWidth="1"/>
     <col min="15372" max="15372" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15373" width="14.08203125" style="5" customWidth="1"/>
-    <col min="15374" max="15374" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15373" width="14.125" style="5" customWidth="1"/>
+    <col min="15374" max="15374" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15375" max="15375" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15376" max="15376" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15377" max="15377" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15378" max="15378" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15379" max="15379" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15380" max="15380" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15381" max="15381" width="12.83203125" style="5" customWidth="1"/>
-    <col min="15382" max="15382" width="15.58203125" style="5" customWidth="1"/>
+    <col min="15377" max="15377" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15378" max="15378" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15379" max="15379" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15380" max="15380" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15381" max="15381" width="12.875" style="5" customWidth="1"/>
+    <col min="15382" max="15382" width="15.625" style="5" customWidth="1"/>
     <col min="15383" max="15616" width="9" style="5"/>
-    <col min="15617" max="15617" width="37.83203125" style="5" customWidth="1"/>
-    <col min="15618" max="15618" width="6.58203125" style="5" customWidth="1"/>
+    <col min="15617" max="15617" width="37.875" style="5" customWidth="1"/>
+    <col min="15618" max="15618" width="6.625" style="5" customWidth="1"/>
     <col min="15619" max="15619" width="9" style="5"/>
-    <col min="15620" max="15620" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15623" max="15623" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="15626" max="15626" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="15627" max="15627" width="12.75" style="5" customWidth="1"/>
     <col min="15628" max="15628" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15629" width="14.08203125" style="5" customWidth="1"/>
-    <col min="15630" max="15630" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15629" width="14.125" style="5" customWidth="1"/>
+    <col min="15630" max="15630" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15631" max="15631" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15632" max="15632" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15633" max="15633" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15634" max="15634" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15635" max="15635" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15636" max="15636" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15637" max="15637" width="12.83203125" style="5" customWidth="1"/>
-    <col min="15638" max="15638" width="15.58203125" style="5" customWidth="1"/>
+    <col min="15633" max="15633" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15634" max="15634" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15635" max="15635" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15636" max="15636" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15637" max="15637" width="12.875" style="5" customWidth="1"/>
+    <col min="15638" max="15638" width="15.625" style="5" customWidth="1"/>
     <col min="15639" max="15872" width="9" style="5"/>
-    <col min="15873" max="15873" width="37.83203125" style="5" customWidth="1"/>
-    <col min="15874" max="15874" width="6.58203125" style="5" customWidth="1"/>
+    <col min="15873" max="15873" width="37.875" style="5" customWidth="1"/>
+    <col min="15874" max="15874" width="6.625" style="5" customWidth="1"/>
     <col min="15875" max="15875" width="9" style="5"/>
-    <col min="15876" max="15876" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15879" max="15879" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="15882" max="15882" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="15883" max="15883" width="12.75" style="5" customWidth="1"/>
     <col min="15884" max="15884" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="15885" max="15885" width="14.08203125" style="5" customWidth="1"/>
-    <col min="15886" max="15886" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15885" max="15885" width="14.125" style="5" customWidth="1"/>
+    <col min="15886" max="15886" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="15887" max="15887" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="15888" max="15888" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="15889" max="15889" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15890" max="15890" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15891" max="15891" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15892" max="15892" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15893" max="15893" width="12.83203125" style="5" customWidth="1"/>
-    <col min="15894" max="15894" width="15.58203125" style="5" customWidth="1"/>
+    <col min="15889" max="15889" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15890" max="15890" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15891" max="15891" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15892" max="15892" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15893" max="15893" width="12.875" style="5" customWidth="1"/>
+    <col min="15894" max="15894" width="15.625" style="5" customWidth="1"/>
     <col min="15895" max="16128" width="9" style="5"/>
-    <col min="16129" max="16129" width="37.83203125" style="5" customWidth="1"/>
-    <col min="16130" max="16130" width="6.58203125" style="5" customWidth="1"/>
+    <col min="16129" max="16129" width="37.875" style="5" customWidth="1"/>
+    <col min="16130" max="16130" width="6.625" style="5" customWidth="1"/>
     <col min="16131" max="16131" width="9" style="5"/>
-    <col min="16132" max="16132" width="7.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="7.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.375" style="5" bestFit="1" customWidth="1"/>
     <col min="16135" max="16135" width="11.75" style="5" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="11.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="13.08203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="16138" max="16138" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="16139" max="16139" width="12.75" style="5" customWidth="1"/>
     <col min="16140" max="16140" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16141" width="14.08203125" style="5" customWidth="1"/>
-    <col min="16142" max="16142" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16141" width="14.125" style="5" customWidth="1"/>
+    <col min="16142" max="16142" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="16143" max="16143" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="16144" max="16144" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="16145" max="16145" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16146" max="16146" width="10.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16147" max="16147" width="12.58203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16148" max="16148" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16149" max="16149" width="12.83203125" style="5" customWidth="1"/>
-    <col min="16150" max="16150" width="15.58203125" style="5" customWidth="1"/>
+    <col min="16145" max="16145" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16146" max="16146" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16147" max="16147" width="12.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16148" max="16148" width="17.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16149" max="16149" width="12.875" style="5" customWidth="1"/>
+    <col min="16150" max="16150" width="15.625" style="5" customWidth="1"/>
     <col min="16151" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>46</v>
       </c>
@@ -3966,7 +4004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
@@ -4035,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
@@ -4104,7 +4142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -4173,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -4242,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -4311,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
@@ -4380,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>53</v>
       </c>
@@ -4449,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
@@ -4518,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -4587,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -4656,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -4725,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
@@ -4794,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>60</v>
       </c>
@@ -4863,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>61</v>
       </c>
@@ -4932,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>62</v>
       </c>
@@ -5001,12 +5039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>1</v>
       </c>
@@ -5020,7 +5058,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="5">
         <v>2</v>
       </c>
@@ -5034,7 +5072,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
         <v>3</v>
       </c>
@@ -5042,7 +5080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
         <v>4</v>
       </c>
@@ -5051,7 +5089,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V14" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:V14"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5060,7 +5098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:B12"/>
   <sheetViews>
@@ -5068,68 +5106,68 @@
       <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B12">
+  <sortState ref="B3:B12">
     <sortCondition descending="1" ref="B3:B12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
